--- a/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10603" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84A283F8-9406-4771-A52F-DF119C3DB885}"/>
+  <xr:revisionPtr revIDLastSave="10740" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04643CF-E721-40FC-8AA9-AD95BD2BB248}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full BOM List" sheetId="43" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="678">
   <si>
     <t>Part Type</t>
   </si>
@@ -1290,12 +1290,6 @@
     <t>08x400 Doorlink Steel Rod</t>
   </si>
   <si>
-    <t>HW</t>
-  </si>
-  <si>
-    <t>15x15 Aluminum Tube  230mm</t>
-  </si>
-  <si>
     <t>Polycarbonate 3mm</t>
   </si>
   <si>
@@ -1335,9 +1329,6 @@
     <t>Source Locally</t>
   </si>
   <si>
-    <t>V2 Cable Gland Insert_2x</t>
-  </si>
-  <si>
     <t>V2 Cable Gland Nut_1x</t>
   </si>
   <si>
@@ -1356,12 +1347,6 @@
     <t>V2 Door Arm Upper Elbow B_1x</t>
   </si>
   <si>
-    <t>V2 Door Handle A_1x</t>
-  </si>
-  <si>
-    <t>V2 Door Handle B_1x</t>
-  </si>
-  <si>
     <t>V2 Door Magnet Bracket Lower_2x</t>
   </si>
   <si>
@@ -1488,9 +1473,6 @@
     <t>dbx side_2x 9mm MDF/Ply</t>
   </si>
   <si>
-    <t>DHT 22 temp/humid sensor BME280?</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESP32  Expansion Board </t>
   </si>
   <si>
@@ -1638,15 +1620,6 @@
     <t>24V DC 350W meanwell</t>
   </si>
   <si>
-    <t>Output Voltage: LRS-350-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tepperonline </t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/1005005439330497.html?</t>
-  </si>
-  <si>
     <t>24v led strip 5M</t>
   </si>
   <si>
@@ -1720,9 +1693,6 @@
   </si>
   <si>
     <t xml:space="preserve">control board printed parts </t>
-  </si>
-  <si>
-    <t xml:space="preserve">printed </t>
   </si>
   <si>
     <t>Heater PTC 800W Chamber</t>
@@ -2106,6 +2076,39 @@
   <si>
     <t>V2 PTFE Gland</t>
   </si>
+  <si>
+    <t>Bearing</t>
+  </si>
+  <si>
+    <t>V2 Front Door Handle B_1x</t>
+  </si>
+  <si>
+    <t>V2 Front Door Handle A_1x</t>
+  </si>
+  <si>
+    <t>Set screw</t>
+  </si>
+  <si>
+    <t>Bolt</t>
+  </si>
+  <si>
+    <t>DHT 22/BME 280 temp/humid sensor</t>
+  </si>
+  <si>
+    <t>Output Voltage: LRS-350-24 (24V)</t>
+  </si>
+  <si>
+    <t>V2 Cable Gland Clamp_2x</t>
+  </si>
+  <si>
+    <t>15x15 AL Tube  L: 230mm</t>
+  </si>
+  <si>
+    <t>20x03 Magnet Keepers</t>
+  </si>
+  <si>
+    <t>20x06 Magnet 10kg</t>
+  </si>
 </sst>
 </file>
 
@@ -2119,11 +2122,18 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2573,95 +2583,95 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2676,7 +2686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2688,276 +2698,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="1" fontId="10" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="10" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="1" fontId="11" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -2975,49 +2965,6 @@
     <cellStyle name="Normal 9" xfId="9" xr:uid="{40B67649-AC0A-4FC1-B41E-42AB5C2B58C9}"/>
   </cellStyles>
   <dxfs count="137">
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3618,6 +3565,10 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -3635,6 +3586,10 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3658,19 +3613,14 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF00B0F0"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </font>
     </dxf>
     <dxf>
@@ -3690,6 +3640,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3726,6 +3700,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -5341,15 +5331,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5380,7 +5370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4772025" y="13735050"/>
+          <a:off x="4657725" y="14487525"/>
           <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5393,14 +5383,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>148176</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:colOff>205326</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5431,7 +5421,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="13744575"/>
+          <a:off x="7867650" y="14497050"/>
           <a:ext cx="1262601" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5792,19 +5782,19 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="A1:G26" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="A1:G26" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:G26" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="17" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="16" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{CEBCEC8D-8589-45D8-A38D-453A173B6A5C}" name="Pack Order Quantity" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{A5B8DC3B-9D4F-4B03-877B-EA360C82CDF3}" name="Order Link" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="5" xr3:uid="{D7D53190-213B-4864-8558-6A9813C2C7D5}" name="Unit Price" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="6" xr3:uid="{150E56CF-09E3-4836-A822-6DA16145ACAA}" name="Line Price" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="11" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="10" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{CEBCEC8D-8589-45D8-A38D-453A173B6A5C}" name="Pack Order Quantity" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{A5B8DC3B-9D4F-4B03-877B-EA360C82CDF3}" name="Order Link" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="5" xr3:uid="{D7D53190-213B-4864-8558-6A9813C2C7D5}" name="Unit Price" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="6" xr3:uid="{150E56CF-09E3-4836-A822-6DA16145ACAA}" name="Line Price" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Table91317181920[[#This Row],[Unit Price]]*Table91317181920[[#This Row],[Pack Order Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5917,19 +5907,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A9E0A99-CDD4-4F70-BA5B-784249346C24}" name="Table91317" displayName="Table91317" ref="C1:I74" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="5" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{0A9E0A99-CDD4-4F70-BA5B-784249346C24}" name="Table91317" displayName="Table91317" ref="C1:I74" totalsRowShown="0" headerRowDxfId="55" tableBorderDxfId="54" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="C1:I74" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:I74">
     <sortCondition ref="C1:C74"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FEDEBDB4-D2A0-4044-865C-6B89D3CC7592}" name="Part name" totalsRowDxfId="54" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{4C265877-F081-4975-80F2-6B962EBD7F5B}" name="Description" totalsRowDxfId="53" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="4" totalsRowDxfId="52" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{A66A2ACA-EC0D-49A7-967B-F3F4C1020B52}" name="Pack Order Quantity" dataDxfId="3" totalsRowDxfId="51" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{65CB8442-0C8A-4A55-B125-1BD6513667D6}" name="Order Link" dataDxfId="2" totalsRowDxfId="50" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="5" xr3:uid="{26C6F446-03C5-4E32-9BB4-DDB69CF6332C}" name="Unit Price" dataDxfId="1" totalsRowDxfId="49" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="6" xr3:uid="{487062D5-F520-465D-9A7E-764D7A898722}" name="Line Price" dataDxfId="0" totalsRowDxfId="48" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{FEDEBDB4-D2A0-4044-865C-6B89D3CC7592}" name="Part name" totalsRowDxfId="53" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{4C265877-F081-4975-80F2-6B962EBD7F5B}" name="Description" totalsRowDxfId="52" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{C58356B1-645B-4209-9365-0DE732AD7AAF}" name="BOM Quantity" dataDxfId="51" totalsRowDxfId="50" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{A66A2ACA-EC0D-49A7-967B-F3F4C1020B52}" name="Pack Order Quantity" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{65CB8442-0C8A-4A55-B125-1BD6513667D6}" name="Order Link" dataDxfId="47" totalsRowDxfId="46" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="5" xr3:uid="{26C6F446-03C5-4E32-9BB4-DDB69CF6332C}" name="Unit Price" dataDxfId="45" totalsRowDxfId="44" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="6" xr3:uid="{487062D5-F520-465D-9A7E-764D7A898722}" name="Line Price" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5938,38 +5928,38 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="A1:G50" totalsRowShown="0" headerRowDxfId="47" tableBorderDxfId="46" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="A1:G50" totalsRowShown="0" headerRowDxfId="41" tableBorderDxfId="40" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:G50" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G50">
     <sortCondition ref="A1:A50"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="45" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="44" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="43" totalsRowDxfId="42" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{A472BF48-B40D-4380-B6F3-AD3E859AB7D4}" name="Pack Order Quantity" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{4041BC3F-9B73-4D61-84F6-39A371AED494}" name="Order Link" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="5" xr3:uid="{C55F0AD7-0E4E-4EB1-93B1-E67300D22740}" name="Unit Price" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="6" xr3:uid="{E06FBE61-2628-4CBF-ABC1-B2AFE6287D9A}" name="Line Price" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="39" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{D11DB86B-2519-40CE-A3B1-2DFF1E8D8BAF}" name="Description" totalsRowDxfId="38" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{030B0BC7-E7B6-43C0-9200-DE84B404D5FA}" name="BOM Quantity" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{A472BF48-B40D-4380-B6F3-AD3E859AB7D4}" name="Pack Order Quantity" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{4041BC3F-9B73-4D61-84F6-39A371AED494}" name="Order Link" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="5" xr3:uid="{C55F0AD7-0E4E-4EB1-93B1-E67300D22740}" name="Unit Price" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="6" xr3:uid="{E06FBE61-2628-4CBF-ABC1-B2AFE6287D9A}" name="Line Price" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="A1:G18" totalsRowShown="0" headerRowDxfId="33" tableBorderDxfId="32" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="A1:G18" totalsRowShown="0" headerRowDxfId="27" tableBorderDxfId="26" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:G18" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G18">
     <sortCondition ref="A1:A18"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="31" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="30" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{835100F3-F752-41A7-881D-EF9EB58A1F06}" name="Pack Order Quantity" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{5FA22CB9-365D-4406-90AA-1375A1464EDC}" name="Order Link" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="5" xr3:uid="{C77BED08-1481-43C3-992C-782BA71D1A2F}" name="Unit Price" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="6" xr3:uid="{71C5B62B-CDC1-42AB-A1E3-F91441C8D234}" name="Line Price" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="25" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="24" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{835100F3-F752-41A7-881D-EF9EB58A1F06}" name="Pack Order Quantity" dataDxfId="21" totalsRowDxfId="20" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{5FA22CB9-365D-4406-90AA-1375A1464EDC}" name="Order Link" dataDxfId="19" totalsRowDxfId="18" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="5" xr3:uid="{C77BED08-1481-43C3-992C-782BA71D1A2F}" name="Unit Price" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="6" xr3:uid="{71C5B62B-CDC1-42AB-A1E3-F91441C8D234}" name="Line Price" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Table913171819[[#This Row],[Unit Price]]*Table913171819[[#This Row],[Pack Order Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6258,7 +6248,7 @@
         <v>6</v>
       </c>
       <c r="G2" s="45">
-        <f>E2*F2</f>
+        <f t="shared" ref="G2:G33" si="0">E2*F2</f>
         <v>18</v>
       </c>
       <c r="H2" s="36">
@@ -6289,7 +6279,7 @@
         <v>5.03</v>
       </c>
       <c r="G3" s="45">
-        <f>E3*F3</f>
+        <f t="shared" si="0"/>
         <v>5.03</v>
       </c>
       <c r="H3" s="36">
@@ -6321,7 +6311,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="45">
-        <f>E4*F4</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="H4" s="36">
@@ -6354,7 +6344,7 @@
         <v>4.18</v>
       </c>
       <c r="G5" s="45">
-        <f>E5*F5</f>
+        <f t="shared" si="0"/>
         <v>4.18</v>
       </c>
       <c r="H5" s="36">
@@ -6386,7 +6376,7 @@
         <v>5.45</v>
       </c>
       <c r="G6" s="45">
-        <f>E6*F6</f>
+        <f t="shared" si="0"/>
         <v>10.9</v>
       </c>
       <c r="H6" s="36">
@@ -6418,7 +6408,7 @@
         <v>5.87</v>
       </c>
       <c r="G7" s="45">
-        <f>E7*F7</f>
+        <f t="shared" si="0"/>
         <v>5.87</v>
       </c>
       <c r="H7" s="36">
@@ -6450,7 +6440,7 @@
         <v>39.5</v>
       </c>
       <c r="G8" s="45">
-        <f>E8*F8</f>
+        <f t="shared" si="0"/>
         <v>118.5</v>
       </c>
       <c r="H8" s="36">
@@ -6482,7 +6472,7 @@
         <v>36.200000000000003</v>
       </c>
       <c r="G9" s="45">
-        <f>E9*F9</f>
+        <f t="shared" si="0"/>
         <v>72.400000000000006</v>
       </c>
       <c r="H9" s="36">
@@ -6514,7 +6504,7 @@
         <v>34.200000000000003</v>
       </c>
       <c r="G10" s="45">
-        <f>E10*F10</f>
+        <f t="shared" si="0"/>
         <v>34.200000000000003</v>
       </c>
       <c r="H10" s="36">
@@ -6545,7 +6535,7 @@
         <v>4.25</v>
       </c>
       <c r="G11" s="45">
-        <f>E11*F11</f>
+        <f t="shared" si="0"/>
         <v>4.25</v>
       </c>
       <c r="H11" s="36">
@@ -6577,7 +6567,7 @@
         <v>4</v>
       </c>
       <c r="G12" s="45">
-        <f>E12*F12</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H12" s="36">
@@ -6609,7 +6599,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="45">
-        <f>E13*F13</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="H13" s="36">
@@ -6641,7 +6631,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="45">
-        <f>E14*F14</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H14" s="36">
@@ -6673,7 +6663,7 @@
         <v>3</v>
       </c>
       <c r="G15" s="45">
-        <f>E15*F15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="H15" s="36">
@@ -6704,7 +6694,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="45">
-        <f>E16*F16</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H16" s="36">
@@ -6736,7 +6726,7 @@
         <v>1.8</v>
       </c>
       <c r="G17" s="45">
-        <f>E17*F17</f>
+        <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
       <c r="H17" s="36">
@@ -6768,7 +6758,7 @@
         <v>14.8</v>
       </c>
       <c r="G18" s="45">
-        <f>E18*F18</f>
+        <f t="shared" si="0"/>
         <v>14.8</v>
       </c>
       <c r="H18" s="36">
@@ -6800,7 +6790,7 @@
         <v>78.39</v>
       </c>
       <c r="G19" s="45">
-        <f>E19*F19</f>
+        <f t="shared" si="0"/>
         <v>78.39</v>
       </c>
       <c r="H19" s="36">
@@ -6832,7 +6822,7 @@
         <v>3.95</v>
       </c>
       <c r="G20" s="45">
-        <f>E20*F20</f>
+        <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
       <c r="H20" s="36">
@@ -6864,7 +6854,7 @@
         <v>11.5</v>
       </c>
       <c r="G21" s="45">
-        <f>E21*F21</f>
+        <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
       <c r="H21" s="36">
@@ -6896,7 +6886,7 @@
         <v>25</v>
       </c>
       <c r="G22" s="45">
-        <f>E22*F22</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H22" s="36">
@@ -6928,7 +6918,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="45">
-        <f>E23*F23</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="H23" s="36">
@@ -6960,7 +6950,7 @@
         <v>12.4</v>
       </c>
       <c r="G24" s="45">
-        <f>E24*F24</f>
+        <f t="shared" si="0"/>
         <v>12.4</v>
       </c>
       <c r="H24" s="36">
@@ -6992,7 +6982,7 @@
         <v>25.99</v>
       </c>
       <c r="G25" s="45">
-        <f>E25*F25</f>
+        <f t="shared" si="0"/>
         <v>25.99</v>
       </c>
       <c r="H25" s="36">
@@ -7024,7 +7014,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="45">
-        <f>E26*F26</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H26" s="36">
@@ -7056,7 +7046,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="45">
-        <f>E27*F27</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="H27" s="36">
@@ -7088,7 +7078,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="45">
-        <f>E28*F28</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="H28" s="36">
@@ -7120,7 +7110,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="45">
-        <f>E29*F29</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="H29" s="36">
@@ -7152,7 +7142,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="45">
-        <f>E30*F30</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="H30" s="36">
@@ -7184,7 +7174,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G31" s="45">
-        <f>E31*F31</f>
+        <f t="shared" si="0"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="H31" s="36">
@@ -7216,7 +7206,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="45">
-        <f>E32*F32</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H32" s="36">
@@ -7248,7 +7238,7 @@
         <v>35</v>
       </c>
       <c r="G33" s="65">
-        <f>E33*F33</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="H33" s="37">
@@ -7281,7 +7271,7 @@
         <v>40.49</v>
       </c>
       <c r="G34" s="45">
-        <f>E34*F34</f>
+        <f t="shared" ref="G34:G65" si="1">E34*F34</f>
         <v>40.49</v>
       </c>
       <c r="H34" s="36">
@@ -7312,7 +7302,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="45">
-        <f>E35*F35</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H35" s="36">
@@ -7343,7 +7333,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="45">
-        <f>E36*F36</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H36" s="36">
@@ -7378,7 +7368,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="45">
-        <f>E37*F37</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H37" s="36">
@@ -7412,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="45">
-        <f>E38*F38</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H38" s="36">
@@ -7447,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="45">
-        <f>E39*F39</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H39" s="36">
@@ -7483,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="45">
-        <f>E40*F40</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H40" s="36">
@@ -7516,7 +7506,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="45">
-        <f>E41*F41</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H41" s="36">
@@ -7550,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="45">
-        <f>E42*F42</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H42" s="36">
@@ -7589,7 +7579,7 @@
         <v>18</v>
       </c>
       <c r="G43" s="45">
-        <f>E43*F43</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H43" s="36">
@@ -7623,7 +7613,7 @@
         <v>70</v>
       </c>
       <c r="G44" s="45">
-        <f>E44*F44</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H44" s="36">
@@ -7655,7 +7645,7 @@
         <v>2.23</v>
       </c>
       <c r="G45" s="45">
-        <f>E45*F45</f>
+        <f t="shared" si="1"/>
         <v>6.6899999999999995</v>
       </c>
       <c r="H45" s="36">
@@ -7687,7 +7677,7 @@
         <v>2.27</v>
       </c>
       <c r="G46" s="45">
-        <f>E46*F46</f>
+        <f t="shared" si="1"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="H46" s="36">
@@ -7719,7 +7709,7 @@
         <v>10</v>
       </c>
       <c r="G47" s="45">
-        <f>E47*F47</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H47" s="36">
@@ -7751,7 +7741,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="45">
-        <f>E48*F48</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H48" s="36">
@@ -7783,7 +7773,7 @@
         <v>35</v>
       </c>
       <c r="G49" s="45">
-        <f>E49*F49</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="H49" s="36">
@@ -7815,7 +7805,7 @@
         <v>40</v>
       </c>
       <c r="G50" s="45">
-        <f>E50*F50</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H50" s="36">
@@ -7847,7 +7837,7 @@
         <v>30</v>
       </c>
       <c r="G51" s="45">
-        <f>E51*F51</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H51" s="36">
@@ -7879,7 +7869,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="45">
-        <f>E52*F52</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H52" s="36">
@@ -7911,7 +7901,7 @@
         <v>5</v>
       </c>
       <c r="G53" s="45">
-        <f>E53*F53</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="H53" s="36">
@@ -7943,7 +7933,7 @@
         <v>3.49</v>
       </c>
       <c r="G54" s="45">
-        <f>E54*F54</f>
+        <f t="shared" si="1"/>
         <v>6.98</v>
       </c>
       <c r="H54" s="36" t="s">
@@ -7977,7 +7967,7 @@
         <v>4</v>
       </c>
       <c r="G55" s="45">
-        <f>E55*F55</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H55" s="36">
@@ -8009,7 +7999,7 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="G56" s="45">
-        <f>E56*F56</f>
+        <f t="shared" si="1"/>
         <v>8.8800000000000008</v>
       </c>
       <c r="H56" s="36">
@@ -8041,7 +8031,7 @@
         <v>5.49</v>
       </c>
       <c r="G57" s="45">
-        <f>E57*F57</f>
+        <f t="shared" si="1"/>
         <v>21.96</v>
       </c>
       <c r="H57" s="36">
@@ -8075,7 +8065,7 @@
         <v>4.07</v>
       </c>
       <c r="G58" s="45">
-        <f>E58*F58</f>
+        <f t="shared" si="1"/>
         <v>4.07</v>
       </c>
       <c r="H58" s="36">
@@ -8109,7 +8099,7 @@
         <v>12</v>
       </c>
       <c r="G59" s="45">
-        <f>E59*F59</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H59" s="36">
@@ -8143,7 +8133,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="45">
-        <f>E60*F60</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H60" s="36">
@@ -8177,7 +8167,7 @@
         <v>9</v>
       </c>
       <c r="G61" s="45">
-        <f>E61*F61</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H61" s="36">
@@ -8211,7 +8201,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="45">
-        <f>E62*F62</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="H62" s="36">
@@ -8245,7 +8235,7 @@
         <v>16</v>
       </c>
       <c r="G63" s="45">
-        <f>E63*F63</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="H63" s="36">
@@ -8279,7 +8269,7 @@
         <v>40</v>
       </c>
       <c r="G64" s="45">
-        <f>E64*F64</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="H64" s="36">
@@ -8310,7 +8300,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="45">
-        <f>E65*F65</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H65" s="36">
@@ -8345,7 +8335,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="45">
-        <f>E66*F66</f>
+        <f t="shared" ref="G66:G97" si="2">E66*F66</f>
         <v>2</v>
       </c>
       <c r="H66" s="36">
@@ -8380,7 +8370,7 @@
         <v>1.21</v>
       </c>
       <c r="G67" s="45">
-        <f>E67*F67</f>
+        <f t="shared" si="2"/>
         <v>1.21</v>
       </c>
       <c r="H67" s="36">
@@ -8415,7 +8405,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="45">
-        <f>E68*F68</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H68" s="36">
@@ -8450,7 +8440,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="45">
-        <f>E69*F69</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="H69" s="36">
@@ -8485,7 +8475,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="45">
-        <f>E70*F70</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H70" s="36">
@@ -8520,7 +8510,7 @@
         <v>2.27</v>
       </c>
       <c r="G71" s="45">
-        <f>E71*F71</f>
+        <f t="shared" si="2"/>
         <v>2.27</v>
       </c>
       <c r="H71" s="36">
@@ -8557,7 +8547,7 @@
         <v>1.2</v>
       </c>
       <c r="G72" s="45">
-        <f>E72*F72</f>
+        <f t="shared" si="2"/>
         <v>1.2</v>
       </c>
       <c r="H72" s="36">
@@ -8590,7 +8580,7 @@
         <v>0.62</v>
       </c>
       <c r="G73" s="45">
-        <f>E73*F73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H73" s="36">
@@ -8622,7 +8612,7 @@
         <v>1.74</v>
       </c>
       <c r="G74" s="45">
-        <f>E74*F74</f>
+        <f t="shared" si="2"/>
         <v>1.74</v>
       </c>
       <c r="H74" s="36">
@@ -8659,7 +8649,7 @@
         <v>1.82</v>
       </c>
       <c r="G75" s="45">
-        <f>E75*F75</f>
+        <f t="shared" si="2"/>
         <v>1.82</v>
       </c>
       <c r="H75" s="36">
@@ -8694,7 +8684,7 @@
         <v>2.5299999999999998</v>
       </c>
       <c r="G76" s="45">
-        <f>E76*F76</f>
+        <f t="shared" si="2"/>
         <v>2.5299999999999998</v>
       </c>
       <c r="H76" s="36">
@@ -8729,7 +8719,7 @@
         <v>3</v>
       </c>
       <c r="G77" s="45">
-        <f>E77*F77</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H77" s="36">
@@ -8766,7 +8756,7 @@
         <v>5</v>
       </c>
       <c r="G78" s="45">
-        <f>E78*F78</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H78" s="36">
@@ -8799,7 +8789,7 @@
         <v>2</v>
       </c>
       <c r="G79" s="45">
-        <f>E79*F79</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="H79" s="36">
@@ -8834,7 +8824,7 @@
         <v>2</v>
       </c>
       <c r="G80" s="45">
-        <f>E80*F80</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H80" s="36">
@@ -8869,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="45">
-        <f>E81*F81</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H81" s="36">
@@ -8906,7 +8896,7 @@
         <v>2.61</v>
       </c>
       <c r="G82" s="45">
-        <f>E82*F82</f>
+        <f t="shared" si="2"/>
         <v>2.61</v>
       </c>
       <c r="H82" s="36">
@@ -8941,7 +8931,7 @@
         <v>2.17</v>
       </c>
       <c r="G83" s="45">
-        <f>E83*F83</f>
+        <f t="shared" si="2"/>
         <v>2.17</v>
       </c>
       <c r="H83" s="36">
@@ -8976,7 +8966,7 @@
         <v>2.92</v>
       </c>
       <c r="G84" s="45">
-        <f>E84*F84</f>
+        <f t="shared" si="2"/>
         <v>2.92</v>
       </c>
       <c r="H84" s="36">
@@ -9011,7 +9001,7 @@
         <v>3.41</v>
       </c>
       <c r="G85" s="45">
-        <f>E85*F85</f>
+        <f t="shared" si="2"/>
         <v>17.05</v>
       </c>
       <c r="H85" s="36">
@@ -9046,7 +9036,7 @@
         <v>3.57</v>
       </c>
       <c r="G86" s="45">
-        <f>E86*F86</f>
+        <f t="shared" si="2"/>
         <v>7.14</v>
       </c>
       <c r="H86" s="36">
@@ -9081,7 +9071,7 @@
         <v>1.64</v>
       </c>
       <c r="G87" s="45">
-        <f>E87*F87</f>
+        <f t="shared" si="2"/>
         <v>1.64</v>
       </c>
       <c r="H87" s="36">
@@ -9116,7 +9106,7 @@
         <v>1.64</v>
       </c>
       <c r="G88" s="45">
-        <f>E88*F88</f>
+        <f t="shared" si="2"/>
         <v>1.64</v>
       </c>
       <c r="H88" s="36">
@@ -9149,7 +9139,7 @@
         <v>11</v>
       </c>
       <c r="G89" s="45">
-        <f>E89*F89</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="H89" s="36">
@@ -9182,7 +9172,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="45">
-        <f>E90*F90</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H90" s="36">
@@ -9215,7 +9205,7 @@
         <v>6.57</v>
       </c>
       <c r="G91" s="45">
-        <f>E91*F91</f>
+        <f t="shared" si="2"/>
         <v>6.57</v>
       </c>
       <c r="H91" s="36">
@@ -9248,7 +9238,7 @@
         <v>8.91</v>
       </c>
       <c r="G92" s="45">
-        <f>E92*F92</f>
+        <f t="shared" si="2"/>
         <v>8.91</v>
       </c>
       <c r="H92" s="36">
@@ -9283,7 +9273,7 @@
         <v>5.73</v>
       </c>
       <c r="G93" s="45">
-        <f>E93*F93</f>
+        <f t="shared" si="2"/>
         <v>5.73</v>
       </c>
       <c r="H93" s="36">
@@ -9316,7 +9306,7 @@
         <v>3.26</v>
       </c>
       <c r="G94" s="45">
-        <f>E94*F94</f>
+        <f t="shared" si="2"/>
         <v>3.26</v>
       </c>
       <c r="H94" s="36">
@@ -9353,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="G95" s="45">
-        <f>E95*F95</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H95" s="36">
@@ -9390,7 +9380,7 @@
         <v>3.75</v>
       </c>
       <c r="G96" s="45">
-        <f>E96*F96</f>
+        <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
       <c r="H96" s="36">
@@ -9425,7 +9415,7 @@
         <v>3</v>
       </c>
       <c r="G97" s="45">
-        <f>E97*F97</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H97" s="36">
@@ -9458,7 +9448,7 @@
         <v>0.88</v>
       </c>
       <c r="G98" s="45">
-        <f>E98*F98</f>
+        <f t="shared" ref="G98:G129" si="3">E98*F98</f>
         <v>1.76</v>
       </c>
       <c r="H98" s="36">
@@ -9493,7 +9483,7 @@
         <v>2</v>
       </c>
       <c r="G99" s="45">
-        <f>E99*F99</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H99" s="36">
@@ -9528,7 +9518,7 @@
         <v>1.79</v>
       </c>
       <c r="G100" s="45">
-        <f>E100*F100</f>
+        <f t="shared" si="3"/>
         <v>7.16</v>
       </c>
       <c r="H100" s="36">
@@ -9705,7 +9695,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="16"/>
@@ -9721,17 +9711,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9739,16 +9729,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9756,16 +9746,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9773,16 +9763,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9790,7 +9780,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -9812,7 +9802,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -9825,10 +9815,10 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E11" s="18"/>
     </row>
@@ -9838,10 +9828,10 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E12" s="18"/>
     </row>
@@ -9851,13 +9841,13 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9866,13 +9856,13 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9881,10 +9871,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E15" s="18"/>
     </row>
@@ -9894,10 +9884,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="E16" s="18"/>
     </row>
@@ -9908,7 +9898,7 @@
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="E17" s="18"/>
     </row>
@@ -9919,7 +9909,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="E18" s="18"/>
     </row>
@@ -9929,13 +9919,13 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="16" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9944,13 +9934,13 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="16" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9962,13 +9952,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="18"/>
@@ -9978,16 +9968,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -9995,16 +9985,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -10012,16 +10002,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10029,7 +10019,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -10058,12 +10048,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="18" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -10095,177 +10085,177 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="C1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="D1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B3" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="B4" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="D5" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B6" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B8" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="B13" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B15" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B17" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -10293,21 +10283,21 @@
         <v>270</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="161" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B2" s="161"/>
       <c r="C2" s="161"/>
@@ -10316,90 +10306,90 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="161" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="161" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="161" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="161" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="161" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C9" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -13528,1619 +13518,1603 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:I85"/>
+  <dimension ref="C1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="4"/>
-    <col min="3" max="3" width="42.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="7.7109375" style="4" customWidth="1"/>
-    <col min="10" max="16356" width="11.42578125" style="4"/>
-    <col min="16357" max="16362" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16363" max="16384" width="11.42578125" style="4"/>
+    <col min="10" max="16353" width="11.42578125" style="4"/>
+    <col min="16354" max="16359" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16360" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="178" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="178" t="s">
+      <c r="D1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="153" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="178" t="s">
+      <c r="F1" s="153" t="s">
         <v>304</v>
       </c>
-      <c r="G1" s="178" t="s">
+      <c r="G1" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="178" t="s">
+      <c r="H1" s="153" t="s">
         <v>274</v>
       </c>
-      <c r="I1" s="178" t="s">
+      <c r="I1" s="153" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="169" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E2" s="164">
-        <v>12</v>
-      </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="165" t="s">
+      <c r="C2" s="163" t="s">
+        <v>656</v>
+      </c>
+      <c r="D2" s="169" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="32">
+        <v>14</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166">
+      <c r="H2" s="45"/>
+      <c r="I2" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="165" t="s">
-        <v>658</v>
-      </c>
-      <c r="D3" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E3" s="164">
+      <c r="C3" t="s">
+        <v>648</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>667</v>
+      </c>
+      <c r="E3" s="32">
         <v>13</v>
       </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="165" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" t="s">
         <v>284</v>
       </c>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="169" t="s">
-        <v>667</v>
-      </c>
-      <c r="D4" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="164">
+      <c r="C4" s="163" t="s">
+        <v>657</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="32">
         <v>2</v>
       </c>
-      <c r="F4" s="164"/>
+      <c r="F4" s="32"/>
       <c r="G4" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166">
+      <c r="H4" s="45"/>
+      <c r="I4" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="165" t="s">
-        <v>659</v>
-      </c>
-      <c r="D5" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E5" s="164">
+      <c r="C5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D5" s="169" t="s">
+        <v>667</v>
+      </c>
+      <c r="E5" s="32">
         <v>2</v>
       </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="165" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" t="s">
         <v>284</v>
       </c>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="144" t="s">
         <v>409</v>
       </c>
-      <c r="D6" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" s="164">
-        <v>1</v>
-      </c>
-      <c r="F6" s="164"/>
-      <c r="G6" s="165" t="s">
+      <c r="D6" s="169" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" t="s">
         <v>284</v>
       </c>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166">
+      <c r="H6" s="45"/>
+      <c r="I6" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="163" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E7" s="164">
+      <c r="C7" s="169" t="s">
+        <v>675</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="32">
         <v>4</v>
       </c>
-      <c r="F7" s="164"/>
-      <c r="G7" s="165" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" t="s">
         <v>284</v>
       </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166">
+      <c r="H7" s="45"/>
+      <c r="I7" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="179" t="s">
-        <v>674</v>
-      </c>
-      <c r="D8" s="167" t="s">
-        <v>412</v>
-      </c>
-      <c r="E8" s="164">
+      <c r="C8" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D8" s="169" t="s">
+        <v>261</v>
+      </c>
+      <c r="E8" s="32">
+        <v>6</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45">
+        <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D9" s="169" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="32">
+        <v>6</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45">
+        <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="28" t="s">
+        <v>664</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E10" s="32">
         <v>2</v>
       </c>
-      <c r="F8" s="164">
-        <v>1</v>
-      </c>
-      <c r="G8" s="33" t="s">
+      <c r="F10" s="32">
+        <v>1</v>
+      </c>
+      <c r="G10" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="H8" s="168">
+      <c r="H10" s="110">
         <v>10</v>
       </c>
-      <c r="I8" s="168">
+      <c r="I10" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="179" t="s">
-        <v>672</v>
-      </c>
-      <c r="D9" s="169" t="s">
-        <v>675</v>
-      </c>
-      <c r="E9" s="164">
-        <v>1</v>
-      </c>
-      <c r="F9" s="164">
-        <v>1</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>673</v>
-      </c>
-      <c r="H9" s="168">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="D11" s="163" t="s">
+        <v>665</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>1</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>663</v>
+      </c>
+      <c r="H11" s="110">
         <v>42</v>
       </c>
-      <c r="I9" s="168">
+      <c r="I11" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="163" t="s">
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E10" s="164">
-        <v>1</v>
-      </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165" t="s">
+      <c r="D12" s="169" t="s">
+        <v>665</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="166"/>
-      <c r="I10" s="166">
+      <c r="H12" s="45"/>
+      <c r="I12" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="163" t="s">
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="144" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E11" s="164">
-        <v>1</v>
-      </c>
-      <c r="F11" s="164"/>
-      <c r="G11" s="38" t="s">
+      <c r="D13" s="169" t="s">
+        <v>665</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166">
+      <c r="H13" s="45"/>
+      <c r="I13" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="165" t="s">
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>338</v>
       </c>
-      <c r="D12" s="170" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="164">
-        <v>33</v>
-      </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="165" t="s">
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="32">
+        <v>29</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166">
+      <c r="H14" s="45"/>
+      <c r="I14" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="165" t="s">
-        <v>660</v>
-      </c>
-      <c r="D13" s="170" t="s">
-        <v>410</v>
-      </c>
-      <c r="E13" s="164">
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>650</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" s="32">
         <v>19</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="165" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" t="s">
         <v>284</v>
       </c>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166">
+      <c r="H15" s="45"/>
+      <c r="I15" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="165" t="s">
-        <v>661</v>
-      </c>
-      <c r="D14" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E14" s="164">
-        <v>8</v>
-      </c>
-      <c r="F14" s="164"/>
-      <c r="G14" s="38" t="s">
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>651</v>
+      </c>
+      <c r="D16" s="169" t="s">
+        <v>670</v>
+      </c>
+      <c r="E16" s="32">
+        <v>4</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166">
+      <c r="H16" s="45"/>
+      <c r="I16" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="167" t="s">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="D15" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" s="164">
+      <c r="D17" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="32">
         <v>19</v>
       </c>
-      <c r="F15" s="164"/>
-      <c r="G15" s="38" t="s">
+      <c r="F17" s="32"/>
+      <c r="G17" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166">
+      <c r="H17" s="45"/>
+      <c r="I17" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="180" t="s">
-        <v>413</v>
-      </c>
-      <c r="D16" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E16" s="164">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="138" t="s">
+        <v>411</v>
+      </c>
+      <c r="D18" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="32">
         <v>6</v>
       </c>
-      <c r="F16" s="164"/>
-      <c r="G16" s="165" t="s">
+      <c r="F18" s="32"/>
+      <c r="G18" t="s">
         <v>284</v>
       </c>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166">
+      <c r="H18" s="45"/>
+      <c r="I18" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="167" t="s">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D17" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" s="164">
-        <v>14</v>
-      </c>
-      <c r="F17" s="164"/>
-      <c r="G17" s="38" t="s">
+      <c r="D19" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="32">
+        <v>13</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166">
+      <c r="H19" s="45"/>
+      <c r="I19" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="169" t="s">
-        <v>663</v>
-      </c>
-      <c r="D18" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E18" s="164">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="163" t="s">
+        <v>653</v>
+      </c>
+      <c r="D20" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="32">
         <v>4</v>
       </c>
-      <c r="F18" s="164"/>
-      <c r="G18" s="38" t="s">
+      <c r="F20" s="32"/>
+      <c r="G20" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166">
+      <c r="H20" s="45"/>
+      <c r="I20" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="169" t="s">
-        <v>664</v>
-      </c>
-      <c r="D19" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" s="164">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="163" t="s">
+        <v>654</v>
+      </c>
+      <c r="D21" s="169" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="32">
         <v>6</v>
       </c>
-      <c r="F19" s="164"/>
-      <c r="G19" s="38" t="s">
+      <c r="F21" s="32"/>
+      <c r="G21" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166">
+      <c r="H21" s="45"/>
+      <c r="I21" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="167" t="s">
-        <v>415</v>
-      </c>
-      <c r="D20" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E20" s="164">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="32">
         <v>4</v>
       </c>
-      <c r="F20" s="164"/>
-      <c r="G20" s="38" t="s">
+      <c r="F22" s="32"/>
+      <c r="G22" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166">
+      <c r="H22" s="45"/>
+      <c r="I22" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="165" t="s">
-        <v>662</v>
-      </c>
-      <c r="D21" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E21" s="164">
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>652</v>
+      </c>
+      <c r="D23" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="32">
         <v>6</v>
       </c>
-      <c r="F21" s="164"/>
-      <c r="G21" s="38" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166">
+      <c r="H23" s="45"/>
+      <c r="I23" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="167" t="s">
-        <v>416</v>
-      </c>
-      <c r="D22" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E22" s="164">
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D24" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="32">
         <v>4</v>
       </c>
-      <c r="F22" s="164"/>
-      <c r="G22" s="38" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166">
+      <c r="H24" s="45"/>
+      <c r="I24" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="167" t="s">
-        <v>417</v>
-      </c>
-      <c r="D23" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" s="164">
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D25" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="32">
         <v>4</v>
       </c>
-      <c r="F23" s="164"/>
-      <c r="G23" s="38" t="s">
+      <c r="F25" s="32"/>
+      <c r="G25" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166">
+      <c r="H25" s="45"/>
+      <c r="I25" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="169" t="s">
-        <v>665</v>
-      </c>
-      <c r="D24" s="169" t="s">
-        <v>410</v>
-      </c>
-      <c r="E24" s="164">
-        <v>1</v>
-      </c>
-      <c r="F24" s="164"/>
-      <c r="G24" s="38" t="s">
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="163" t="s">
+        <v>655</v>
+      </c>
+      <c r="D26" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166">
+      <c r="H26" s="45"/>
+      <c r="I26" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="169" t="s">
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25" s="164">
+      <c r="D27" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="32">
         <v>16</v>
       </c>
-      <c r="F25" s="164"/>
-      <c r="G25" s="38" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166">
+      <c r="H27" s="45"/>
+      <c r="I27" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="167" t="s">
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D26" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E26" s="164">
-        <v>54</v>
-      </c>
-      <c r="F26" s="164"/>
-      <c r="G26" s="38" t="s">
+      <c r="D28" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="32">
+        <v>52</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166">
+      <c r="H28" s="45"/>
+      <c r="I28" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="167" t="s">
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D27" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E27" s="164">
+      <c r="D29" s="169" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="32">
         <v>77</v>
       </c>
-      <c r="F27" s="164"/>
-      <c r="G27" s="38" t="s">
+      <c r="F29" s="32"/>
+      <c r="G29" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166">
+      <c r="H29" s="45"/>
+      <c r="I29" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="167" t="s">
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="D28" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" s="164">
+      <c r="D30" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="32">
         <v>16</v>
       </c>
-      <c r="F28" s="164"/>
-      <c r="G28" s="38" t="s">
+      <c r="F30" s="32"/>
+      <c r="G30" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="H28" s="166"/>
-      <c r="I28" s="166">
+      <c r="H30" s="45"/>
+      <c r="I30" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="163" t="s">
-        <v>418</v>
-      </c>
-      <c r="D29" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E29" s="164">
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="144" t="s">
+        <v>416</v>
+      </c>
+      <c r="D31" s="169" t="s">
+        <v>671</v>
+      </c>
+      <c r="E31" s="32">
         <v>44</v>
       </c>
-      <c r="F29" s="164"/>
-      <c r="G29" s="165" t="s">
+      <c r="F31" s="32"/>
+      <c r="G31" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166">
+      <c r="H31" s="45"/>
+      <c r="I31" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="163" t="s">
-        <v>419</v>
-      </c>
-      <c r="D30" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E30" s="164">
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="144" t="s">
+        <v>417</v>
+      </c>
+      <c r="D32" s="169" t="s">
+        <v>671</v>
+      </c>
+      <c r="E32" s="32">
         <v>17</v>
       </c>
-      <c r="F30" s="171"/>
-      <c r="G30" s="165" t="s">
+      <c r="F32" s="151"/>
+      <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166">
+      <c r="H32" s="45"/>
+      <c r="I32" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="167" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E31" s="164">
-        <v>6</v>
-      </c>
-      <c r="F31" s="164"/>
-      <c r="G31" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="163" t="s">
-        <v>410</v>
-      </c>
-      <c r="E32" s="164">
-        <v>6</v>
-      </c>
-      <c r="F32" s="164"/>
-      <c r="G32" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="144" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E34" s="32">
+        <v>1</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="167" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E33" s="164">
-        <v>1</v>
-      </c>
-      <c r="F33" s="164"/>
-      <c r="G33" s="165" t="s">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="169" t="s">
+        <v>674</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E35" s="32">
+        <v>2</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166">
+      <c r="H35" s="45"/>
+      <c r="I35" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="163" t="s">
-        <v>422</v>
-      </c>
-      <c r="D34" s="167" t="s">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E34" s="164">
-        <v>1</v>
-      </c>
-      <c r="F34" s="164"/>
-      <c r="G34" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166">
+      <c r="D36" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="167" t="s">
-        <v>425</v>
-      </c>
-      <c r="D35" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E35" s="164">
-        <v>2</v>
-      </c>
-      <c r="F35" s="164"/>
-      <c r="G35" s="38" t="s">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E37" s="32">
+        <v>1</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H35" s="166"/>
-      <c r="I35" s="166">
+      <c r="H37" s="45"/>
+      <c r="I37" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="167" t="s">
-        <v>426</v>
-      </c>
-      <c r="D36" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E36" s="164">
-        <v>1</v>
-      </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="38" t="s">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E38" s="32">
+        <v>4</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166">
+      <c r="H38" s="45"/>
+      <c r="I38" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="167" t="s">
-        <v>427</v>
-      </c>
-      <c r="D37" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E37" s="164">
-        <v>1</v>
-      </c>
-      <c r="F37" s="164"/>
-      <c r="G37" s="38" t="s">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="144" t="s">
+        <v>426</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E39" s="32">
+        <v>2</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H37" s="166"/>
-      <c r="I37" s="166">
+      <c r="H39" s="45"/>
+      <c r="I39" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="167" t="s">
-        <v>428</v>
-      </c>
-      <c r="D38" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E38" s="164">
-        <v>4</v>
-      </c>
-      <c r="F38" s="164"/>
-      <c r="G38" s="38" t="s">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E40" s="32">
+        <v>1</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166">
+      <c r="H40" s="45"/>
+      <c r="I40" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="163" t="s">
-        <v>429</v>
-      </c>
-      <c r="D39" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E39" s="164">
-        <v>2</v>
-      </c>
-      <c r="F39" s="164"/>
-      <c r="G39" s="38" t="s">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H39" s="166"/>
-      <c r="I39" s="166">
+      <c r="H41" s="45"/>
+      <c r="I41" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="167" t="s">
-        <v>430</v>
-      </c>
-      <c r="D40" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E40" s="164">
-        <v>1</v>
-      </c>
-      <c r="F40" s="164"/>
-      <c r="G40" s="38" t="s">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E42" s="32">
+        <v>2</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166">
+      <c r="H42" s="110"/>
+      <c r="I42" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="167" t="s">
-        <v>431</v>
-      </c>
-      <c r="D41" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E41" s="164">
-        <v>1</v>
-      </c>
-      <c r="F41" s="164"/>
-      <c r="G41" s="38" t="s">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E43" s="32">
+        <v>1</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166">
+      <c r="H43" s="110"/>
+      <c r="I43" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="167" t="s">
-        <v>432</v>
-      </c>
-      <c r="D42" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E42" s="164">
-        <v>1</v>
-      </c>
-      <c r="F42" s="164"/>
-      <c r="G42" s="38" t="s">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E44" s="32">
+        <v>1</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H42" s="168"/>
-      <c r="I42" s="166">
+      <c r="H44" s="110"/>
+      <c r="I44" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="167" t="s">
-        <v>433</v>
-      </c>
-      <c r="D43" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E43" s="164">
-        <v>1</v>
-      </c>
-      <c r="F43" s="164"/>
-      <c r="G43" s="38" t="s">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E45" s="32">
+        <v>1</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H43" s="168"/>
-      <c r="I43" s="166">
+      <c r="H45" s="110"/>
+      <c r="I45" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="167" t="s">
-        <v>434</v>
-      </c>
-      <c r="D44" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E44" s="164">
-        <v>2</v>
-      </c>
-      <c r="F44" s="164"/>
-      <c r="G44" s="38" t="s">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H44" s="168"/>
-      <c r="I44" s="166">
+      <c r="H46" s="110"/>
+      <c r="I46" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="167" t="s">
-        <v>435</v>
-      </c>
-      <c r="D45" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E45" s="164">
-        <v>1</v>
-      </c>
-      <c r="F45" s="164"/>
-      <c r="G45" s="38" t="s">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47" s="163" t="s">
+        <v>658</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E47" s="32">
+        <v>1</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H45" s="168"/>
-      <c r="I45" s="166">
+      <c r="H47" s="110"/>
+      <c r="I47" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="167" t="s">
-        <v>436</v>
-      </c>
-      <c r="D46" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E46" s="164">
-        <v>1</v>
-      </c>
-      <c r="F46" s="164"/>
-      <c r="G46" s="38" t="s">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="163" t="s">
+        <v>659</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168">
+      <c r="H48" s="110"/>
+      <c r="I48" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="167" t="s">
-        <v>437</v>
-      </c>
-      <c r="D47" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E47" s="164">
-        <v>1</v>
-      </c>
-      <c r="F47" s="164"/>
-      <c r="G47" s="38" t="s">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="169" t="s">
+        <v>669</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E49" s="32">
+        <v>1</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168">
+      <c r="H49" s="110"/>
+      <c r="I49" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="167" t="s">
-        <v>438</v>
-      </c>
-      <c r="D48" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E48" s="164">
-        <v>1</v>
-      </c>
-      <c r="F48" s="164"/>
-      <c r="G48" s="38" t="s">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="169" t="s">
+        <v>668</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E50" s="32">
+        <v>1</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168">
+      <c r="H50" s="110"/>
+      <c r="I50" s="45">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="169" t="s">
-        <v>668</v>
-      </c>
-      <c r="D49" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E49" s="164">
-        <v>1</v>
-      </c>
-      <c r="F49" s="164"/>
-      <c r="G49" s="38" t="s">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E51" s="32">
+        <v>1</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H49" s="168"/>
-      <c r="I49" s="166">
+      <c r="H51" s="110"/>
+      <c r="I51" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="169" t="s">
-        <v>669</v>
-      </c>
-      <c r="D50" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E50" s="164">
-        <v>1</v>
-      </c>
-      <c r="F50" s="164"/>
-      <c r="G50" s="38" t="s">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" s="32">
+        <v>1</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H50" s="168"/>
-      <c r="I50" s="166">
+      <c r="H52" s="110"/>
+      <c r="I52" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="167" t="s">
-        <v>439</v>
-      </c>
-      <c r="D51" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E51" s="164">
-        <v>1</v>
-      </c>
-      <c r="F51" s="164"/>
-      <c r="G51" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E53" s="32">
+        <v>1</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="167" t="s">
-        <v>440</v>
-      </c>
-      <c r="D52" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E52" s="164">
-        <v>1</v>
-      </c>
-      <c r="F52" s="164"/>
-      <c r="G52" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="H52" s="168"/>
-      <c r="I52" s="168">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E54" s="32">
+        <v>1</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H54" s="110"/>
+      <c r="I54" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="167" t="s">
-        <v>441</v>
-      </c>
-      <c r="D53" s="167" t="s">
-        <v>442</v>
-      </c>
-      <c r="E53" s="164">
-        <v>1</v>
-      </c>
-      <c r="F53" s="164"/>
-      <c r="G53" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H53" s="168"/>
-      <c r="I53" s="168">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E55" s="32">
+        <v>1</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="167" t="s">
-        <v>443</v>
-      </c>
-      <c r="D54" s="167" t="s">
-        <v>442</v>
-      </c>
-      <c r="E54" s="164">
-        <v>1</v>
-      </c>
-      <c r="F54" s="164"/>
-      <c r="G54" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E56" s="32">
+        <v>1</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="167" t="s">
-        <v>444</v>
-      </c>
-      <c r="D55" s="167" t="s">
-        <v>442</v>
-      </c>
-      <c r="E55" s="164">
-        <v>1</v>
-      </c>
-      <c r="F55" s="164"/>
-      <c r="G55" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E57" s="32">
+        <v>1</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="167" t="s">
-        <v>445</v>
-      </c>
-      <c r="D56" s="167" t="s">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="E56" s="164">
-        <v>1</v>
-      </c>
-      <c r="F56" s="164"/>
-      <c r="G56" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H56" s="168"/>
-      <c r="I56" s="168">
+      <c r="D58" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="32">
+        <v>1</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="167" t="s">
-        <v>446</v>
-      </c>
-      <c r="D57" s="167" t="s">
-        <v>442</v>
-      </c>
-      <c r="E57" s="164">
-        <v>1</v>
-      </c>
-      <c r="F57" s="164"/>
-      <c r="G57" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H57" s="168"/>
-      <c r="I57" s="168">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="32">
+        <v>1</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="167" t="s">
-        <v>447</v>
-      </c>
-      <c r="D58" s="167" t="s">
-        <v>442</v>
-      </c>
-      <c r="E58" s="164">
-        <v>1</v>
-      </c>
-      <c r="F58" s="164"/>
-      <c r="G58" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H58" s="168"/>
-      <c r="I58" s="168">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E60" s="32">
+        <v>2</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="167" t="s">
-        <v>448</v>
-      </c>
-      <c r="D59" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E59" s="164">
-        <v>1</v>
-      </c>
-      <c r="F59" s="164"/>
-      <c r="G59" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E61" s="32">
+        <v>1</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H61" s="110"/>
+      <c r="I61" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="167" t="s">
-        <v>450</v>
-      </c>
-      <c r="D60" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E60" s="164">
-        <v>2</v>
-      </c>
-      <c r="F60" s="164"/>
-      <c r="G60" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E62" s="32">
+        <v>1</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="167" t="s">
-        <v>451</v>
-      </c>
-      <c r="D61" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E61" s="164">
-        <v>1</v>
-      </c>
-      <c r="F61" s="164"/>
-      <c r="G61" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E63" s="32">
+        <v>1</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H63" s="110"/>
+      <c r="I63" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="167" t="s">
-        <v>452</v>
-      </c>
-      <c r="D62" s="167" t="s">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="E62" s="164">
-        <v>1</v>
-      </c>
-      <c r="F62" s="164"/>
-      <c r="G62" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168">
+      <c r="D64" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E64" s="32">
+        <v>1</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H64" s="110"/>
+      <c r="I64" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="167" t="s">
-        <v>453</v>
-      </c>
-      <c r="D63" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E63" s="164">
-        <v>1</v>
-      </c>
-      <c r="F63" s="164"/>
-      <c r="G63" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E65" s="32">
+        <v>1</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H65" s="110"/>
+      <c r="I65" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="167" t="s">
-        <v>454</v>
-      </c>
-      <c r="D64" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E64" s="164">
-        <v>1</v>
-      </c>
-      <c r="F64" s="164"/>
-      <c r="G64" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H64" s="168"/>
-      <c r="I64" s="168">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E66" s="32">
+        <v>1</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H66" s="110"/>
+      <c r="I66" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="167" t="s">
-        <v>455</v>
-      </c>
-      <c r="D65" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E65" s="164">
-        <v>1</v>
-      </c>
-      <c r="F65" s="164"/>
-      <c r="G65" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H65" s="168"/>
-      <c r="I65" s="168">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E67" s="32">
+        <v>1</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="167" t="s">
-        <v>456</v>
-      </c>
-      <c r="D66" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E66" s="164">
-        <v>1</v>
-      </c>
-      <c r="F66" s="164"/>
-      <c r="G66" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H66" s="168"/>
-      <c r="I66" s="168">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68" s="144" t="s">
+        <v>453</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E68" s="32">
+        <v>6</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="H68" s="110"/>
+      <c r="I68" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="167" t="s">
-        <v>457</v>
-      </c>
-      <c r="D67" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E67" s="164">
-        <v>1</v>
-      </c>
-      <c r="F67" s="164"/>
-      <c r="G67" s="38" t="s">
-        <v>424</v>
-      </c>
-      <c r="H67" s="168"/>
-      <c r="I67" s="168">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E69" s="32">
+        <v>1</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="113" t="s">
+        <v>422</v>
+      </c>
+      <c r="H69" s="110"/>
+      <c r="I69" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="163" t="s">
-        <v>458</v>
-      </c>
-      <c r="D68" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E68" s="164">
-        <v>6</v>
-      </c>
-      <c r="F68" s="164"/>
-      <c r="G68" s="38" t="s">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D70" s="163" t="s">
+        <v>419</v>
+      </c>
+      <c r="E70" s="32">
+        <v>1</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168">
+      <c r="H70" s="110"/>
+      <c r="I70" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="167" t="s">
-        <v>459</v>
-      </c>
-      <c r="D69" s="167" t="s">
-        <v>449</v>
-      </c>
-      <c r="E69" s="164">
-        <v>1</v>
-      </c>
-      <c r="F69" s="164"/>
-      <c r="G69" s="113" t="s">
-        <v>424</v>
-      </c>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>660</v>
+      </c>
+      <c r="D71" s="163" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="32">
+        <v>2</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="H71" s="110"/>
+      <c r="I71" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="165" t="s">
-        <v>670</v>
-      </c>
-      <c r="D70" s="169" t="s">
-        <v>421</v>
-      </c>
-      <c r="E70" s="164">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>661</v>
+      </c>
+      <c r="D72" s="163" t="s">
+        <v>419</v>
+      </c>
+      <c r="E72" s="32">
         <v>2</v>
       </c>
-      <c r="F70" s="164"/>
-      <c r="G70" s="38" t="s">
+      <c r="F72" s="32"/>
+      <c r="G72" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H70" s="168"/>
-      <c r="I70" s="168">
+      <c r="H72" s="110"/>
+      <c r="I72" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="170" t="s">
-        <v>676</v>
-      </c>
-      <c r="D71" s="169" t="s">
-        <v>421</v>
-      </c>
-      <c r="E71" s="164">
-        <v>1</v>
-      </c>
-      <c r="F71" s="164"/>
-      <c r="G71" s="38" t="s">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C73" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E73" s="32">
+        <v>2</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H71" s="168"/>
-      <c r="I71" s="168">
+      <c r="H73" s="110"/>
+      <c r="I73" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="165" t="s">
-        <v>671</v>
-      </c>
-      <c r="D72" s="169" t="s">
-        <v>421</v>
-      </c>
-      <c r="E72" s="164">
-        <v>2</v>
-      </c>
-      <c r="F72" s="164"/>
-      <c r="G72" s="38" t="s">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C74" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" s="32">
+        <v>1</v>
+      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="H72" s="168"/>
-      <c r="I72" s="168">
+      <c r="H74" s="110"/>
+      <c r="I74" s="110">
         <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="167" t="s">
-        <v>460</v>
-      </c>
-      <c r="D73" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E73" s="164">
-        <v>2</v>
-      </c>
-      <c r="F73" s="164"/>
-      <c r="G73" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="H73" s="168"/>
-      <c r="I73" s="168">
-        <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="167" t="s">
-        <v>461</v>
-      </c>
-      <c r="D74" s="167" t="s">
-        <v>421</v>
-      </c>
-      <c r="E74" s="164">
-        <v>1</v>
-      </c>
-      <c r="F74" s="164"/>
-      <c r="G74" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="H74" s="168"/>
-      <c r="I74" s="168">
-        <f>Table91317[[#This Row],[Unit Price]]*Table91317[[#This Row],[Pack Order Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="75" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="172" t="s">
+      <c r="C75" s="164" t="s">
         <v>408</v>
       </c>
-      <c r="D75" s="173"/>
-      <c r="E75" s="174"/>
-      <c r="F75" s="174"/>
-      <c r="G75" s="175"/>
-      <c r="H75" s="175"/>
-      <c r="I75" s="176">
+      <c r="D75" s="165"/>
+      <c r="E75" s="166"/>
+      <c r="F75" s="166"/>
+      <c r="G75" s="167"/>
+      <c r="H75" s="167"/>
+      <c r="I75" s="168">
         <f>SUBTOTAL(109,Table91317[Line Price])</f>
         <v>52</v>
       </c>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="93"/>
-      <c r="D76" s="93"/>
-      <c r="E76" s="151"/>
-      <c r="F76" s="151"/>
-      <c r="G76" s="94"/>
-      <c r="H76" s="152"/>
-      <c r="I76" s="152"/>
+      <c r="C76" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="148"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" s="25"/>
+      <c r="C77" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D77" s="26"/>
       <c r="E77" s="148"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D78" s="26"/>
       <c r="E78" s="148"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D79" s="26"/>
       <c r="E79" s="148"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D80" s="26"/>
+      <c r="C80" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D80" s="24"/>
       <c r="E80" s="148"/>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="148"/>
+      <c r="C81" s="148" t="s">
+        <v>298</v>
+      </c>
       <c r="D81" s="148"/>
-      <c r="E81" s="148"/>
+      <c r="E81" s="148" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="148"/>
+      <c r="C82" s="148" t="s">
+        <v>300</v>
+      </c>
+      <c r="D82" s="148"/>
+      <c r="E82" s="148" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" s="148" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D83" s="148"/>
       <c r="E83" s="148" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="148" t="s">
-        <v>300</v>
-      </c>
-      <c r="D84" s="148"/>
-      <c r="E84" s="148" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="148" t="s">
-        <v>302</v>
-      </c>
-      <c r="D85" s="148"/>
-      <c r="E85" s="148" t="s">
         <v>303</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C78" r:id="rId1" xr:uid="{D107209A-6101-4C31-B53C-6E10604DFF0C}"/>
-    <hyperlink ref="C79" r:id="rId2" xr:uid="{E4E10CD9-D3EB-42B1-8470-0DC8A8AE22F0}"/>
-    <hyperlink ref="C80" r:id="rId3" xr:uid="{A4ED6380-5003-48D7-8576-86BDB4250366}"/>
-    <hyperlink ref="G8" r:id="rId4" display="https://s.click.aliexpress.com/e/_c3suoWc5" xr:uid="{6C836249-CB1F-474D-BD34-0FCE69E6553D}"/>
-    <hyperlink ref="G9" r:id="rId5" xr:uid="{AC391CE6-B141-4127-9C1E-99FC7393592E}"/>
+    <hyperlink ref="C77" r:id="rId1" xr:uid="{D107209A-6101-4C31-B53C-6E10604DFF0C}"/>
+    <hyperlink ref="C78" r:id="rId2" xr:uid="{E4E10CD9-D3EB-42B1-8470-0DC8A8AE22F0}"/>
+    <hyperlink ref="C79" r:id="rId3" xr:uid="{A4ED6380-5003-48D7-8576-86BDB4250366}"/>
+    <hyperlink ref="G10" r:id="rId4" display="https://s.click.aliexpress.com/e/_c3suoWc5" xr:uid="{6C836249-CB1F-474D-BD34-0FCE69E6553D}"/>
+    <hyperlink ref="G11" r:id="rId5" xr:uid="{AC391CE6-B141-4127-9C1E-99FC7393592E}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="64" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - ENCLOSURE BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE</oddFooter>
@@ -15160,13 +15134,13 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
@@ -15245,7 +15219,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="144" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C5" s="144">
         <v>3</v>
@@ -15259,24 +15233,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="144" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C6" s="144">
         <v>1</v>
       </c>
       <c r="D6" s="32"/>
       <c r="E6" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="144" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
@@ -15290,145 +15264,145 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="144" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C8" s="144">
         <v>1</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C11" s="144">
         <v>1</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="138" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C12" s="144">
         <v>1</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="144" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C13" s="144">
         <v>2</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B14" s="144" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C14" s="144">
         <v>1</v>
       </c>
       <c r="D14" s="32"/>
       <c r="E14" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B15" s="144" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C15" s="144">
         <v>1</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F15" s="45"/>
       <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C16" s="144">
         <v>2</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F16" s="45"/>
       <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>476</v>
+      <c r="A17" s="169" t="s">
+        <v>672</v>
       </c>
       <c r="C17" s="144">
         <v>1</v>
@@ -15442,7 +15416,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C18" s="144">
         <v>1</v>
@@ -15456,7 +15430,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C19" s="144">
         <v>1</v>
@@ -15484,7 +15458,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="C21" s="144">
         <v>1</v>
@@ -15498,7 +15472,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C22" s="144">
         <v>1</v>
@@ -15554,7 +15528,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C26" s="144">
         <v>4</v>
@@ -15568,7 +15542,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C27" s="144">
         <v>9</v>
@@ -15582,7 +15556,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C28" s="144">
         <v>1</v>
@@ -15624,7 +15598,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="144" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -15652,7 +15626,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -15666,7 +15640,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -15680,7 +15654,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="144" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
@@ -15694,7 +15668,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -15708,7 +15682,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -15722,7 +15696,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="144" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
@@ -15736,7 +15710,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="144" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
@@ -15750,7 +15724,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="144" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C40" s="4">
         <v>1</v>
@@ -15764,7 +15738,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="144" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -15778,7 +15752,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C42" s="4">
         <v>4</v>
@@ -15792,24 +15766,24 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B43" s="144" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="38" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F43" s="110"/>
       <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="144" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C44" s="144">
         <v>1</v>
@@ -15823,7 +15797,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C45" s="4">
         <v>1</v>
@@ -15837,7 +15811,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C46" s="4">
         <v>1</v>
@@ -15851,7 +15825,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C47" s="4">
         <v>1</v>
@@ -15865,7 +15839,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -15879,7 +15853,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -15893,7 +15867,7 @@
     </row>
     <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C50" s="4">
         <v>1</v>
@@ -15907,7 +15881,7 @@
     </row>
     <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="95" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B51" s="99"/>
       <c r="C51" s="154"/>
@@ -16065,10 +16039,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C2" s="144">
         <v>3</v>
@@ -16077,7 +16051,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F2" s="45">
         <v>2</v>
@@ -16089,10 +16063,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C3" s="144">
         <v>3</v>
@@ -16101,7 +16075,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F3" s="45">
         <v>2</v>
@@ -16139,7 +16113,7 @@
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="31" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F5" s="45">
         <v>35</v>
@@ -16154,7 +16128,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C6" s="144">
         <v>1</v>
@@ -16197,10 +16171,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="158" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C8" s="144">
         <v>1</v>
@@ -16209,7 +16183,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F8" s="45">
         <v>7</v>
@@ -16221,10 +16195,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="158" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C9" s="144">
         <v>1</v>
@@ -16233,7 +16207,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F9" s="45">
         <v>5</v>
@@ -16245,7 +16219,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="158" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B10" s="144"/>
       <c r="C10" s="144">
@@ -16331,7 +16305,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="160" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C16" s="144">
         <v>1</v>
@@ -16347,7 +16321,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C17" s="144">
         <v>1</v>
@@ -16363,7 +16337,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="111" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C18" s="144">
         <v>2</v>
@@ -16379,7 +16353,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B19" s="99"/>
       <c r="C19" s="154"/>
@@ -16468,7 +16442,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="38" type="noConversion"/>
+  <phoneticPr fontId="39" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A22" r:id="rId1" xr:uid="{A08D53C6-D379-46AA-9F70-60828147D22E}"/>
     <hyperlink ref="A23" r:id="rId2" xr:uid="{64C6E7CC-1EE7-403C-BA1D-C136CF7AACAB}"/>
@@ -16504,7 +16478,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I17"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16548,12 +16522,12 @@
         <v>275</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="C2" s="144">
         <v>1</v>
@@ -16562,7 +16536,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F2" s="45">
         <v>2</v>
@@ -16574,7 +16548,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C3" s="144">
         <v>1</v>
@@ -16583,7 +16557,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>526</v>
+        <v>673</v>
       </c>
       <c r="F3" s="45">
         <v>40</v>
@@ -16592,19 +16566,14 @@
         <f>Table91317181920[[#This Row],[Unit Price]]*Table91317181920[[#This Row],[Pack Order Quantity]]</f>
         <v>40</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="I3" s="117" t="s">
-        <v>528</v>
-      </c>
+      <c r="I3" s="117"/>
       <c r="N3" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="159" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C4" s="144">
         <v>1</v>
@@ -16613,7 +16582,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="F4" s="45">
         <v>4</v>
@@ -16625,7 +16594,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="111" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -16634,162 +16603,162 @@
         <v>1</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F5" s="110"/>
       <c r="G5" s="112"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="159" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C6" s="144"/>
       <c r="D6" s="32"/>
       <c r="E6" s="128" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="102"/>
       <c r="I6" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="158" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C7" s="144"/>
       <c r="D7" s="32"/>
       <c r="E7" s="129" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="102"/>
       <c r="I7" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="158" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="129" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="102"/>
       <c r="I8" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="158" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C9" s="144"/>
       <c r="D9" s="32"/>
       <c r="E9" s="129" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="102"/>
       <c r="I9" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B10" s="144" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="32"/>
       <c r="E10" s="129" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="102"/>
       <c r="I10" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="158" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B11" s="144" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="32"/>
       <c r="E11" s="129" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="102"/>
       <c r="I11" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="158" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C12" s="144"/>
       <c r="D12" s="32"/>
       <c r="E12" s="128" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="102"/>
       <c r="I12" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="160" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="32"/>
       <c r="E13" s="129" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="102"/>
       <c r="I13" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="130" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F14" s="110"/>
       <c r="G14" s="110">
@@ -16797,20 +16766,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="131" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="130" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F15" s="110"/>
       <c r="G15" s="110">
@@ -16818,20 +16787,20 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="131" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="130" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F16" s="110"/>
       <c r="G16" s="110">
@@ -16839,20 +16808,20 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="131" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="130" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F17" s="110"/>
       <c r="G17" s="110">
@@ -16860,36 +16829,36 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C18" s="144"/>
       <c r="D18" s="32"/>
       <c r="E18" s="31" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C19" s="144"/>
       <c r="D19" s="32"/>
-      <c r="E19" s="31" t="s">
-        <v>554</v>
+      <c r="E19" s="170" t="s">
+        <v>287</v>
       </c>
       <c r="F19" s="45"/>
       <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -16898,7 +16867,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="F20" s="110">
         <v>10</v>
@@ -16910,7 +16879,7 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -16919,7 +16888,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="128" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F21" s="110"/>
       <c r="G21" s="110">
@@ -16927,12 +16896,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="125" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -16941,12 +16910,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="128" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F22" s="110"/>
       <c r="G22" s="110"/>
       <c r="L22" s="4" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M22" s="132">
         <v>11.37</v>
@@ -16954,17 +16923,17 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="130" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="F23" s="110"/>
       <c r="G23" s="110"/>
       <c r="L23" s="4" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M23" s="4">
         <v>4.82</v>
@@ -16972,12 +16941,12 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="130" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F24" s="110"/>
       <c r="G24" s="110">
@@ -16985,7 +16954,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M24" s="4">
         <v>1.31</v>
@@ -16993,7 +16962,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -17002,7 +16971,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F25" s="110">
         <v>18</v>
@@ -17014,7 +16983,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
@@ -17023,7 +16992,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="F26" s="110">
         <v>35</v>
@@ -17035,7 +17004,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="B27" s="99"/>
       <c r="C27" s="154"/>
@@ -17135,33 +17104,32 @@
     <hyperlink ref="E25" r:id="rId8" display="https://www.aliexpress.com/item/1005007567533885.html?" xr:uid="{39935142-4495-4BC3-B771-9D65ECFBA008}"/>
     <hyperlink ref="E20" r:id="rId9" xr:uid="{C6177B76-25EF-4489-BF95-2763F0645274}"/>
     <hyperlink ref="E18" r:id="rId10" xr:uid="{F9E8E2C8-B4D2-4076-B9EA-7FA169FE0152}"/>
-    <hyperlink ref="I3" r:id="rId11" xr:uid="{5C756C98-81C1-4F1F-8532-3D8B4B44DB09}"/>
-    <hyperlink ref="E6" r:id="rId12" xr:uid="{14502622-AF04-4D6C-AC44-E09B2446A8E9}"/>
-    <hyperlink ref="E7" r:id="rId13" xr:uid="{AE4D717C-E10B-4111-BF18-2EB7B07C9CA8}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{977FD20E-EE73-480E-ACC2-6660967B1305}"/>
-    <hyperlink ref="E9" r:id="rId15" xr:uid="{5A5099B9-7E65-436A-AF41-6686FD5915C1}"/>
-    <hyperlink ref="E10" r:id="rId16" xr:uid="{6F537A63-50F1-4BC2-AD7B-C1BD4B575ECE}"/>
-    <hyperlink ref="E11" r:id="rId17" xr:uid="{3C2DF0AE-3C07-4877-8390-D4DE046C507E}"/>
-    <hyperlink ref="E12" r:id="rId18" xr:uid="{803F2F6C-74C3-4DA5-828E-D21795B7FA12}"/>
-    <hyperlink ref="E13" r:id="rId19" xr:uid="{0508A14D-10E9-4B05-BC4B-6374F6A7D76E}"/>
-    <hyperlink ref="E14" r:id="rId20" xr:uid="{35E5B4EF-BF0C-4094-BEB1-9E5846347232}"/>
-    <hyperlink ref="E15" r:id="rId21" xr:uid="{0201176C-E5E7-4AA7-8128-68DF0FB086BB}"/>
-    <hyperlink ref="E16" r:id="rId22" xr:uid="{32B5BD41-7E5E-4E24-9ED4-5944494BCCF2}"/>
-    <hyperlink ref="E22" r:id="rId23" xr:uid="{2CA017FE-F97D-4B4F-A558-7EEA5FB7C649}"/>
-    <hyperlink ref="E23" r:id="rId24" xr:uid="{42E776B9-CA49-47F6-9855-22D5A77AB01D}"/>
-    <hyperlink ref="E24" r:id="rId25" xr:uid="{62646524-EFF2-4B13-A41A-76EFE3967380}"/>
-    <hyperlink ref="E21" r:id="rId26" xr:uid="{DB48417B-44BC-4B30-A930-FB80A86E9B1B}"/>
-    <hyperlink ref="E17" r:id="rId27" xr:uid="{6F107AA0-CEAD-4283-A780-3D3828FBB6F9}"/>
+    <hyperlink ref="E6" r:id="rId11" xr:uid="{14502622-AF04-4D6C-AC44-E09B2446A8E9}"/>
+    <hyperlink ref="E7" r:id="rId12" xr:uid="{AE4D717C-E10B-4111-BF18-2EB7B07C9CA8}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{977FD20E-EE73-480E-ACC2-6660967B1305}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{5A5099B9-7E65-436A-AF41-6686FD5915C1}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{6F537A63-50F1-4BC2-AD7B-C1BD4B575ECE}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{3C2DF0AE-3C07-4877-8390-D4DE046C507E}"/>
+    <hyperlink ref="E12" r:id="rId17" xr:uid="{803F2F6C-74C3-4DA5-828E-D21795B7FA12}"/>
+    <hyperlink ref="E13" r:id="rId18" xr:uid="{0508A14D-10E9-4B05-BC4B-6374F6A7D76E}"/>
+    <hyperlink ref="E14" r:id="rId19" xr:uid="{35E5B4EF-BF0C-4094-BEB1-9E5846347232}"/>
+    <hyperlink ref="E15" r:id="rId20" xr:uid="{0201176C-E5E7-4AA7-8128-68DF0FB086BB}"/>
+    <hyperlink ref="E16" r:id="rId21" xr:uid="{32B5BD41-7E5E-4E24-9ED4-5944494BCCF2}"/>
+    <hyperlink ref="E22" r:id="rId22" xr:uid="{2CA017FE-F97D-4B4F-A558-7EEA5FB7C649}"/>
+    <hyperlink ref="E23" r:id="rId23" xr:uid="{42E776B9-CA49-47F6-9855-22D5A77AB01D}"/>
+    <hyperlink ref="E24" r:id="rId24" xr:uid="{62646524-EFF2-4B13-A41A-76EFE3967380}"/>
+    <hyperlink ref="E21" r:id="rId25" xr:uid="{DB48417B-44BC-4B30-A930-FB80A86E9B1B}"/>
+    <hyperlink ref="E17" r:id="rId26" xr:uid="{6F107AA0-CEAD-4283-A780-3D3828FBB6F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId27"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - Electronics BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE</oddFooter>
   </headerFooter>
-  <drawing r:id="rId29"/>
+  <drawing r:id="rId28"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>
--- a/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10740" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E04643CF-E721-40FC-8AA9-AD95BD2BB248}"/>
+  <xr:revisionPtr revIDLastSave="10901" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE62733-0445-4F8B-81C8-3DE3F40FA5B4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full BOM List" sheetId="43" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="679">
   <si>
     <t>Part Type</t>
   </si>
@@ -1431,48 +1431,12 @@
     <t>V2 Window Frame Outer_1x</t>
   </si>
   <si>
-    <t>Bearing 625ZZ 5-16-5</t>
-  </si>
-  <si>
-    <t>dbx bottom _1x 9mm MDF/Ply</t>
-  </si>
-  <si>
     <t>MDF/PLYWOOD</t>
   </si>
   <si>
-    <t>Buy</t>
-  </si>
-  <si>
     <t>DBX Drawer Slides 11435A14</t>
   </si>
   <si>
-    <t>dbx front_1x 9mm MDF/Ply</t>
-  </si>
-  <si>
-    <t>dbx insulation bottom_1x</t>
-  </si>
-  <si>
-    <t>dbx insulation front_1x</t>
-  </si>
-  <si>
-    <t>dbx insulation Lid 1x</t>
-  </si>
-  <si>
-    <t>dbx insulation rear_1x</t>
-  </si>
-  <si>
-    <t>dbx insulation side_2x</t>
-  </si>
-  <si>
-    <t>dbx lid_1x 9mm MDF/Ply</t>
-  </si>
-  <si>
-    <t>dbx rear_1x 9mm MDF/Ply</t>
-  </si>
-  <si>
-    <t>dbx side_2x 9mm MDF/Ply</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESP32  Expansion Board </t>
   </si>
   <si>
@@ -1488,24 +1452,12 @@
     <t>M4 WASHER  DIN 125 iso 7089</t>
   </si>
   <si>
-    <t>M4.2 x25 Pan Hd DIN 7981</t>
-  </si>
-  <si>
     <t>M4x35 HEX DIN 933 ISO 4017</t>
   </si>
   <si>
-    <t xml:space="preserve">MR85 ZZ Bearing  5x8x2,5 </t>
-  </si>
-  <si>
-    <t>PTC 300W Heater (400W?) +24v fan</t>
-  </si>
-  <si>
     <t>V2 Carousel Bearing Plate_1x</t>
   </si>
   <si>
-    <t>V2 dbx Aligning Spacer_2x</t>
-  </si>
-  <si>
     <t>V2 dbx draw handle_1x</t>
   </si>
   <si>
@@ -1521,31 +1473,7 @@
     <t>V2 desiccant Lid_1x</t>
   </si>
   <si>
-    <t>V2 Drybox Draw Brackets_4x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V2 Drybox Draw Front </t>
-  </si>
-  <si>
     <t>V2 Esp 32 dev board Holder_1x</t>
-  </si>
-  <si>
-    <t>V2 Inner ring under_1x</t>
-  </si>
-  <si>
-    <t>V2 Loadcell Spacer_1x</t>
-  </si>
-  <si>
-    <t>V2 Outer Ring_1x</t>
-  </si>
-  <si>
-    <t>V2 PTC Heater bracket_1x</t>
-  </si>
-  <si>
-    <t>V2 Spool adapter_1x</t>
-  </si>
-  <si>
-    <t>V2 unspool_ring_1x</t>
   </si>
   <si>
     <t>Sum Drybox Parts - Excl. HW</t>
@@ -2109,6 +2037,81 @@
   <si>
     <t>20x06 Magnet 10kg</t>
   </si>
+  <si>
+    <t xml:space="preserve">05x07x1 Precision Shim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5 Nut DIN 934 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M5x20 BH ISO 7380 </t>
+  </si>
+  <si>
+    <t>V2 Carousel Inner ring_1x</t>
+  </si>
+  <si>
+    <t>V2 Carousel Loadcell Spacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2 Carousel Outer Ring_1x </t>
+  </si>
+  <si>
+    <t>V2 Carousel Spool adapter 54mm</t>
+  </si>
+  <si>
+    <t>V2 dbx insulation side_2x</t>
+  </si>
+  <si>
+    <t>V2 Carousel unspool_ring_1x</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>PTC 300W Heater w/fan</t>
+  </si>
+  <si>
+    <t>V2 dbx Aligning Spacer_2</t>
+  </si>
+  <si>
+    <t>V2 dbx insulation TB_2x</t>
+  </si>
+  <si>
+    <t>Top/Bottom</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>V2 dbx Panel TB_2x</t>
+  </si>
+  <si>
+    <t>Left/Right</t>
+  </si>
+  <si>
+    <t>V2 dbx PTC heater buddy_1x</t>
+  </si>
+  <si>
+    <t>V2 dbx Panel Side_2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V2 dbx insulation FB_2x </t>
+  </si>
+  <si>
+    <t>Front/Back</t>
+  </si>
+  <si>
+    <t>V2 dbx Panel FB_2x</t>
+  </si>
+  <si>
+    <t>V2 dbx Draw Brackets_4x</t>
+  </si>
+  <si>
+    <t>V2 dbx Draw Front Panel</t>
+  </si>
+  <si>
+    <t>V2 HX 711 board Holder_1x</t>
+  </si>
 </sst>
 </file>
 
@@ -2122,11 +2125,18 @@
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2583,95 +2593,95 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2686,7 +2696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2698,258 +2708,265 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="7" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="1" fontId="11" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="6" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5438,16 +5455,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1381125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2101125</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5477,8 +5494,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4219575" y="10506075"/>
-          <a:ext cx="1143000" cy="1143000"/>
+          <a:off x="1771650" y="9382125"/>
+          <a:ext cx="720000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5489,16 +5506,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>519651</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>916323</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5528,8 +5545,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5810250" y="10496550"/>
-          <a:ext cx="1262601" cy="1133475"/>
+          <a:off x="2705100" y="9382125"/>
+          <a:ext cx="802023" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5928,10 +5945,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="A1:G50" totalsRowShown="0" headerRowDxfId="41" tableBorderDxfId="40" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A1:G50" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G50">
-    <sortCondition ref="A1:A50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{80146AFF-010D-476D-80AD-DFB7130CCD89}" name="Table9131718" displayName="Table9131718" ref="B1:H46" totalsRowShown="0" headerRowDxfId="41" tableBorderDxfId="40" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B1:H46" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H46">
+    <sortCondition ref="B1:B46"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{3C370705-9D71-4B07-907E-72DEACEAFBA2}" name="Part name" totalsRowDxfId="39" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
@@ -9448,7 +9465,7 @@
         <v>0.88</v>
       </c>
       <c r="G98" s="45">
-        <f t="shared" ref="G98:G129" si="3">E98*F98</f>
+        <f t="shared" ref="G98:G100" si="3">E98*F98</f>
         <v>1.76</v>
       </c>
       <c r="H98" s="36">
@@ -9695,7 +9712,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="16"/>
@@ -9711,17 +9728,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9729,16 +9746,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9746,16 +9763,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9763,16 +9780,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9780,7 +9797,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -9802,7 +9819,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -9815,10 +9832,10 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="E11" s="18"/>
     </row>
@@ -9828,10 +9845,10 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="E12" s="18"/>
     </row>
@@ -9841,13 +9858,13 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9856,13 +9873,13 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9871,10 +9888,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="E15" s="18"/>
     </row>
@@ -9884,10 +9901,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="E16" s="18"/>
     </row>
@@ -9898,7 +9915,7 @@
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="E17" s="18"/>
     </row>
@@ -9909,7 +9926,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="E18" s="18"/>
     </row>
@@ -9919,13 +9936,13 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="16" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9934,13 +9951,13 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="16" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9952,13 +9969,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="18"/>
@@ -9968,16 +9985,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -9985,16 +10002,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -10002,16 +10019,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10019,7 +10036,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -10048,12 +10065,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="18" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -10085,177 +10102,177 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="B1" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="C1" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D1" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B5" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="D5" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="B6" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="B7" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="B8" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="B13" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B15" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B17" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -10283,21 +10300,21 @@
         <v>270</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="161" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="B2" s="161"/>
       <c r="C2" s="161"/>
@@ -10306,90 +10323,90 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="161" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="161" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="161" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="161" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="161" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="161" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="C9" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -10405,7 +10422,7 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -13520,7 +13537,7 @@
   </sheetPr>
   <dimension ref="C1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13563,7 +13580,7 @@
     </row>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C2" s="163" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="D2" s="169" t="s">
         <v>250</v>
@@ -13583,10 +13600,10 @@
     </row>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="D3" s="169" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="E3" s="32">
         <v>13</v>
@@ -13603,7 +13620,7 @@
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="163" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="D4" s="169" t="s">
         <v>250</v>
@@ -13623,10 +13640,10 @@
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="D5" s="169" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="E5" s="32">
         <v>2</v>
@@ -13663,7 +13680,7 @@
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="169" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="D7" s="169" t="s">
         <v>163</v>
@@ -13683,7 +13700,7 @@
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="D8" s="169" t="s">
         <v>261</v>
@@ -13703,7 +13720,7 @@
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="D9" s="169" t="s">
         <v>91</v>
@@ -13723,7 +13740,7 @@
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C10" s="28" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>410</v>
@@ -13747,10 +13764,10 @@
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C11" s="28" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="D11" s="163" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="E11" s="32">
         <v>1</v>
@@ -13759,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="H11" s="110">
         <v>42</v>
@@ -13774,7 +13791,7 @@
         <v>57</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="E12" s="32">
         <v>1</v>
@@ -13794,7 +13811,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="E13" s="32">
         <v>1</v>
@@ -13831,7 +13848,7 @@
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>261</v>
@@ -13851,10 +13868,10 @@
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="E16" s="32">
         <v>4</v>
@@ -13931,7 +13948,7 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" s="163" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="D20" s="169" t="s">
         <v>108</v>
@@ -13951,7 +13968,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" s="163" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="D21" s="169" t="s">
         <v>261</v>
@@ -13991,7 +14008,7 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="D23" s="169" t="s">
         <v>189</v>
@@ -14051,7 +14068,7 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="163" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D26" s="169" t="s">
         <v>108</v>
@@ -14154,7 +14171,7 @@
         <v>416</v>
       </c>
       <c r="D31" s="169" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="E31" s="32">
         <v>44</v>
@@ -14174,7 +14191,7 @@
         <v>417</v>
       </c>
       <c r="D32" s="169" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="E32" s="32">
         <v>17</v>
@@ -14231,7 +14248,7 @@
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="169" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>419</v>
@@ -14471,7 +14488,7 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C47" s="163" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>419</v>
@@ -14491,7 +14508,7 @@
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C48" s="163" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>419</v>
@@ -14511,7 +14528,7 @@
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C49" s="169" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>419</v>
@@ -14531,7 +14548,7 @@
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C50" s="169" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>419</v>
@@ -14931,7 +14948,7 @@
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="D70" s="163" t="s">
         <v>419</v>
@@ -14951,7 +14968,7 @@
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="D71" s="163" t="s">
         <v>419</v>
@@ -14971,7 +14988,7 @@
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D72" s="163" t="s">
         <v>419</v>
@@ -15129,854 +15146,790 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA26C79-BDB9-4C39-93AD-8B127B4C8773}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="B1:H55"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="4" customWidth="1"/>
-    <col min="8" max="16365" width="11.42578125" style="4"/>
-    <col min="16366" max="16371" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16372" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16364" width="11.42578125" style="4"/>
+    <col min="16365" max="16370" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16371" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="153" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="153" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="E1" s="153" t="s">
         <v>304</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="F1" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="G1" s="153" t="s">
         <v>274</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="H1" s="153" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="C2" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="172" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="153"/>
+      <c r="F2" s="171" t="s">
+        <v>284</v>
+      </c>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="144" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="144">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>624</v>
+      </c>
+      <c r="D4" s="144">
+        <v>4</v>
+      </c>
+      <c r="E4" s="32"/>
+      <c r="F4" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="144" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="144">
+        <v>3</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="C2" s="144">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="38" t="s">
+      <c r="D6" s="144">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="144" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="144">
-        <v>1</v>
-      </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="38" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="144" t="s">
+        <v>458</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="144" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="144">
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="169" t="s">
+        <v>648</v>
+      </c>
+      <c r="D8" s="144">
+        <v>1</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="D9" s="144">
+        <v>1</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D10" s="144">
+        <v>1</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="144">
+        <v>1</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" s="144">
+        <v>1</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="D13" s="144">
+        <v>1</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="144">
+        <v>10</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="144" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="144">
+        <v>1</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="144">
+        <v>2</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="D17" s="144">
+        <v>7</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="144">
         <v>3</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="38" t="s">
+      <c r="E18" s="32"/>
+      <c r="F18" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="144" t="s">
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="144" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="173" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="144">
+        <v>1</v>
+      </c>
+      <c r="E20" s="151"/>
+      <c r="F20" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>655</v>
+      </c>
+      <c r="D21" s="144">
+        <v>2</v>
+      </c>
+      <c r="E21" s="151"/>
+      <c r="F21" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>656</v>
+      </c>
+      <c r="D22" s="144">
+        <v>2</v>
+      </c>
+      <c r="E22" s="151"/>
+      <c r="F22" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="173" t="s">
+        <v>664</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="32"/>
+      <c r="F23" s="38" t="s">
+        <v>641</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="32"/>
+      <c r="F24" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>657</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>658</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>659</v>
+      </c>
+      <c r="C27" s="144" t="s">
         <v>457</v>
       </c>
-      <c r="C5" s="144">
-        <v>3</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="144" t="s">
-        <v>458</v>
-      </c>
-      <c r="B6" s="144" t="s">
-        <v>459</v>
-      </c>
-      <c r="C6" s="144">
-        <v>1</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="144" t="s">
-        <v>461</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="D27" s="144">
+        <v>1</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>660</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="32"/>
+      <c r="F28" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>662</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D30" s="144">
         <v>2</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
-        <v>462</v>
-      </c>
-      <c r="B8" s="144" t="s">
-        <v>459</v>
-      </c>
-      <c r="C8" s="144">
-        <v>1</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>463</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="144">
-        <v>1</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="138" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="173" t="s">
+        <v>676</v>
+      </c>
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" s="110"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="173" t="s">
+        <v>677</v>
+      </c>
+      <c r="C32" s="144" t="s">
+        <v>444</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G32" s="110"/>
+      <c r="H32" s="45"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>466</v>
       </c>
-      <c r="C12" s="144">
-        <v>1</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="144" t="s">
+      <c r="D33" s="144">
+        <v>1</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C34" s="173" t="s">
+        <v>674</v>
+      </c>
+      <c r="D34" s="144">
+        <v>2</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>661</v>
+      </c>
+      <c r="C35" s="173" t="s">
+        <v>668</v>
+      </c>
+      <c r="D35" s="144">
+        <v>2</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C36" s="173" t="s">
+        <v>667</v>
+      </c>
+      <c r="D36" s="144">
+        <v>2</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="F36" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C37" s="173" t="s">
+        <v>674</v>
+      </c>
+      <c r="D37" s="144">
+        <v>2</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="173" t="s">
+        <v>672</v>
+      </c>
+      <c r="C38" s="173" t="s">
+        <v>670</v>
+      </c>
+      <c r="D38" s="144">
+        <v>2</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="173" t="s">
+        <v>669</v>
+      </c>
+      <c r="C39" s="173" t="s">
+        <v>667</v>
+      </c>
+      <c r="D39" s="144">
+        <v>2</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D40" s="144">
+        <v>1</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="144" t="s">
         <v>467</v>
       </c>
-      <c r="C13" s="144">
-        <v>2</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="144" t="s">
         <v>468</v>
       </c>
-      <c r="B14" s="144" t="s">
-        <v>459</v>
-      </c>
-      <c r="C14" s="144">
-        <v>1</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="D42" s="4">
+        <v>1</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="144" t="s">
         <v>469</v>
       </c>
-      <c r="B15" s="144" t="s">
-        <v>459</v>
-      </c>
-      <c r="C15" s="144">
-        <v>1</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="144" t="s">
         <v>470</v>
       </c>
-      <c r="B16" s="144" t="s">
-        <v>459</v>
-      </c>
-      <c r="C16" s="144">
-        <v>2</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="169" t="s">
-        <v>672</v>
-      </c>
-      <c r="C17" s="144">
-        <v>1</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="173" t="s">
+        <v>678</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="144" t="s">
         <v>471</v>
       </c>
-      <c r="C18" s="144">
-        <v>1</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="D46" s="144">
+        <v>1</v>
+      </c>
+      <c r="E46" s="32"/>
+      <c r="F46" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="95" t="s">
         <v>472</v>
       </c>
-      <c r="C19" s="144">
-        <v>1</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="144">
-        <v>1</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="C21" s="144">
-        <v>1</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C22" s="144">
-        <v>1</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="144">
-        <v>10</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="144" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="144">
-        <v>1</v>
-      </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="144" t="s">
-        <v>386</v>
-      </c>
-      <c r="C25" s="144">
-        <v>1</v>
-      </c>
-      <c r="D25" s="151"/>
-      <c r="E25" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C26" s="144">
-        <v>4</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C27" s="144">
-        <v>9</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="C28" s="144">
-        <v>1</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C29" s="144">
-        <v>3</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="144" t="s">
-        <v>477</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2</v>
-      </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C32" s="4">
-        <v>6</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="144" t="s">
-        <v>480</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="C36" s="4">
-        <v>2</v>
-      </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="C37" s="4">
-        <v>1</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="144" t="s">
-        <v>483</v>
-      </c>
-      <c r="C38" s="4">
-        <v>1</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="144" t="s">
-        <v>484</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F39" s="110"/>
-      <c r="G39" s="110"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="144" t="s">
-        <v>485</v>
-      </c>
-      <c r="C40" s="4">
-        <v>1</v>
-      </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F40" s="110"/>
-      <c r="G40" s="110"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="144" t="s">
-        <v>486</v>
-      </c>
-      <c r="C41" s="4">
-        <v>1</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F41" s="110"/>
-      <c r="G41" s="110"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="C42" s="4">
-        <v>4</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F42" s="110"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B43" s="144" t="s">
-        <v>444</v>
-      </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="F43" s="110"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="144" t="s">
-        <v>489</v>
-      </c>
-      <c r="C44" s="144">
-        <v>1</v>
-      </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F46" s="110"/>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="C47" s="4">
-        <v>1</v>
-      </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" s="110"/>
-      <c r="G47" s="45"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="C48" s="4">
-        <v>1</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F48" s="110"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="38" t="s">
-        <v>287</v>
-      </c>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="95" t="s">
-        <v>496</v>
-      </c>
-      <c r="B51" s="99"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="96"/>
-      <c r="F51" s="96"/>
-      <c r="G51" s="97">
-        <f>SUBTOTAL(109,G4:G44)</f>
+      <c r="C47" s="99"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="97">
+        <f>SUBTOTAL(109,H5:H46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="152"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="B53" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="148" t="s">
+        <v>298</v>
+      </c>
+      <c r="F49" s="148" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="148" t="s">
+        <v>300</v>
+      </c>
+      <c r="F50" s="148" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="148" t="s">
+        <v>302</v>
+      </c>
+      <c r="F51" s="148" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="24"/>
+      <c r="D52" s="148"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" s="148"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="B54" s="26"/>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C54" s="148"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="B55" s="26"/>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C55" s="148"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="148"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="148"/>
-      <c r="B57" s="148"/>
-      <c r="C57" s="148"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="148"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="148" t="s">
-        <v>298</v>
-      </c>
-      <c r="B59" s="148"/>
-      <c r="C59" s="148" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="148" t="s">
-        <v>300</v>
-      </c>
-      <c r="B60" s="148"/>
-      <c r="C60" s="148" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="148" t="s">
-        <v>302</v>
-      </c>
-      <c r="B61" s="148"/>
-      <c r="C61" s="148" t="s">
-        <v>303</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A54" r:id="rId1" xr:uid="{FC9EA8F3-E0E5-4DA7-9896-FB7961016A7C}"/>
-    <hyperlink ref="A55" r:id="rId2" xr:uid="{27CF5F51-5B66-479C-8DAF-867150F2740A}"/>
-    <hyperlink ref="A56" r:id="rId3" xr:uid="{5D676784-68B5-4F53-8887-BD54C5D86FFC}"/>
+    <hyperlink ref="B49" r:id="rId1" xr:uid="{FC9EA8F3-E0E5-4DA7-9896-FB7961016A7C}"/>
+    <hyperlink ref="B50" r:id="rId2" xr:uid="{27CF5F51-5B66-479C-8DAF-867150F2740A}"/>
+    <hyperlink ref="B51" r:id="rId3" xr:uid="{5D676784-68B5-4F53-8887-BD54C5D86FFC}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId4"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="9.8425196850393706E-2" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId4"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Aptos Black,Regular"&amp;14VALKYRIE V2 - DRYBOX BOM</oddHeader>
     <oddFooter>&amp;CBETA PRELEASE</oddFooter>
@@ -16039,10 +15992,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C2" s="144">
         <v>3</v>
@@ -16051,7 +16004,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="F2" s="45">
         <v>2</v>
@@ -16063,10 +16016,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C3" s="144">
         <v>3</v>
@@ -16075,7 +16028,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F3" s="45">
         <v>2</v>
@@ -16113,7 +16066,7 @@
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="31" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="F5" s="45">
         <v>35</v>
@@ -16128,7 +16081,7 @@
         <v>154</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C6" s="144">
         <v>1</v>
@@ -16171,10 +16124,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="158" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="C8" s="144">
         <v>1</v>
@@ -16183,7 +16136,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="F8" s="45">
         <v>7</v>
@@ -16195,10 +16148,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="158" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C9" s="144">
         <v>1</v>
@@ -16207,7 +16160,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="F9" s="45">
         <v>5</v>
@@ -16219,7 +16172,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="158" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="B10" s="144"/>
       <c r="C10" s="144">
@@ -16305,7 +16258,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="160" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C16" s="144">
         <v>1</v>
@@ -16321,7 +16274,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C17" s="144">
         <v>1</v>
@@ -16337,7 +16290,7 @@
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="111" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C18" s="144">
         <v>2</v>
@@ -16353,7 +16306,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="B19" s="99"/>
       <c r="C19" s="154"/>
@@ -16442,7 +16395,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="39" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A22" r:id="rId1" xr:uid="{A08D53C6-D379-46AA-9F70-60828147D22E}"/>
     <hyperlink ref="A23" r:id="rId2" xr:uid="{64C6E7CC-1EE7-403C-BA1D-C136CF7AACAB}"/>
@@ -16522,12 +16475,12 @@
         <v>275</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C2" s="144">
         <v>1</v>
@@ -16536,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="F2" s="45">
         <v>2</v>
@@ -16548,7 +16501,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C3" s="144">
         <v>1</v>
@@ -16557,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="F3" s="45">
         <v>40</v>
@@ -16573,7 +16526,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="159" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="C4" s="144">
         <v>1</v>
@@ -16582,7 +16535,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="F4" s="45">
         <v>4</v>
@@ -16594,7 +16547,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="111" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -16610,155 +16563,155 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="159" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C6" s="144"/>
       <c r="D6" s="32"/>
       <c r="E6" s="128" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="102"/>
       <c r="I6" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="158" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="C7" s="144"/>
       <c r="D7" s="32"/>
       <c r="E7" s="129" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F7" s="45"/>
       <c r="G7" s="102"/>
       <c r="I7" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="158" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="129" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="102"/>
       <c r="I8" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="158" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C9" s="144"/>
       <c r="D9" s="32"/>
       <c r="E9" s="129" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F9" s="45"/>
       <c r="G9" s="102"/>
       <c r="I9" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="101" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="B10" s="144" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="32"/>
       <c r="E10" s="129" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="102"/>
       <c r="I10" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="158" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B11" s="144" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C11" s="144"/>
       <c r="D11" s="32"/>
       <c r="E11" s="129" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F11" s="45"/>
       <c r="G11" s="102"/>
       <c r="I11" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="158" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C12" s="144"/>
       <c r="D12" s="32"/>
       <c r="E12" s="128" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F12" s="45"/>
       <c r="G12" s="102"/>
       <c r="I12" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="160" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C13" s="144"/>
       <c r="D13" s="32"/>
       <c r="E13" s="129" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="F13" s="45"/>
       <c r="G13" s="102"/>
       <c r="I13" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="130" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="F14" s="110"/>
       <c r="G14" s="110">
@@ -16766,20 +16719,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="131" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="130" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="F15" s="110"/>
       <c r="G15" s="110">
@@ -16787,20 +16740,20 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="131" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="130" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="F16" s="110"/>
       <c r="G16" s="110">
@@ -16808,20 +16761,20 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="131" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="130" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="F17" s="110"/>
       <c r="G17" s="110">
@@ -16829,24 +16782,24 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C18" s="144"/>
       <c r="D18" s="32"/>
       <c r="E18" s="31" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="F18" s="45"/>
       <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C19" s="144"/>
       <c r="D19" s="32"/>
@@ -16858,7 +16811,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -16867,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="F20" s="110">
         <v>10</v>
@@ -16879,7 +16832,7 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -16888,7 +16841,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="128" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="F21" s="110"/>
       <c r="G21" s="110">
@@ -16896,12 +16849,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="125" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -16910,12 +16863,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="128" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="F22" s="110"/>
       <c r="G22" s="110"/>
       <c r="L22" s="4" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="M22" s="132">
         <v>11.37</v>
@@ -16923,17 +16876,17 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="130" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="F23" s="110"/>
       <c r="G23" s="110"/>
       <c r="L23" s="4" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="M23" s="4">
         <v>4.82</v>
@@ -16941,12 +16894,12 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="130" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="F24" s="110"/>
       <c r="G24" s="110">
@@ -16954,7 +16907,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="M24" s="4">
         <v>1.31</v>
@@ -16962,7 +16915,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -16971,7 +16924,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="F25" s="110">
         <v>18</v>
@@ -16983,7 +16936,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
@@ -16992,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="F26" s="110">
         <v>35</v>
@@ -17004,7 +16957,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="B27" s="99"/>
       <c r="C27" s="154"/>

--- a/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10901" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EE62733-0445-4F8B-81C8-3DE3F40FA5B4}"/>
+  <xr:revisionPtr revIDLastSave="10902" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{988E3505-9261-4A68-89C5-446231E3F0B2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full BOM List" sheetId="43" r:id="rId1"/>
@@ -5776,7 +5776,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L100" totalsRowShown="0" dataDxfId="135" headerRowBorderDxfId="136" tableBorderDxfId="134" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:L100" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L100">
-    <sortCondition ref="A1:A100"/>
+    <sortCondition ref="B1:B100"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="3" xr3:uid="{E596F2F7-CDFF-486E-86F5-053FDD2A2A5C}" name="Part Type" dataDxfId="133"/>
@@ -6188,8 +6188,8 @@
   </sheetPr>
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6249,671 +6249,689 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="28"/>
+        <v>245</v>
+      </c>
       <c r="D2" s="43">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E2" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="45">
-        <v>6</v>
+        <v>1.64</v>
       </c>
       <c r="G2" s="45">
-        <f t="shared" ref="G2:G33" si="0">E2*F2</f>
-        <v>18</v>
+        <f>E2*F2</f>
+        <v>1.64</v>
       </c>
       <c r="H2" s="36">
         <v>10</v>
       </c>
       <c r="I2" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="46"/>
+        <v>246</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K2" s="43"/>
+      <c r="L2" s="48"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="27">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51">
+        <v>1</v>
       </c>
       <c r="E3" s="44">
         <v>1</v>
       </c>
       <c r="F3" s="45">
-        <v>5.03</v>
+        <v>4.18</v>
       </c>
       <c r="G3" s="45">
-        <f t="shared" si="0"/>
-        <v>5.03</v>
+        <f>E3*F3</f>
+        <v>4.18</v>
       </c>
       <c r="H3" s="36">
         <v>10</v>
       </c>
       <c r="I3" s="86" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="48"/>
+        <v>27</v>
+      </c>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="27">
-        <v>2</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1</v>
       </c>
       <c r="E4" s="44">
         <v>1</v>
       </c>
       <c r="F4" s="45">
-        <v>18</v>
+        <v>4.25</v>
       </c>
       <c r="G4" s="45">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>E4*F4</f>
+        <v>4.25</v>
       </c>
       <c r="H4" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="136" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="43">
+        <v>30</v>
       </c>
       <c r="E5" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="45">
-        <v>4.18</v>
+        <v>6</v>
       </c>
       <c r="G5" s="45">
-        <f t="shared" si="0"/>
-        <v>4.18</v>
+        <f>E5*F5</f>
+        <v>18</v>
       </c>
       <c r="H5" s="36">
         <v>10</v>
       </c>
       <c r="I5" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="47" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="136" t="s">
+        <v>18</v>
       </c>
       <c r="L5" s="46"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="52"/>
+        <v>235</v>
+      </c>
+      <c r="B6" s="139" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="55"/>
       <c r="D6" s="43">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E6" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="45">
-        <v>5.45</v>
+        <v>11</v>
       </c>
       <c r="G6" s="45">
-        <f t="shared" si="0"/>
-        <v>10.9</v>
+        <f>E6*F6</f>
+        <v>11</v>
       </c>
       <c r="H6" s="36">
-        <v>10</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="138" t="s">
-        <v>35</v>
+      <c r="A7" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="139" t="s">
+        <v>239</v>
       </c>
       <c r="C7" s="50"/>
-      <c r="D7" s="51">
-        <v>3</v>
+      <c r="D7" s="43">
+        <v>6</v>
       </c>
       <c r="E7" s="44">
         <v>1</v>
       </c>
       <c r="F7" s="45">
-        <v>5.87</v>
+        <v>12</v>
       </c>
       <c r="G7" s="45">
-        <f t="shared" si="0"/>
-        <v>5.87</v>
+        <f>E7*F7</f>
+        <v>12</v>
       </c>
       <c r="H7" s="36">
         <v>20</v>
       </c>
-      <c r="I7" s="86" t="s">
-        <v>36</v>
+      <c r="I7" s="87" t="s">
+        <v>240</v>
       </c>
       <c r="J7" s="136" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="46"/>
+        <v>238</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="138" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="53">
-        <v>3</v>
+      <c r="B8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="43">
+        <v>24</v>
       </c>
       <c r="E8" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="45">
-        <v>39.5</v>
+        <v>5.45</v>
       </c>
       <c r="G8" s="45">
-        <f t="shared" si="0"/>
-        <v>118.5</v>
+        <f>E8*F8</f>
+        <v>10.9</v>
       </c>
       <c r="H8" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I8" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>15</v>
       </c>
       <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="B9" s="139" t="s">
-        <v>31</v>
+        <v>241</v>
       </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="55">
-        <v>2</v>
+      <c r="D9" s="43">
+        <v>4</v>
       </c>
       <c r="E9" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="45">
-        <v>36.200000000000003</v>
+        <v>6.57</v>
       </c>
       <c r="G9" s="45">
-        <f t="shared" si="0"/>
-        <v>72.400000000000006</v>
+        <f>E9*F9</f>
+        <v>6.57</v>
       </c>
       <c r="H9" s="36">
-        <v>1</v>
-      </c>
-      <c r="I9" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="I9" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="J9" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="B10" s="139" t="s">
-        <v>33</v>
+        <v>243</v>
       </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="55">
-        <v>1</v>
+      <c r="D10" s="43">
+        <v>8</v>
       </c>
       <c r="E10" s="44">
         <v>1</v>
       </c>
       <c r="F10" s="45">
-        <v>34.200000000000003</v>
+        <v>8.91</v>
       </c>
       <c r="G10" s="45">
-        <f t="shared" si="0"/>
-        <v>34.200000000000003</v>
+        <f>E10*F10</f>
+        <v>8.91</v>
       </c>
       <c r="H10" s="36">
-        <v>1</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="I10" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="136" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="50"/>
       <c r="D11" s="43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="44">
         <v>1</v>
       </c>
       <c r="F11" s="45">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="G11" s="45">
-        <f t="shared" si="0"/>
-        <v>4.25</v>
+        <f>E11*F11</f>
+        <v>3</v>
       </c>
       <c r="H11" s="36">
-        <v>1</v>
-      </c>
-      <c r="I11" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>41</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I11" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="60"/>
       <c r="L11" s="46"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50">
-        <v>1</v>
+      <c r="A12" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="27">
+        <v>2</v>
       </c>
       <c r="E12" s="44">
         <v>1</v>
       </c>
       <c r="F12" s="45">
+        <v>5.03</v>
+      </c>
+      <c r="G12" s="45">
+        <f>E12*F12</f>
+        <v>5.03</v>
+      </c>
+      <c r="H12" s="36">
+        <v>10</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="48"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="28">
+        <v>400</v>
+      </c>
+      <c r="D13" s="43">
+        <v>1</v>
+      </c>
+      <c r="E13" s="44">
+        <v>1</v>
+      </c>
+      <c r="F13" s="45">
+        <v>5.73</v>
+      </c>
+      <c r="G13" s="45">
+        <f>E13*F13</f>
+        <v>5.73</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="48"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="72">
+        <v>230</v>
+      </c>
+      <c r="D14" s="72">
         <v>4</v>
       </c>
-      <c r="G12" s="45">
-        <f t="shared" si="0"/>
+      <c r="E14" s="44">
+        <v>2</v>
+      </c>
+      <c r="F14" s="45">
         <v>4</v>
       </c>
-      <c r="H12" s="36">
-        <v>1</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="46"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="50">
-        <v>1</v>
-      </c>
-      <c r="E13" s="44">
-        <v>1</v>
-      </c>
-      <c r="F13" s="45">
-        <v>7</v>
-      </c>
-      <c r="G13" s="45">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H13" s="36">
-        <v>2</v>
-      </c>
-      <c r="I13" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="46"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="45">
-        <v>10</v>
-      </c>
       <c r="G14" s="45">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>E14*F14</f>
+        <v>8</v>
       </c>
       <c r="H14" s="36">
         <v>1</v>
       </c>
-      <c r="I14" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="141" t="s">
-        <v>67</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" s="2"/>
+      <c r="I14" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="136" t="s">
+        <v>166</v>
+      </c>
+      <c r="L14" s="46"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>57</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="44">
         <v>1</v>
       </c>
       <c r="F15" s="45">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G15" s="45">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>E15*F15</f>
+        <v>18</v>
       </c>
       <c r="H15" s="36">
         <v>2</v>
       </c>
       <c r="I15" s="86" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="J15" s="136" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="48"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="27">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51">
+        <v>2</v>
       </c>
       <c r="E16" s="44">
         <v>1</v>
       </c>
       <c r="F16" s="45">
-        <v>2</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="G16" s="45">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>E16*F16</f>
+        <v>8.8800000000000008</v>
       </c>
       <c r="H16" s="36">
-        <v>2</v>
-      </c>
-      <c r="I16" s="86" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="57" t="s">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="I16" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="136" t="s">
+        <v>111</v>
       </c>
       <c r="L16" s="46"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="51"/>
+        <v>163</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="50"/>
       <c r="D17" s="51">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E17" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="45">
-        <v>1.8</v>
+        <v>5.49</v>
       </c>
       <c r="G17" s="45">
-        <f t="shared" si="0"/>
-        <v>1.8</v>
+        <f>E17*F17</f>
+        <v>21.96</v>
       </c>
       <c r="H17" s="36">
-        <v>1</v>
-      </c>
-      <c r="I17" s="86" t="s">
-        <v>55</v>
+        <v>10</v>
+      </c>
+      <c r="I17" s="89" t="s">
+        <v>172</v>
       </c>
       <c r="J17" s="136" t="s">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="L17" s="46"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50">
+        <v>163</v>
+      </c>
+      <c r="B18" s="139" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="55">
+        <v>410</v>
+      </c>
+      <c r="D18" s="55">
         <v>1</v>
       </c>
       <c r="E18" s="44">
         <v>1</v>
       </c>
       <c r="F18" s="45">
-        <v>14.8</v>
+        <v>4.07</v>
       </c>
       <c r="G18" s="45">
-        <f t="shared" si="0"/>
-        <v>14.8</v>
+        <f>E18*F18</f>
+        <v>4.07</v>
       </c>
       <c r="H18" s="36">
         <v>1</v>
       </c>
-      <c r="I18" s="86" t="s">
-        <v>74</v>
+      <c r="I18" s="89" t="s">
+        <v>168</v>
       </c>
       <c r="J18" s="136" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="43">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="50">
+        <v>286</v>
+      </c>
+      <c r="D19" s="51">
+        <v>2</v>
       </c>
       <c r="E19" s="44">
         <v>1</v>
       </c>
       <c r="F19" s="45">
-        <v>78.39</v>
+        <v>18</v>
       </c>
       <c r="G19" s="45">
-        <f t="shared" si="0"/>
-        <v>78.39</v>
+        <f>E19*F19</f>
+        <v>18</v>
       </c>
       <c r="H19" s="36">
-        <v>1</v>
-      </c>
-      <c r="I19" s="86" t="s">
-        <v>52</v>
+        <v>2</v>
+      </c>
+      <c r="I19" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="J19" s="136" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="140" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140">
+        <v>130</v>
+      </c>
+      <c r="B20" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="50">
+        <v>350</v>
+      </c>
+      <c r="D20" s="50">
         <v>1</v>
       </c>
       <c r="E20" s="44">
         <v>1</v>
       </c>
       <c r="F20" s="45">
-        <v>3.95</v>
+        <v>70</v>
       </c>
       <c r="G20" s="45">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
+        <f>E20*F20</f>
+        <v>70</v>
       </c>
       <c r="H20" s="36">
         <v>1</v>
       </c>
-      <c r="I20" s="86" t="s">
-        <v>44</v>
+      <c r="I20" s="88" t="s">
+        <v>132</v>
       </c>
       <c r="J20" s="136" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="L20" s="46"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="140">
-        <v>1</v>
-      </c>
-      <c r="E21" s="44">
-        <v>1</v>
-      </c>
-      <c r="F21" s="45">
-        <v>11.5</v>
-      </c>
-      <c r="G21" s="45">
-        <f t="shared" si="0"/>
-        <v>11.5</v>
-      </c>
-      <c r="H21" s="36">
-        <v>1</v>
-      </c>
-      <c r="I21" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="136" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="46"/>
+      <c r="A21" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63">
+        <v>1</v>
+      </c>
+      <c r="E21" s="64">
+        <v>1</v>
+      </c>
+      <c r="F21" s="65">
+        <v>35</v>
+      </c>
+      <c r="G21" s="65">
+        <f>E21*F21</f>
+        <v>35</v>
+      </c>
+      <c r="H21" s="37">
+        <v>1</v>
+      </c>
+      <c r="I21" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="67"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="139" t="s">
-        <v>68</v>
+      <c r="B22" s="56" t="s">
+        <v>76</v>
       </c>
       <c r="C22" s="50"/>
-      <c r="D22" s="55">
-        <v>3</v>
+      <c r="D22" s="50">
+        <v>1</v>
       </c>
       <c r="E22" s="44">
         <v>1</v>
       </c>
       <c r="F22" s="45">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G22" s="45">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>E22*F22</f>
+        <v>4</v>
       </c>
       <c r="H22" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="J22" s="136" t="s">
+        <v>78</v>
       </c>
       <c r="L22" s="46"/>
     </row>
@@ -6921,124 +6939,125 @@
       <c r="A23" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55">
+      <c r="B23" s="140" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="50">
+        <v>1</v>
+      </c>
+      <c r="E23" s="44">
+        <v>1</v>
+      </c>
+      <c r="F23" s="45">
+        <v>7</v>
+      </c>
+      <c r="G23" s="45">
+        <f>E23*F23</f>
+        <v>7</v>
+      </c>
+      <c r="H23" s="36">
         <v>2</v>
       </c>
-      <c r="E23" s="44">
-        <v>2</v>
-      </c>
-      <c r="F23" s="45">
-        <v>14</v>
-      </c>
-      <c r="G23" s="45">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="H23" s="36">
-        <v>1</v>
-      </c>
       <c r="I23" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="J23" s="54" t="s">
-        <v>70</v>
+        <v>49</v>
+      </c>
+      <c r="J23" s="136" t="s">
+        <v>50</v>
       </c>
       <c r="L23" s="46"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51">
+        <v>1</v>
+      </c>
+      <c r="E24" s="44">
+        <v>1</v>
+      </c>
+      <c r="F24" s="45">
+        <v>40.49</v>
+      </c>
+      <c r="G24" s="45">
+        <f>E24*F24</f>
+        <v>40.49</v>
+      </c>
+      <c r="H24" s="36">
+        <v>1</v>
+      </c>
+      <c r="I24" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="136" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="46"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="137" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50">
-        <v>1</v>
-      </c>
-      <c r="E24" s="44">
-        <v>1</v>
-      </c>
-      <c r="F24" s="45">
-        <v>12.4</v>
-      </c>
-      <c r="G24" s="45">
-        <f t="shared" si="0"/>
-        <v>12.4</v>
-      </c>
-      <c r="H24" s="36">
-        <v>1</v>
-      </c>
-      <c r="I24" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="136" t="s">
-        <v>64</v>
-      </c>
-      <c r="L24" s="46"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="55">
-        <v>5</v>
-      </c>
-      <c r="E25" s="44">
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" s="45">
-        <v>25.99</v>
+        <v>10</v>
       </c>
       <c r="G25" s="45">
-        <f t="shared" si="0"/>
-        <v>25.99</v>
+        <f>E25*F25</f>
+        <v>10</v>
       </c>
       <c r="H25" s="36">
         <v>1</v>
       </c>
-      <c r="I25" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="136" t="s">
-        <v>82</v>
-      </c>
-      <c r="L25" s="46"/>
+      <c r="I25" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C26" s="50"/>
-      <c r="D26" s="43">
-        <v>2</v>
+      <c r="D26" s="55">
+        <v>5</v>
       </c>
       <c r="E26" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" s="45">
-        <v>2</v>
+        <v>25.99</v>
       </c>
       <c r="G26" s="45">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>E26*F26</f>
+        <v>25.99</v>
       </c>
       <c r="H26" s="36">
         <v>1</v>
       </c>
       <c r="I26" s="87" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J26" s="136" t="s">
         <v>82</v>
@@ -7046,31 +7065,31 @@
       <c r="L26" s="46"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="139" t="s">
-        <v>85</v>
+      <c r="B27" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" s="44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="45">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G27" s="45">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>E27*F27</f>
+        <v>4</v>
       </c>
       <c r="H27" s="36">
         <v>1</v>
       </c>
       <c r="I27" s="87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J27" s="136" t="s">
         <v>82</v>
@@ -7078,31 +7097,31 @@
       <c r="L27" s="46"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="55"/>
+      <c r="B28" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="50"/>
       <c r="D28" s="43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E28" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" s="45">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G28" s="45">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>E28*F28</f>
+        <v>48</v>
       </c>
       <c r="H28" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I28" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J28" s="136" t="s">
         <v>82</v>
@@ -7113,28 +7132,28 @@
       <c r="A29" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B29" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="55">
-        <v>4</v>
+      <c r="B29" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="43">
+        <v>6</v>
       </c>
       <c r="E29" s="44">
         <v>1</v>
       </c>
       <c r="F29" s="45">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G29" s="45">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>E29*F29</f>
+        <v>12</v>
       </c>
       <c r="H29" s="36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I29" s="87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J29" s="136" t="s">
         <v>82</v>
@@ -7142,1259 +7161,1262 @@
       <c r="L29" s="46"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="43">
+      <c r="A30" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="55">
         <v>4</v>
       </c>
       <c r="E30" s="44">
         <v>1</v>
       </c>
       <c r="F30" s="45">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G30" s="45">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>E30*F30</f>
+        <v>25</v>
       </c>
       <c r="H30" s="36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I30" s="87" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J30" s="136" t="s">
-        <v>97</v>
-      </c>
-      <c r="K30" s="60"/>
+        <v>82</v>
+      </c>
       <c r="L30" s="46"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>91</v>
+      <c r="A31" s="49" t="s">
+        <v>42</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="43">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="D31" s="27">
+        <v>1</v>
       </c>
       <c r="E31" s="44">
         <v>1</v>
       </c>
       <c r="F31" s="45">
-        <v>9.1999999999999993</v>
+        <v>3</v>
       </c>
       <c r="G31" s="45">
-        <f t="shared" si="0"/>
-        <v>9.1999999999999993</v>
+        <f>E31*F31</f>
+        <v>3</v>
       </c>
       <c r="H31" s="36">
-        <v>6</v>
-      </c>
-      <c r="I31" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="J31" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="K31" s="60"/>
+        <v>2</v>
+      </c>
+      <c r="I31" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="57" t="s">
+        <v>59</v>
+      </c>
       <c r="L31" s="46"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>91</v>
+      <c r="A32" s="49" t="s">
+        <v>42</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="43">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="D32" s="27">
+        <v>1</v>
       </c>
       <c r="E32" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="45">
         <v>2</v>
       </c>
       <c r="G32" s="45">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>E32*F32</f>
+        <v>2</v>
       </c>
       <c r="H32" s="36">
-        <v>5</v>
-      </c>
-      <c r="I32" s="89" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" s="136" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="I32" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="J32" s="57" t="s">
+        <v>59</v>
       </c>
       <c r="L32" s="46"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63">
-        <v>1</v>
-      </c>
-      <c r="E33" s="64">
-        <v>1</v>
-      </c>
-      <c r="F33" s="65">
-        <v>35</v>
-      </c>
-      <c r="G33" s="65">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H33" s="37">
-        <v>1</v>
-      </c>
-      <c r="I33" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="J33" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="K33" s="63"/>
-      <c r="L33" s="67"/>
+      <c r="A33" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51">
+        <v>1</v>
+      </c>
+      <c r="E33" s="44">
+        <v>1</v>
+      </c>
+      <c r="F33" s="45">
+        <v>1.8</v>
+      </c>
+      <c r="G33" s="45">
+        <f>E33*F33</f>
+        <v>1.8</v>
+      </c>
+      <c r="H33" s="36">
+        <v>1</v>
+      </c>
+      <c r="I33" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="L33" s="46"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="137" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51">
+        <v>42</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50">
         <v>1</v>
       </c>
       <c r="E34" s="44">
         <v>1</v>
       </c>
       <c r="F34" s="45">
-        <v>40.49</v>
+        <v>14.8</v>
       </c>
       <c r="G34" s="45">
-        <f t="shared" ref="G34:G65" si="1">E34*F34</f>
-        <v>40.49</v>
+        <f>E34*F34</f>
+        <v>14.8</v>
       </c>
       <c r="H34" s="36">
         <v>1</v>
       </c>
-      <c r="I34" s="87" t="s">
-        <v>103</v>
+      <c r="I34" s="86" t="s">
+        <v>74</v>
       </c>
       <c r="J34" s="136" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="L34" s="46"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="27">
-        <v>96</v>
+        <v>42</v>
+      </c>
+      <c r="B35" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="43">
+        <v>1</v>
       </c>
       <c r="E35" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="45">
-        <v>3</v>
+        <v>78.39</v>
       </c>
       <c r="G35" s="45">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>E35*F35</f>
+        <v>78.39</v>
       </c>
       <c r="H35" s="36">
-        <v>50</v>
-      </c>
-      <c r="I35" s="87" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="I35" s="86" t="s">
+        <v>52</v>
       </c>
       <c r="J35" s="136" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="L35" s="46"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="27">
-        <v>41</v>
+        <v>134</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69">
+        <v>3</v>
       </c>
       <c r="E36" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="45">
-        <v>1</v>
+        <v>2.23</v>
       </c>
       <c r="G36" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E36*F36</f>
+        <v>6.6899999999999995</v>
       </c>
       <c r="H36" s="36">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I36" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="J36" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K36" s="27">
-        <v>934</v>
+        <v>139</v>
+      </c>
+      <c r="J36" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="43">
-        <v>11</v>
+        <v>134</v>
+      </c>
+      <c r="B37" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69">
+        <v>3</v>
       </c>
       <c r="E37" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="45">
-        <v>1</v>
+        <v>2.27</v>
       </c>
       <c r="G37" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E37*F37</f>
+        <v>6.8100000000000005</v>
       </c>
       <c r="H37" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I37" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="43">
-        <v>985</v>
-      </c>
-      <c r="L37" s="48"/>
+        <v>142</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="46"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="27">
-        <v>8</v>
+        <v>134</v>
+      </c>
+      <c r="B38" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51">
+        <v>1</v>
       </c>
       <c r="E38" s="44">
         <v>1</v>
       </c>
       <c r="F38" s="45">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G38" s="45">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>E38*F38</f>
+        <v>10</v>
       </c>
       <c r="H38" s="36">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I38" s="87" t="s">
-        <v>119</v>
-      </c>
-      <c r="J38" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K38" s="43">
-        <v>934</v>
-      </c>
-      <c r="L38" s="48"/>
+        <v>136</v>
+      </c>
+      <c r="J38" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="L38" s="46"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="27">
-        <v>17</v>
+      <c r="A39" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="142" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69">
+        <v>1</v>
       </c>
       <c r="E39" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" s="45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G39" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E39*F39</f>
+        <v>5</v>
       </c>
       <c r="H39" s="36">
-        <v>10</v>
-      </c>
-      <c r="I39" s="87" t="s">
-        <v>121</v>
-      </c>
-      <c r="J39" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K39" s="27">
-        <v>985</v>
-      </c>
-      <c r="L39" s="46">
-        <v>10511</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="J39" s="136" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="46"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="27">
-        <v>185</v>
+      <c r="A40" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="142" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69">
+        <v>1</v>
       </c>
       <c r="E40" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F40" s="45">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G40" s="45">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>E40*F40</f>
+        <v>35</v>
       </c>
       <c r="H40" s="36">
-        <v>50</v>
-      </c>
-      <c r="I40" s="87" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="I40" s="86" t="s">
+        <v>149</v>
       </c>
       <c r="J40" s="136" t="s">
-        <v>111</v>
-      </c>
-      <c r="K40" s="43"/>
-      <c r="L40" s="48"/>
+        <v>150</v>
+      </c>
+      <c r="L40" s="46"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="27">
-        <v>27</v>
+        <v>134</v>
+      </c>
+      <c r="B41" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69">
+        <v>1</v>
       </c>
       <c r="E41" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="45">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G41" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E41*F41</f>
+        <v>40</v>
       </c>
       <c r="H41" s="36">
-        <v>25</v>
-      </c>
-      <c r="I41" s="87" t="s">
-        <v>123</v>
-      </c>
-      <c r="J41" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K41" s="43">
-        <v>934</v>
-      </c>
-      <c r="L41" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="86" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" s="27">
-        <v>13</v>
+        <v>134</v>
+      </c>
+      <c r="B42" s="142" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69">
+        <v>1</v>
       </c>
       <c r="E42" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="45">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G42" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E42*F42</f>
+        <v>30</v>
       </c>
       <c r="H42" s="36">
-        <v>10</v>
-      </c>
-      <c r="I42" s="87" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K42" s="27">
-        <v>985</v>
-      </c>
-      <c r="L42" s="46">
-        <v>10511</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="J42" s="136" t="s">
+        <v>156</v>
+      </c>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="50">
-        <v>286</v>
-      </c>
-      <c r="D43" s="51">
-        <v>2</v>
+        <v>134</v>
+      </c>
+      <c r="B43" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="68"/>
+      <c r="D43" s="69">
+        <v>3</v>
       </c>
       <c r="E43" s="44">
         <v>1</v>
       </c>
       <c r="F43" s="45">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G43" s="45">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>E43*F43</f>
+        <v>5</v>
       </c>
       <c r="H43" s="36">
-        <v>2</v>
-      </c>
-      <c r="I43" s="87" t="s">
-        <v>128</v>
+        <v>5</v>
+      </c>
+      <c r="I43" s="86" t="s">
+        <v>144</v>
       </c>
       <c r="J43" s="136" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="L43" s="46"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="50">
-        <v>350</v>
-      </c>
-      <c r="D44" s="50">
-        <v>1</v>
+        <v>134</v>
+      </c>
+      <c r="B44" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="68"/>
+      <c r="D44" s="69">
+        <v>2</v>
       </c>
       <c r="E44" s="44">
         <v>1</v>
       </c>
       <c r="F44" s="45">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G44" s="45">
-        <f t="shared" si="1"/>
-        <v>70</v>
+        <f>E44*F44</f>
+        <v>5</v>
       </c>
       <c r="H44" s="36">
-        <v>1</v>
-      </c>
-      <c r="I44" s="88" t="s">
-        <v>132</v>
+        <v>3</v>
+      </c>
+      <c r="I44" s="86" t="s">
+        <v>147</v>
       </c>
       <c r="J44" s="136" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="L44" s="46"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B45" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="B45" s="140" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140">
+        <v>1</v>
       </c>
       <c r="E45" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" s="45">
-        <v>2.23</v>
+        <v>3.95</v>
       </c>
       <c r="G45" s="45">
-        <f t="shared" si="1"/>
-        <v>6.6899999999999995</v>
+        <f>E45*F45</f>
+        <v>3.95</v>
       </c>
       <c r="H45" s="36">
         <v>1</v>
       </c>
-      <c r="I45" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="J45" s="47" t="s">
-        <v>140</v>
+      <c r="I45" s="86" t="s">
+        <v>44</v>
+      </c>
+      <c r="J45" s="136" t="s">
+        <v>45</v>
       </c>
       <c r="L45" s="46"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="140">
+        <v>1</v>
       </c>
       <c r="E46" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" s="45">
-        <v>2.27</v>
+        <v>11.5</v>
       </c>
       <c r="G46" s="45">
-        <f t="shared" si="1"/>
-        <v>6.8100000000000005</v>
+        <f>E46*F46</f>
+        <v>11.5</v>
       </c>
       <c r="H46" s="36">
         <v>1</v>
       </c>
-      <c r="I46" s="87" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="47" t="s">
-        <v>140</v>
+      <c r="I46" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="136" t="s">
+        <v>45</v>
       </c>
       <c r="L46" s="46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="27">
+        <v>96</v>
       </c>
       <c r="E47" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" s="45">
+        <v>3</v>
+      </c>
+      <c r="G47" s="45">
+        <f>E47*F47</f>
+        <v>6</v>
+      </c>
+      <c r="H47" s="36">
+        <v>50</v>
+      </c>
+      <c r="I47" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="J47" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="L47" s="46"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="27">
+        <v>41</v>
+      </c>
+      <c r="E48" s="44">
+        <v>2</v>
+      </c>
+      <c r="F48" s="45">
+        <v>1</v>
+      </c>
+      <c r="G48" s="45">
+        <f>E48*F48</f>
+        <v>2</v>
+      </c>
+      <c r="H48" s="36">
+        <v>25</v>
+      </c>
+      <c r="I48" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="J48" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48" s="27">
+        <v>934</v>
+      </c>
+      <c r="L48" s="46"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="43">
+        <v>11</v>
+      </c>
+      <c r="E49" s="44">
+        <v>2</v>
+      </c>
+      <c r="F49" s="45">
+        <v>1</v>
+      </c>
+      <c r="G49" s="45">
+        <f>E49*F49</f>
+        <v>2</v>
+      </c>
+      <c r="H49" s="36">
         <v>10</v>
       </c>
-      <c r="G47" s="45">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H47" s="36">
-        <v>1</v>
-      </c>
-      <c r="I47" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="J47" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="L47" s="46"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="142" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69">
-        <v>1</v>
-      </c>
-      <c r="E48" s="44">
-        <v>1</v>
-      </c>
-      <c r="F48" s="45">
-        <v>5</v>
-      </c>
-      <c r="G48" s="45">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H48" s="36">
-        <v>1</v>
-      </c>
-      <c r="I48" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="J48" s="136" t="s">
-        <v>153</v>
-      </c>
-      <c r="L48" s="46"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69">
-        <v>1</v>
-      </c>
-      <c r="E49" s="44">
-        <v>1</v>
-      </c>
-      <c r="F49" s="45">
-        <v>35</v>
-      </c>
-      <c r="G49" s="45">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="H49" s="36">
-        <v>1</v>
-      </c>
-      <c r="I49" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="J49" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="L49" s="46"/>
+      <c r="I49" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="J49" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="43">
+        <v>985</v>
+      </c>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69">
-        <v>1</v>
+        <v>261</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="52"/>
+      <c r="D50" s="43">
+        <v>82</v>
       </c>
       <c r="E50" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50" s="45">
-        <v>40</v>
+        <v>0.88</v>
       </c>
       <c r="G50" s="45">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>E50*F50</f>
+        <v>1.76</v>
       </c>
       <c r="H50" s="36">
-        <v>1</v>
-      </c>
-      <c r="I50" s="86" t="s">
-        <v>155</v>
-      </c>
-      <c r="J50" s="136" t="s">
-        <v>156</v>
+        <v>50</v>
+      </c>
+      <c r="I50" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="J50" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="27">
+        <v>125</v>
       </c>
       <c r="L50" s="46"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="142" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69">
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="D51" s="27">
+        <v>7</v>
       </c>
       <c r="E51" s="44">
         <v>1</v>
       </c>
       <c r="F51" s="45">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G51" s="45">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>E51*F51</f>
+        <v>2</v>
       </c>
       <c r="H51" s="36">
-        <v>1</v>
-      </c>
-      <c r="I51" s="86" t="s">
-        <v>158</v>
-      </c>
-      <c r="J51" s="136" t="s">
-        <v>156</v>
+        <v>50</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>191</v>
+      </c>
+      <c r="J51" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="27">
+        <v>913</v>
       </c>
       <c r="L51" s="46"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="70" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69">
-        <v>3</v>
+        <v>189</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="52"/>
+      <c r="D52" s="27">
+        <v>18</v>
       </c>
       <c r="E52" s="44">
         <v>1</v>
       </c>
       <c r="F52" s="45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G52" s="45">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>E52*F52</f>
+        <v>2</v>
       </c>
       <c r="H52" s="36">
-        <v>5</v>
-      </c>
-      <c r="I52" s="86" t="s">
-        <v>144</v>
-      </c>
-      <c r="J52" s="136" t="s">
-        <v>145</v>
-      </c>
-      <c r="L52" s="46"/>
+        <v>25</v>
+      </c>
+      <c r="I52" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="J52" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K52" s="43"/>
+      <c r="L52" s="48">
+        <v>7380</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69">
-        <v>2</v>
+      <c r="A53" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="27">
+        <v>16</v>
       </c>
       <c r="E53" s="44">
         <v>1</v>
       </c>
       <c r="F53" s="45">
-        <v>5</v>
+        <v>1.21</v>
       </c>
       <c r="G53" s="45">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f>E53*F53</f>
+        <v>1.21</v>
       </c>
       <c r="H53" s="36">
-        <v>3</v>
-      </c>
-      <c r="I53" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="J53" s="136" t="s">
-        <v>145</v>
+        <v>25</v>
+      </c>
+      <c r="I53" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="J53" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53" s="27">
+        <v>7991</v>
       </c>
       <c r="L53" s="46"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="137" t="s">
-        <v>159</v>
-      </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="71">
+        <v>189</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="52"/>
+      <c r="D54" s="27">
+        <v>112</v>
+      </c>
+      <c r="E54" s="44">
+        <v>3</v>
+      </c>
+      <c r="F54" s="45">
         <v>2</v>
       </c>
-      <c r="E54" s="44">
+      <c r="G54" s="45">
+        <f>E54*F54</f>
+        <v>6</v>
+      </c>
+      <c r="H54" s="36">
+        <v>50</v>
+      </c>
+      <c r="I54" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="J54" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K54" s="27">
+        <v>912</v>
+      </c>
+      <c r="L54" s="46"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C55" s="52"/>
+      <c r="D55" s="27">
+        <v>45</v>
+      </c>
+      <c r="E55" s="44">
+        <v>5</v>
+      </c>
+      <c r="F55" s="45">
         <v>2</v>
       </c>
-      <c r="F54" s="45">
-        <v>3.49</v>
-      </c>
-      <c r="G54" s="45">
-        <f t="shared" si="1"/>
-        <v>6.98</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="I54" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="J54" s="136" t="s">
-        <v>162</v>
-      </c>
-      <c r="L54" s="46"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="C55" s="72">
-        <v>230</v>
-      </c>
-      <c r="D55" s="72">
-        <v>4</v>
-      </c>
-      <c r="E55" s="44">
+      <c r="G55" s="45">
+        <f>E55*F55</f>
+        <v>10</v>
+      </c>
+      <c r="H55" s="36">
+        <v>50</v>
+      </c>
+      <c r="I55" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="J55" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K55" s="43">
+        <v>912</v>
+      </c>
+      <c r="L55" s="48"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C56" s="50"/>
+      <c r="D56" s="27">
+        <v>12</v>
+      </c>
+      <c r="E56" s="44">
+        <v>1</v>
+      </c>
+      <c r="F56" s="45">
         <v>2</v>
       </c>
-      <c r="F55" s="45">
-        <v>4</v>
-      </c>
-      <c r="G55" s="45">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H55" s="36">
-        <v>1</v>
-      </c>
-      <c r="I55" s="89" t="s">
-        <v>165</v>
-      </c>
-      <c r="J55" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="L55" s="46"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="51">
+      <c r="G56" s="45">
+        <f>E56*F56</f>
         <v>2</v>
       </c>
-      <c r="E56" s="44">
-        <v>1</v>
-      </c>
-      <c r="F56" s="45">
-        <v>8.8800000000000008</v>
-      </c>
-      <c r="G56" s="45">
-        <f t="shared" si="1"/>
-        <v>8.8800000000000008</v>
-      </c>
       <c r="H56" s="36">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="I56" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="J56" s="136" t="s">
-        <v>111</v>
+        <v>200</v>
+      </c>
+      <c r="J56" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K56" s="27">
+        <v>912</v>
       </c>
       <c r="L56" s="46"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="51">
-        <v>34</v>
+      <c r="A57" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="27">
+        <v>7</v>
       </c>
       <c r="E57" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57" s="45">
-        <v>5.49</v>
+        <v>2.27</v>
       </c>
       <c r="G57" s="45">
-        <f t="shared" si="1"/>
-        <v>21.96</v>
+        <f>E57*F57</f>
+        <v>2.27</v>
       </c>
       <c r="H57" s="36">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I57" s="89" t="s">
-        <v>172</v>
-      </c>
-      <c r="J57" s="136" t="s">
-        <v>173</v>
-      </c>
-      <c r="L57" s="46"/>
+        <v>202</v>
+      </c>
+      <c r="J57" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K57" s="27">
+        <v>912</v>
+      </c>
+      <c r="L57" s="46">
+        <v>7380</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="139" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="55">
-        <v>410</v>
-      </c>
-      <c r="D58" s="55">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="27">
+        <v>8</v>
       </c>
       <c r="E58" s="44">
         <v>1</v>
       </c>
       <c r="F58" s="45">
-        <v>4.07</v>
+        <v>1</v>
       </c>
       <c r="G58" s="45">
-        <f t="shared" si="1"/>
-        <v>4.07</v>
+        <f>E58*F58</f>
+        <v>1</v>
       </c>
       <c r="H58" s="36">
-        <v>1</v>
-      </c>
-      <c r="I58" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="J58" s="136" t="s">
-        <v>166</v>
-      </c>
-      <c r="L58" s="46"/>
+        <v>25</v>
+      </c>
+      <c r="I58" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="J58" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K58" s="43">
+        <v>934</v>
+      </c>
+      <c r="L58" s="48"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C59" s="73">
-        <v>420</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="28"/>
       <c r="D59" s="27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E59" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" s="45">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G59" s="45">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>E59*F59</f>
+        <v>2</v>
       </c>
       <c r="H59" s="36">
-        <v>1</v>
-      </c>
-      <c r="I59" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="J59" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="L59" s="46"/>
+        <v>10</v>
+      </c>
+      <c r="I59" s="87" t="s">
+        <v>121</v>
+      </c>
+      <c r="J59" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K59" s="27">
+        <v>985</v>
+      </c>
+      <c r="L59" s="46">
+        <v>10511</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" s="73">
-        <v>368</v>
+        <v>261</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>264</v>
       </c>
       <c r="D60" s="27">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E60" s="44">
         <v>1</v>
       </c>
       <c r="F60" s="45">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G60" s="45">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f>E60*F60</f>
+        <v>2</v>
       </c>
       <c r="H60" s="36">
-        <v>1</v>
-      </c>
-      <c r="I60" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="J60" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="L60" s="46"/>
+        <v>50</v>
+      </c>
+      <c r="I60" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K60" s="43">
+        <v>25</v>
+      </c>
+      <c r="L60" s="48"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="73">
-        <v>172</v>
-      </c>
-      <c r="D61" s="27">
-        <v>1</v>
+      <c r="A61" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51">
+        <v>3</v>
       </c>
       <c r="E61" s="44">
         <v>1</v>
       </c>
       <c r="F61" s="45">
-        <v>9</v>
+        <v>5.87</v>
       </c>
       <c r="G61" s="45">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>E61*F61</f>
+        <v>5.87</v>
       </c>
       <c r="H61" s="36">
-        <v>1</v>
-      </c>
-      <c r="I61" s="89" t="s">
-        <v>181</v>
+        <v>20</v>
+      </c>
+      <c r="I61" s="86" t="s">
+        <v>36</v>
       </c>
       <c r="J61" s="136" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="L61" s="46"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" s="73">
-        <v>420</v>
-      </c>
+      <c r="A62" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C62" s="50"/>
       <c r="D62" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" s="45">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="G62" s="45">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>E62*F62</f>
+        <v>1.2</v>
       </c>
       <c r="H62" s="36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I62" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="J62" s="136" t="s">
-        <v>177</v>
+        <v>204</v>
+      </c>
+      <c r="J62" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K62" s="27">
+        <v>912</v>
       </c>
       <c r="L62" s="46"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C63" s="73">
-        <v>480</v>
-      </c>
+      <c r="A63" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C63" s="28"/>
       <c r="D63" s="27">
-        <v>4</v>
-      </c>
-      <c r="E63" s="44">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E63" s="44"/>
       <c r="F63" s="45">
-        <v>16</v>
+        <v>0.62</v>
       </c>
       <c r="G63" s="45">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f>E63*F63</f>
+        <v>0</v>
       </c>
       <c r="H63" s="36">
         <v>1</v>
       </c>
       <c r="I63" s="89" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="J63" s="136" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="L63" s="46"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="49" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C64" s="73">
-        <v>750</v>
+        <v>207</v>
       </c>
       <c r="D64" s="27">
         <v>4</v>
       </c>
       <c r="E64" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64" s="45">
-        <v>40</v>
+        <v>1.74</v>
       </c>
       <c r="G64" s="45">
-        <f t="shared" si="1"/>
-        <v>160</v>
+        <f>E64*F64</f>
+        <v>1.74</v>
       </c>
       <c r="H64" s="36">
-        <v>1</v>
-      </c>
-      <c r="I64" s="89" t="s">
-        <v>188</v>
-      </c>
-      <c r="J64" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="L64" s="46"/>
+        <v>20</v>
+      </c>
+      <c r="I64" s="90" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="K64" s="43">
+        <v>7991</v>
+      </c>
+      <c r="L64" s="48">
+        <v>10642</v>
+      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="28" t="s">
-        <v>190</v>
-      </c>
+      <c r="B65" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="50"/>
       <c r="D65" s="27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E65" s="44">
         <v>1</v>
       </c>
       <c r="F65" s="45">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="G65" s="45">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E65*F65</f>
+        <v>1.82</v>
       </c>
       <c r="H65" s="36">
-        <v>50</v>
-      </c>
-      <c r="I65" s="87" t="s">
-        <v>191</v>
+        <v>20</v>
+      </c>
+      <c r="I65" s="90" t="s">
+        <v>210</v>
       </c>
       <c r="J65" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K65" s="27">
-        <v>913</v>
-      </c>
-      <c r="L65" s="46"/>
+      <c r="K65" s="43">
+        <v>7991</v>
+      </c>
+      <c r="L65" s="48"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B66" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="52"/>
+      <c r="B66" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="50"/>
       <c r="D66" s="27">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E66" s="44">
         <v>1</v>
       </c>
       <c r="F66" s="45">
-        <v>2</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G66" s="45">
-        <f t="shared" ref="G66:G97" si="2">E66*F66</f>
-        <v>2</v>
+        <f>E66*F66</f>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H66" s="36">
-        <v>25</v>
-      </c>
-      <c r="I66" s="89" t="s">
-        <v>193</v>
+        <v>10</v>
+      </c>
+      <c r="I66" s="90" t="s">
+        <v>212</v>
       </c>
       <c r="J66" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K66" s="43"/>
-      <c r="L66" s="48">
-        <v>7380</v>
-      </c>
+      <c r="K66" s="43">
+        <v>933</v>
+      </c>
+      <c r="L66" s="48"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
+      <c r="A67" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B67" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67" s="28"/>
+      <c r="B67" s="75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C67" s="75"/>
       <c r="D67" s="27">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E67" s="44">
         <v>1</v>
       </c>
       <c r="F67" s="45">
-        <v>1.21</v>
+        <v>3</v>
       </c>
       <c r="G67" s="45">
-        <f t="shared" si="2"/>
-        <v>1.21</v>
+        <f>E67*F67</f>
+        <v>3</v>
       </c>
       <c r="H67" s="36">
-        <v>25</v>
-      </c>
-      <c r="I67" s="89" t="s">
-        <v>193</v>
+        <v>20</v>
+      </c>
+      <c r="I67" s="90" t="s">
+        <v>214</v>
       </c>
       <c r="J67" s="57" t="s">
         <v>100</v>
@@ -8402,249 +8424,245 @@
       <c r="K67" s="27">
         <v>7991</v>
       </c>
-      <c r="L67" s="46"/>
+      <c r="L67" s="46">
+        <v>10642</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="52"/>
+      <c r="B68" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="D68" s="27">
+        <v>4</v>
+      </c>
+      <c r="E68" s="44">
+        <v>1</v>
+      </c>
+      <c r="F68" s="45">
+        <v>5</v>
+      </c>
+      <c r="G68" s="45">
+        <f>E68*F68</f>
+        <v>5</v>
+      </c>
+      <c r="H68" s="36">
+        <v>5</v>
+      </c>
+      <c r="I68" s="90" t="s">
+        <v>216</v>
+      </c>
+      <c r="J68" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="L68" s="46"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E68" s="44">
+      <c r="D69" s="27">
+        <v>185</v>
+      </c>
+      <c r="E69" s="44">
+        <v>4</v>
+      </c>
+      <c r="F69" s="45">
         <v>3</v>
       </c>
-      <c r="F68" s="45">
-        <v>2</v>
-      </c>
-      <c r="G68" s="45">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H68" s="36">
-        <v>50</v>
-      </c>
-      <c r="I68" s="89" t="s">
-        <v>196</v>
-      </c>
-      <c r="J68" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K68" s="27">
-        <v>912</v>
-      </c>
-      <c r="L68" s="46"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" s="52"/>
-      <c r="D69" s="27">
-        <v>45</v>
-      </c>
-      <c r="E69" s="44">
-        <v>5</v>
-      </c>
-      <c r="F69" s="45">
-        <v>2</v>
-      </c>
       <c r="G69" s="45">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>E69*F69</f>
+        <v>12</v>
       </c>
       <c r="H69" s="36">
         <v>50</v>
       </c>
-      <c r="I69" s="89" t="s">
-        <v>198</v>
-      </c>
-      <c r="J69" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K69" s="43">
-        <v>912</v>
-      </c>
+      <c r="I69" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="J69" s="136" t="s">
+        <v>111</v>
+      </c>
+      <c r="K69" s="43"/>
       <c r="L69" s="48"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="50"/>
+      <c r="A70" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="52"/>
       <c r="D70" s="27">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E70" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="45">
+        <v>1</v>
+      </c>
+      <c r="G70" s="45">
+        <f>E70*F70</f>
         <v>2</v>
       </c>
-      <c r="G70" s="45">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
       <c r="H70" s="36">
-        <v>50</v>
-      </c>
-      <c r="I70" s="89" t="s">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="I70" s="87" t="s">
+        <v>123</v>
       </c>
       <c r="J70" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K70" s="27">
-        <v>912</v>
-      </c>
-      <c r="L70" s="46"/>
+      <c r="K70" s="43">
+        <v>934</v>
+      </c>
+      <c r="L70" s="48"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C71" s="28"/>
+      <c r="A71" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>124</v>
+      </c>
       <c r="D71" s="27">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E71" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="45">
-        <v>2.27</v>
+        <v>1</v>
       </c>
       <c r="G71" s="45">
-        <f t="shared" si="2"/>
-        <v>2.27</v>
+        <f>E71*F71</f>
+        <v>2</v>
       </c>
       <c r="H71" s="36">
-        <v>50</v>
-      </c>
-      <c r="I71" s="89" t="s">
-        <v>202</v>
+        <v>10</v>
+      </c>
+      <c r="I71" s="87" t="s">
+        <v>125</v>
       </c>
       <c r="J71" s="57" t="s">
         <v>100</v>
       </c>
       <c r="K71" s="27">
-        <v>912</v>
+        <v>985</v>
       </c>
       <c r="L71" s="46">
-        <v>7380</v>
+        <v>10511</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="50"/>
+        <v>261</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="C72" s="52"/>
       <c r="D72" s="27">
-        <v>3</v>
+        <v>168</v>
       </c>
       <c r="E72" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F72" s="45">
-        <v>1.2</v>
+        <v>1.79</v>
       </c>
       <c r="G72" s="45">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
+        <f>E72*F72</f>
+        <v>7.16</v>
       </c>
       <c r="H72" s="36">
-        <v>20</v>
-      </c>
-      <c r="I72" s="89" t="s">
-        <v>204</v>
+        <v>50</v>
+      </c>
+      <c r="I72" s="87" t="s">
+        <v>267</v>
       </c>
       <c r="J72" s="57" t="s">
         <v>100</v>
       </c>
       <c r="K72" s="27">
-        <v>912</v>
+        <v>125</v>
       </c>
       <c r="L72" s="46"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="27">
-        <v>6</v>
-      </c>
-      <c r="E73" s="44"/>
+      <c r="A73" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B73" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="50"/>
+      <c r="D73" s="71">
+        <v>2</v>
+      </c>
+      <c r="E73" s="44">
+        <v>2</v>
+      </c>
       <c r="F73" s="45">
-        <v>0.62</v>
+        <v>3.49</v>
       </c>
       <c r="G73" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="36">
-        <v>1</v>
-      </c>
-      <c r="I73" s="89" t="s">
-        <v>206</v>
+        <f>E73*F73</f>
+        <v>6.98</v>
+      </c>
+      <c r="H73" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I73" s="87" t="s">
+        <v>161</v>
       </c>
       <c r="J73" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="L73" s="46"/>
+    </row>
+    <row r="74" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="43">
+        <v>30</v>
+      </c>
+      <c r="E74" s="44">
+        <v>1</v>
+      </c>
+      <c r="F74" s="45">
+        <v>3.26</v>
+      </c>
+      <c r="G74" s="45">
+        <f>E74*F74</f>
+        <v>3.26</v>
+      </c>
+      <c r="H74" s="36">
+        <v>50</v>
+      </c>
+      <c r="I74" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="J74" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="L73" s="46"/>
-    </row>
-    <row r="74" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27">
-        <v>4</v>
-      </c>
-      <c r="E74" s="44">
-        <v>1</v>
-      </c>
-      <c r="F74" s="45">
-        <v>1.74</v>
-      </c>
-      <c r="G74" s="45">
-        <f t="shared" si="2"/>
-        <v>1.74</v>
-      </c>
-      <c r="H74" s="36">
-        <v>20</v>
-      </c>
-      <c r="I74" s="90" t="s">
-        <v>208</v>
-      </c>
-      <c r="J74" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K74" s="43">
-        <v>7991</v>
-      </c>
-      <c r="L74" s="48">
+      <c r="K74" s="27">
+        <v>988</v>
+      </c>
+      <c r="L74" s="46">
         <v>10642</v>
       </c>
     </row>
@@ -8652,80 +8670,80 @@
       <c r="A75" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B75" s="138" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="50"/>
+      <c r="B75" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" s="52"/>
       <c r="D75" s="27">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="E75" s="44">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F75" s="45">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="G75" s="45">
-        <f t="shared" si="2"/>
-        <v>1.82</v>
+        <f>E75*F75</f>
+        <v>32</v>
       </c>
       <c r="H75" s="36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I75" s="90" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="J75" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K75" s="43">
-        <v>7991</v>
-      </c>
-      <c r="L75" s="48"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="46">
+        <v>7380</v>
+      </c>
     </row>
     <row r="76" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B76" s="27" t="s">
-        <v>211</v>
+      <c r="B76" s="52" t="s">
+        <v>219</v>
       </c>
       <c r="C76" s="50"/>
       <c r="D76" s="27">
+        <v>3</v>
+      </c>
+      <c r="E76" s="44">
+        <v>1</v>
+      </c>
+      <c r="F76" s="45">
         <v>2</v>
       </c>
-      <c r="E76" s="44">
-        <v>1</v>
-      </c>
-      <c r="F76" s="45">
-        <v>2.5299999999999998</v>
-      </c>
       <c r="G76" s="45">
-        <f t="shared" si="2"/>
-        <v>2.5299999999999998</v>
+        <f>E76*F76</f>
+        <v>2</v>
       </c>
       <c r="H76" s="36">
         <v>10</v>
       </c>
       <c r="I76" s="90" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J76" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K76" s="43">
-        <v>933</v>
-      </c>
-      <c r="L76" s="48"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="48">
+        <v>7380</v>
+      </c>
     </row>
     <row r="77" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B77" s="75" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" s="75"/>
+      <c r="B77" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="52"/>
       <c r="D77" s="27">
         <v>4</v>
       </c>
@@ -8733,87 +8751,89 @@
         <v>1</v>
       </c>
       <c r="F77" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="45">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>E77*F77</f>
+        <v>2</v>
       </c>
       <c r="H77" s="36">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I77" s="90" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="J77" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K77" s="27">
-        <v>7991</v>
-      </c>
-      <c r="L77" s="46">
-        <v>10642</v>
+      <c r="K77" s="43">
+        <v>912</v>
+      </c>
+      <c r="L77" s="48">
+        <v>7380</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27">
-        <v>4</v>
+      <c r="B78" s="139" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="50"/>
+      <c r="D78" s="55">
+        <v>3</v>
       </c>
       <c r="E78" s="44">
         <v>1</v>
       </c>
       <c r="F78" s="45">
-        <v>5</v>
+        <v>2.61</v>
       </c>
       <c r="G78" s="45">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>E78*F78</f>
+        <v>2.61</v>
       </c>
       <c r="H78" s="36">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I78" s="90" t="s">
-        <v>216</v>
-      </c>
-      <c r="J78" s="76" t="s">
+        <v>224</v>
+      </c>
+      <c r="J78" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K78" s="27"/>
+      <c r="K78" s="27">
+        <v>933</v>
+      </c>
       <c r="L78" s="46"/>
     </row>
     <row r="79" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="52"/>
-      <c r="D79" s="27">
-        <v>155</v>
+      <c r="B79" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="C79" s="50"/>
+      <c r="D79" s="55">
+        <v>4</v>
       </c>
       <c r="E79" s="44">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F79" s="45">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="G79" s="45">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f>E79*F79</f>
+        <v>2.17</v>
       </c>
       <c r="H79" s="36">
         <v>10</v>
       </c>
       <c r="I79" s="90" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J79" s="57" t="s">
         <v>100</v>
@@ -8827,100 +8847,98 @@
       <c r="A80" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="C80" s="50"/>
-      <c r="D80" s="27">
-        <v>3</v>
+      <c r="B80" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="55"/>
+      <c r="D80" s="55">
+        <v>2</v>
       </c>
       <c r="E80" s="44">
         <v>1</v>
       </c>
       <c r="F80" s="45">
-        <v>2</v>
+        <v>2.92</v>
       </c>
       <c r="G80" s="45">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>E80*F80</f>
+        <v>2.92</v>
       </c>
       <c r="H80" s="36">
         <v>10</v>
       </c>
       <c r="I80" s="90" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="J80" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K80" s="43"/>
-      <c r="L80" s="48">
-        <v>7380</v>
-      </c>
+      <c r="K80" s="27">
+        <v>933</v>
+      </c>
+      <c r="L80" s="46"/>
     </row>
     <row r="81" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="C81" s="52"/>
-      <c r="D81" s="27">
-        <v>4</v>
+      <c r="B81" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C81" s="55"/>
+      <c r="D81" s="55">
+        <v>44</v>
       </c>
       <c r="E81" s="44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F81" s="45">
-        <v>2</v>
+        <v>3.41</v>
       </c>
       <c r="G81" s="45">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>E81*F81</f>
+        <v>17.05</v>
       </c>
       <c r="H81" s="36">
         <v>10</v>
       </c>
       <c r="I81" s="90" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="J81" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K81" s="43">
-        <v>912</v>
-      </c>
-      <c r="L81" s="48">
-        <v>7380</v>
-      </c>
+      <c r="K81" s="27">
+        <v>933</v>
+      </c>
+      <c r="L81" s="46"/>
     </row>
     <row r="82" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="B82" s="139" t="s">
-        <v>223</v>
-      </c>
-      <c r="C82" s="50"/>
+      <c r="B82" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="55"/>
       <c r="D82" s="55">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E82" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="45">
-        <v>2.61</v>
+        <v>3.57</v>
       </c>
       <c r="G82" s="45">
-        <f t="shared" si="2"/>
-        <v>2.61</v>
+        <f>E82*F82</f>
+        <v>7.14</v>
       </c>
       <c r="H82" s="36">
         <v>10</v>
       </c>
       <c r="I82" s="90" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="J82" s="57" t="s">
         <v>100</v>
@@ -8931,625 +8949,617 @@
       <c r="L82" s="46"/>
     </row>
     <row r="83" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="27" t="s">
-        <v>225</v>
+      <c r="B83" s="75" t="s">
+        <v>233</v>
       </c>
       <c r="C83" s="50"/>
-      <c r="D83" s="55">
-        <v>4</v>
+      <c r="D83" s="27">
+        <v>6</v>
       </c>
       <c r="E83" s="44">
         <v>1</v>
       </c>
       <c r="F83" s="45">
-        <v>2.17</v>
+        <v>1.64</v>
       </c>
       <c r="G83" s="45">
-        <f t="shared" si="2"/>
-        <v>2.17</v>
+        <f>E83*F83</f>
+        <v>1.64</v>
       </c>
       <c r="H83" s="36">
         <v>10</v>
       </c>
       <c r="I83" s="90" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="J83" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K83" s="27"/>
-      <c r="L83" s="46">
+      <c r="K83" s="43"/>
+      <c r="L83" s="48">
         <v>7380</v>
       </c>
     </row>
     <row r="84" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B84" s="139" t="s">
-        <v>227</v>
-      </c>
-      <c r="C84" s="55"/>
-      <c r="D84" s="55">
+      <c r="A84" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="43">
+        <v>36</v>
+      </c>
+      <c r="E84" s="44">
+        <v>1</v>
+      </c>
+      <c r="F84" s="45">
+        <v>3</v>
+      </c>
+      <c r="G84" s="45">
+        <f>E84*F84</f>
+        <v>3</v>
+      </c>
+      <c r="H84" s="36">
+        <v>50</v>
+      </c>
+      <c r="I84" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="J84" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K84" s="27">
+        <v>988</v>
+      </c>
+      <c r="L84" s="46">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" s="28"/>
+      <c r="D85" s="43">
         <v>2</v>
       </c>
-      <c r="E84" s="44">
-        <v>1</v>
-      </c>
-      <c r="F84" s="45">
-        <v>2.92</v>
-      </c>
-      <c r="G84" s="45">
-        <f t="shared" si="2"/>
-        <v>2.92</v>
-      </c>
-      <c r="H84" s="36">
-        <v>10</v>
-      </c>
-      <c r="I84" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="J84" s="57" t="s">
+      <c r="E85" s="44">
+        <v>1</v>
+      </c>
+      <c r="F85" s="45">
+        <v>3.75</v>
+      </c>
+      <c r="G85" s="45">
+        <f>E85*F85</f>
+        <v>3.75</v>
+      </c>
+      <c r="H85" s="36">
+        <v>50</v>
+      </c>
+      <c r="I85" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="J85" s="47" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="27">
-        <v>933</v>
-      </c>
-      <c r="L84" s="46"/>
-    </row>
-    <row r="85" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B85" s="55" t="s">
-        <v>229</v>
-      </c>
-      <c r="C85" s="55"/>
-      <c r="D85" s="55">
-        <v>44</v>
-      </c>
-      <c r="E85" s="44">
-        <v>5</v>
-      </c>
-      <c r="F85" s="45">
-        <v>3.41</v>
-      </c>
-      <c r="G85" s="45">
-        <f t="shared" si="2"/>
-        <v>17.05</v>
-      </c>
-      <c r="H85" s="36">
-        <v>10</v>
-      </c>
-      <c r="I85" s="90" t="s">
-        <v>230</v>
-      </c>
-      <c r="J85" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K85" s="27">
-        <v>933</v>
+      <c r="K85" s="60">
+        <v>988</v>
       </c>
       <c r="L85" s="46"/>
     </row>
     <row r="86" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="C86" s="55"/>
-      <c r="D86" s="55">
-        <v>16</v>
+      <c r="A86" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="51"/>
+      <c r="D86" s="43">
+        <v>4</v>
       </c>
       <c r="E86" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F86" s="45">
-        <v>3.57</v>
+        <v>9</v>
       </c>
       <c r="G86" s="45">
-        <f t="shared" si="2"/>
-        <v>7.14</v>
+        <f>E86*F86</f>
+        <v>9</v>
       </c>
       <c r="H86" s="36">
         <v>10</v>
       </c>
-      <c r="I86" s="90" t="s">
-        <v>232</v>
-      </c>
-      <c r="J86" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K86" s="27">
-        <v>933</v>
-      </c>
+      <c r="I86" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="J86" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="K86" s="60"/>
       <c r="L86" s="46"/>
     </row>
     <row r="87" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="B87" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="50"/>
-      <c r="D87" s="27">
+        <v>91</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C87" s="27"/>
+      <c r="D87" s="43">
         <v>6</v>
       </c>
       <c r="E87" s="44">
         <v>1</v>
       </c>
       <c r="F87" s="45">
-        <v>1.64</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G87" s="45">
-        <f t="shared" si="2"/>
-        <v>1.64</v>
+        <f>E87*F87</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="H87" s="36">
-        <v>10</v>
-      </c>
-      <c r="I87" s="90" t="s">
-        <v>234</v>
-      </c>
-      <c r="J87" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K87" s="43"/>
-      <c r="L87" s="48">
-        <v>7380</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I87" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="J87" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="K87" s="60"/>
+      <c r="L87" s="46"/>
     </row>
     <row r="88" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>245</v>
+        <v>91</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="C88" s="27"/>
       <c r="D88" s="43">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E88" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F88" s="45">
-        <v>1.64</v>
+        <v>2</v>
       </c>
       <c r="G88" s="45">
-        <f t="shared" si="2"/>
-        <v>1.64</v>
+        <f>E88*F88</f>
+        <v>4</v>
       </c>
       <c r="H88" s="36">
-        <v>10</v>
-      </c>
-      <c r="I88" s="86" t="s">
-        <v>246</v>
-      </c>
-      <c r="J88" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="89" t="s">
+        <v>99</v>
+      </c>
+      <c r="J88" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="K88" s="43"/>
-      <c r="L88" s="48"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="46"/>
     </row>
     <row r="89" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B89" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="C89" s="55"/>
-      <c r="D89" s="43">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B89" s="138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="50"/>
+      <c r="D89" s="53">
+        <v>3</v>
       </c>
       <c r="E89" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" s="45">
-        <v>11</v>
+        <v>39.5</v>
       </c>
       <c r="G89" s="45">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>E89*F89</f>
+        <v>118.5</v>
       </c>
       <c r="H89" s="36">
-        <v>20</v>
-      </c>
-      <c r="I89" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="J89" s="136" t="s">
-        <v>238</v>
-      </c>
-      <c r="K89" s="43"/>
-      <c r="L89" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J89" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K89" s="27"/>
+      <c r="L89" s="46"/>
     </row>
     <row r="90" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="49" t="s">
-        <v>235</v>
+      <c r="A90" s="42" t="s">
+        <v>22</v>
       </c>
       <c r="B90" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="C90" s="50"/>
-      <c r="D90" s="43">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55">
+        <v>2</v>
       </c>
       <c r="E90" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F90" s="45">
-        <v>12</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="G90" s="45">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>E90*F90</f>
+        <v>72.400000000000006</v>
       </c>
       <c r="H90" s="36">
-        <v>20</v>
-      </c>
-      <c r="I90" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="J90" s="136" t="s">
-        <v>238</v>
-      </c>
-      <c r="K90" s="43"/>
-      <c r="L90" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90" s="27"/>
+      <c r="L90" s="46"/>
     </row>
     <row r="91" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="B91" s="139" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="C91" s="55"/>
-      <c r="D91" s="43">
+      <c r="D91" s="55">
+        <v>1</v>
+      </c>
+      <c r="E91" s="44">
+        <v>1</v>
+      </c>
+      <c r="F91" s="45">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G91" s="45">
+        <f>E91*F91</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="H91" s="36">
+        <v>1</v>
+      </c>
+      <c r="I91" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="J91" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="K91" s="27"/>
+      <c r="L91" s="46"/>
+    </row>
+    <row r="92" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="C92" s="50"/>
+      <c r="D92" s="55">
+        <v>3</v>
+      </c>
+      <c r="E92" s="44">
+        <v>1</v>
+      </c>
+      <c r="F92" s="45">
+        <v>25</v>
+      </c>
+      <c r="G92" s="45">
+        <f>E92*F92</f>
+        <v>25</v>
+      </c>
+      <c r="H92" s="36">
+        <v>3</v>
+      </c>
+      <c r="I92" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="J92" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K92" s="27"/>
+      <c r="L92" s="46"/>
+    </row>
+    <row r="93" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C93" s="55"/>
+      <c r="D93" s="55">
+        <v>2</v>
+      </c>
+      <c r="E93" s="44">
+        <v>2</v>
+      </c>
+      <c r="F93" s="45">
+        <v>14</v>
+      </c>
+      <c r="G93" s="45">
+        <f>E93*F93</f>
+        <v>28</v>
+      </c>
+      <c r="H93" s="36">
+        <v>1</v>
+      </c>
+      <c r="I93" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J93" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="K93" s="27"/>
+      <c r="L93" s="46"/>
+    </row>
+    <row r="94" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="137" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50">
+        <v>1</v>
+      </c>
+      <c r="E94" s="44">
+        <v>1</v>
+      </c>
+      <c r="F94" s="45">
+        <v>12.4</v>
+      </c>
+      <c r="G94" s="45">
+        <f>E94*F94</f>
+        <v>12.4</v>
+      </c>
+      <c r="H94" s="36">
+        <v>1</v>
+      </c>
+      <c r="I94" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="J94" s="136" t="s">
+        <v>64</v>
+      </c>
+      <c r="K94" s="27"/>
+      <c r="L94" s="46"/>
+    </row>
+    <row r="95" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="73">
+        <v>420</v>
+      </c>
+      <c r="D95" s="27">
         <v>4</v>
       </c>
-      <c r="E91" s="44">
-        <v>1</v>
-      </c>
-      <c r="F91" s="45">
-        <v>6.57</v>
-      </c>
-      <c r="G91" s="45">
-        <f t="shared" si="2"/>
-        <v>6.57</v>
-      </c>
-      <c r="H91" s="36">
-        <v>20</v>
-      </c>
-      <c r="I91" s="87" t="s">
-        <v>242</v>
-      </c>
-      <c r="J91" s="136" t="s">
-        <v>238</v>
-      </c>
-      <c r="K91" s="43"/>
-      <c r="L91" s="48"/>
-    </row>
-    <row r="92" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B92" s="139" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="43">
-        <v>8</v>
-      </c>
-      <c r="E92" s="44">
-        <v>1</v>
-      </c>
-      <c r="F92" s="45">
-        <v>8.91</v>
-      </c>
-      <c r="G92" s="45">
-        <f t="shared" si="2"/>
-        <v>8.91</v>
-      </c>
-      <c r="H92" s="36">
-        <v>20</v>
-      </c>
-      <c r="I92" s="87" t="s">
-        <v>244</v>
-      </c>
-      <c r="J92" s="136" t="s">
-        <v>238</v>
-      </c>
-      <c r="K92" s="43"/>
-      <c r="L92" s="48"/>
-    </row>
-    <row r="93" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="42" t="s">
-        <v>235</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="C93" s="28">
-        <v>400</v>
-      </c>
-      <c r="D93" s="43">
-        <v>1</v>
-      </c>
-      <c r="E93" s="44">
-        <v>1</v>
-      </c>
-      <c r="F93" s="45">
-        <v>5.73</v>
-      </c>
-      <c r="G93" s="45">
-        <f t="shared" si="2"/>
-        <v>5.73</v>
-      </c>
-      <c r="H93" s="36">
-        <v>1</v>
-      </c>
-      <c r="I93" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="J93" s="136" t="s">
-        <v>249</v>
-      </c>
-      <c r="K93" s="43"/>
-      <c r="L93" s="48"/>
-    </row>
-    <row r="94" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="B94" s="52" t="s">
-        <v>251</v>
-      </c>
-      <c r="C94" s="52"/>
-      <c r="D94" s="43">
-        <v>30</v>
-      </c>
-      <c r="E94" s="44">
-        <v>1</v>
-      </c>
-      <c r="F94" s="45">
-        <v>3.26</v>
-      </c>
-      <c r="G94" s="45">
-        <f t="shared" si="2"/>
-        <v>3.26</v>
-      </c>
-      <c r="H94" s="36">
-        <v>50</v>
-      </c>
-      <c r="I94" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="J94" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="K94" s="27">
-        <v>988</v>
-      </c>
-      <c r="L94" s="46">
-        <v>10642</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="B95" s="144" t="s">
-        <v>253</v>
-      </c>
-      <c r="C95" s="28"/>
-      <c r="D95" s="43">
-        <v>36</v>
-      </c>
       <c r="E95" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" s="45">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G95" s="45">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>E95*F95</f>
+        <v>60</v>
       </c>
       <c r="H95" s="36">
-        <v>50</v>
-      </c>
-      <c r="I95" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="J95" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="K95" s="27">
-        <v>988</v>
-      </c>
-      <c r="L95" s="46">
-        <v>7380</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="J95" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="K95" s="27"/>
+      <c r="L95" s="46"/>
     </row>
     <row r="96" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="42" t="s">
-        <v>250</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="43">
-        <v>2</v>
+      <c r="A96" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C96" s="73">
+        <v>420</v>
+      </c>
+      <c r="D96" s="27">
+        <v>1</v>
       </c>
       <c r="E96" s="44">
         <v>1</v>
       </c>
       <c r="F96" s="45">
-        <v>3.75</v>
+        <v>12</v>
       </c>
       <c r="G96" s="45">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
+        <f>E96*F96</f>
+        <v>12</v>
       </c>
       <c r="H96" s="36">
-        <v>50</v>
-      </c>
-      <c r="I96" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="J96" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="K96" s="60">
-        <v>988</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="J96" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="K96" s="27"/>
       <c r="L96" s="46"/>
     </row>
     <row r="97" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="43">
-        <v>2</v>
+      <c r="A97" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C97" s="73">
+        <v>480</v>
+      </c>
+      <c r="D97" s="27">
+        <v>4</v>
       </c>
       <c r="E97" s="44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" s="45">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G97" s="45">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>E97*F97</f>
+        <v>64</v>
       </c>
       <c r="H97" s="36">
-        <v>10</v>
-      </c>
-      <c r="I97" s="87" t="s">
-        <v>259</v>
-      </c>
-      <c r="J97" s="77" t="s">
-        <v>260</v>
-      </c>
-      <c r="K97" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="I97" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="J97" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="K97" s="27"/>
       <c r="L97" s="46"/>
     </row>
     <row r="98" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="43">
-        <v>82</v>
+        <v>174</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" s="73">
+        <v>368</v>
+      </c>
+      <c r="D98" s="27">
+        <v>1</v>
       </c>
       <c r="E98" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="45">
-        <v>0.88</v>
+        <v>11</v>
       </c>
       <c r="G98" s="45">
-        <f t="shared" ref="G98:G100" si="3">E98*F98</f>
-        <v>1.76</v>
+        <f>E98*F98</f>
+        <v>11</v>
       </c>
       <c r="H98" s="36">
-        <v>50</v>
-      </c>
-      <c r="I98" s="87" t="s">
-        <v>263</v>
-      </c>
-      <c r="J98" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K98" s="27">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="J98" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="K98" s="27"/>
       <c r="L98" s="46"/>
     </row>
     <row r="99" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C99" s="27"/>
+        <v>174</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C99" s="73">
+        <v>172</v>
+      </c>
       <c r="D99" s="27">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E99" s="44">
         <v>1</v>
       </c>
       <c r="F99" s="45">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G99" s="45">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f>E99*F99</f>
+        <v>9</v>
       </c>
       <c r="H99" s="36">
-        <v>50</v>
-      </c>
-      <c r="I99" s="87" t="s">
-        <v>265</v>
-      </c>
-      <c r="J99" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K99" s="43">
-        <v>25</v>
-      </c>
-      <c r="L99" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I99" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="J99" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="K99" s="27"/>
+      <c r="L99" s="46"/>
     </row>
     <row r="100" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B100" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="C100" s="52"/>
+        <v>182</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="73">
+        <v>750</v>
+      </c>
       <c r="D100" s="27">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="E100" s="44">
         <v>4</v>
       </c>
       <c r="F100" s="45">
-        <v>1.79</v>
+        <v>40</v>
       </c>
       <c r="G100" s="45">
-        <f t="shared" si="3"/>
-        <v>7.16</v>
+        <f>E100*F100</f>
+        <v>160</v>
       </c>
       <c r="H100" s="36">
-        <v>50</v>
-      </c>
-      <c r="I100" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="J100" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="K100" s="27">
-        <v>125</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="J100" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="K100" s="27"/>
       <c r="L100" s="46"/>
     </row>
     <row r="101" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9563,7 +9573,7 @@
       <c r="F101" s="81"/>
       <c r="G101" s="82">
         <f>SUBTOTAL(109,Table1321[*Cost Price $USD])</f>
-        <v>1512.3200000000006</v>
+        <v>1512.3200000000004</v>
       </c>
       <c r="H101" s="83"/>
       <c r="I101" s="91" t="s">
@@ -9578,107 +9588,107 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1" display="Color: Buffer 14inch 35cm" xr:uid="{A45C1E65-4D2C-4E50-A96D-C3609389891E}"/>
-    <hyperlink ref="H45" r:id="rId2" display="https://s.click.aliexpress.com/e/_c3L3d1ir" xr:uid="{AEFB707D-A1AE-4EFB-B9AF-075A426325F3}"/>
-    <hyperlink ref="I29" r:id="rId3" display="W: 9mm-EPDM L: 5M" xr:uid="{8547EB01-111D-4369-8F6F-6D71E163457E}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{DCB991D1-6060-4115-8549-0F88BF037265}"/>
-    <hyperlink ref="I94" r:id="rId5" xr:uid="{27E41D46-C6ED-4D48-B23F-D522BD1B8CAD}"/>
+    <hyperlink ref="H15" r:id="rId1" display="Color: Buffer 14inch 35cm" xr:uid="{A45C1E65-4D2C-4E50-A96D-C3609389891E}"/>
+    <hyperlink ref="H36" r:id="rId2" display="https://s.click.aliexpress.com/e/_c3L3d1ir" xr:uid="{AEFB707D-A1AE-4EFB-B9AF-075A426325F3}"/>
+    <hyperlink ref="I30" r:id="rId3" display="W: 9mm-EPDM L: 5M" xr:uid="{8547EB01-111D-4369-8F6F-6D71E163457E}"/>
+    <hyperlink ref="I61" r:id="rId4" xr:uid="{DCB991D1-6060-4115-8549-0F88BF037265}"/>
+    <hyperlink ref="I74" r:id="rId5" xr:uid="{27E41D46-C6ED-4D48-B23F-D522BD1B8CAD}"/>
     <hyperlink ref="I12:I13" r:id="rId6" display="https://www.aliexpress.com/item/1005010042779749.html" xr:uid="{83FF34FE-EF9B-4920-90F5-2E0883376D67}"/>
-    <hyperlink ref="I31" r:id="rId7" display="Color: 6PCS" xr:uid="{83110E66-78FF-482A-A936-8F1BF7578A3C}"/>
-    <hyperlink ref="I11" r:id="rId8" xr:uid="{165F55F9-93B5-4C34-AB3E-2D5640BE01F4}"/>
-    <hyperlink ref="I4" r:id="rId9" display="https://www.aliexpress.com/item/4001085251691.html" xr:uid="{6FC7652C-4336-480C-B2E7-E04728B15743}"/>
-    <hyperlink ref="I3" r:id="rId10" display="688ZZ" xr:uid="{E47035C0-0384-4F36-8610-B86A56A6353C}"/>
-    <hyperlink ref="I6" r:id="rId11" display="F606ZZ" xr:uid="{7A42191B-CFDD-4A32-8150-88F26E71C9AC}"/>
-    <hyperlink ref="I5" r:id="rId12" xr:uid="{79950C8E-6C0D-43A7-9D36-8F08E49E0336}"/>
-    <hyperlink ref="I34" r:id="rId13" xr:uid="{96A70493-75D0-4733-A3CA-6179A33F98AC}"/>
-    <hyperlink ref="I17" r:id="rId14" xr:uid="{84B02671-1AA8-4C57-BFB2-4B33E3F24539}"/>
-    <hyperlink ref="I13" r:id="rId15" xr:uid="{87783477-33AB-4F63-96D6-84FFA77C3655}"/>
-    <hyperlink ref="I47" r:id="rId16" display="C: 30x30" xr:uid="{606973F0-66B4-48E0-9052-7FF9AC915346}"/>
-    <hyperlink ref="I24" r:id="rId17" xr:uid="{9E6D60F7-4FD8-4383-A6FD-19E6F8255EF5}"/>
-    <hyperlink ref="I43" r:id="rId18" display="https://s.click.aliexpress.com/e/_c3suoWc5" xr:uid="{171176F6-4231-406A-9168-9A596B642215}"/>
-    <hyperlink ref="I54" r:id="rId19" xr:uid="{0241C0AB-3D65-413B-8BA6-3B272D19AC35}"/>
-    <hyperlink ref="I18" r:id="rId20" xr:uid="{52ADCB77-FF0E-42E8-AC3C-EF1C337A8CEE}"/>
-    <hyperlink ref="I8" r:id="rId21" display="Color: L400 - MGN12H" xr:uid="{38BCC57D-FD03-4471-B927-A7E12E3DB518}"/>
-    <hyperlink ref="I9" r:id="rId22" display="Color: L400 - MGN12H" xr:uid="{BD6A1B04-1DB5-4668-9226-2B16CD7A0FF8}"/>
-    <hyperlink ref="I10" r:id="rId23" display="Color: L400 - MGN12H" xr:uid="{84FFEA79-873A-463E-9519-EA26805DD99E}"/>
-    <hyperlink ref="I23" r:id="rId24" display="Color: 17HS19-2504S-H-V1" xr:uid="{63EC9369-3A56-4A55-ADB6-E63DA70C5687}"/>
-    <hyperlink ref="I22" r:id="rId25" display="Color: 17HS16 2004S1" xr:uid="{982DA236-4666-4A0F-ABF1-9B4663B545D1}"/>
-    <hyperlink ref="I95" r:id="rId26" display="M6x12x1mm -50PCS" xr:uid="{A89E7AD8-F920-4AF5-B677-81DF07FB2B6D}"/>
-    <hyperlink ref="I2" r:id="rId27" display="688ZZ" xr:uid="{67E8D5C1-A156-413D-AF31-8133207133A7}"/>
-    <hyperlink ref="I91" r:id="rId28" xr:uid="{960B587A-C345-41F8-9F00-5A72468B4E5D}"/>
-    <hyperlink ref="I92" r:id="rId29" display="6x25 - 20PCS" xr:uid="{C587A070-5E91-4470-9462-B26505335891}"/>
-    <hyperlink ref="I90" r:id="rId30" display="5x50 - 20PCS" xr:uid="{E2BC9294-BE45-4337-94D9-D1A7EB5D4876}"/>
-    <hyperlink ref="I93" r:id="rId31" xr:uid="{5DF1E2A3-6063-41FD-B02D-4A4F1F17507D}"/>
-    <hyperlink ref="I58" r:id="rId32" display="500mm - 20x20x1mm" xr:uid="{D204D176-2E62-40E3-82BF-401F19A0D89A}"/>
-    <hyperlink ref="I25" r:id="rId33" display="9mm-EPDM 5M" xr:uid="{D3872713-B062-4A7C-ADB1-EF62ABB53482}"/>
-    <hyperlink ref="I26" r:id="rId34" display="5mm-Pulley 26T" xr:uid="{90074162-A7AA-4715-B971-FF9CE46FAD99}"/>
-    <hyperlink ref="I35" r:id="rId35" display="S: M3 - Color: 100PCS" xr:uid="{6449E8A0-482C-470E-97D7-EF72A2F2A913}"/>
-    <hyperlink ref="I73" r:id="rId36" xr:uid="{6EB531E8-C3FE-4D01-8D5C-97575E119FCC}"/>
-    <hyperlink ref="I78" r:id="rId37" xr:uid="{91B40BE5-71A5-4A12-84CC-1243069DE4B2}"/>
-    <hyperlink ref="I37" r:id="rId38" xr:uid="{78488DAB-B700-44AA-A232-44B7D5C2B043}"/>
-    <hyperlink ref="I100" r:id="rId39" display="ID: M5(100PCS)" xr:uid="{D89841D5-DE86-4EF3-A46E-87C4608B9CB4}"/>
-    <hyperlink ref="I65" r:id="rId40" display="https://www.aliexpress.com/item/32875744040.html" xr:uid="{B0FA3175-5224-4C9F-8913-0677D8386046}"/>
-    <hyperlink ref="I82" r:id="rId41" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{7702497C-D29A-4776-9646-42512A281763}"/>
-    <hyperlink ref="I76" r:id="rId42" display="S: 10PCS M4 - L: 35" xr:uid="{EEAD0EA0-423E-407A-8EED-083AE2165F0E}"/>
-    <hyperlink ref="I88" r:id="rId43" xr:uid="{62AD37E9-A9DA-4CA1-A9DB-A74CBED013B4}"/>
-    <hyperlink ref="I55" r:id="rId44" display="500mm - 20x20x1mm" xr:uid="{6064A7A7-4811-4867-831D-5DD621C8F26F}"/>
-    <hyperlink ref="I97" r:id="rId45" xr:uid="{B943D4B9-8B39-41E3-AF1C-D92FC272CF39}"/>
-    <hyperlink ref="I28" r:id="rId46" display="BD: 5mm BW: 10mm N: 5PCS" xr:uid="{48A1A5F5-9613-43F0-AB8A-D09C3DDA1C3B}"/>
-    <hyperlink ref="I27" r:id="rId47" xr:uid="{C6EC4DA3-1FE8-42F5-AF13-426B397564D6}"/>
-    <hyperlink ref="I60" r:id="rId48" xr:uid="{0C02753A-60E1-4368-AD8A-ED26844E80A1}"/>
-    <hyperlink ref="I59" r:id="rId49" display="Color: 420 mm" xr:uid="{0E8E3DCA-6FE1-423A-9C75-E7E7B690BDB7}"/>
-    <hyperlink ref="I61" r:id="rId50" display="Color: L 368mm - 2020" xr:uid="{E9E961A2-7ED9-40FE-ABB1-92D1495A6058}"/>
-    <hyperlink ref="I62" r:id="rId51" display="Color: 420 mm" xr:uid="{70CC92A1-3489-49FF-A305-EA4BEBA40EE8}"/>
-    <hyperlink ref="I63" r:id="rId52" display="Color: 420 mm" xr:uid="{C2D7AC6A-2B7A-4CF5-B4C9-0F3C2D52367F}"/>
-    <hyperlink ref="I64" r:id="rId53" display="Color: 420 mm" xr:uid="{A4259B2C-35E6-4E18-9A22-B39EA6E8A3E3}"/>
-    <hyperlink ref="I57" r:id="rId54" display="Color: 4x10PCS 2028 Silver" xr:uid="{C93219CF-4D32-482A-8275-37C1A02D7B04}"/>
-    <hyperlink ref="I56" r:id="rId55" display="Color: 1x2020 (4pcs)" xr:uid="{4F3C13A1-F52F-4206-900C-B4E77902BF50}"/>
-    <hyperlink ref="I19" r:id="rId56" display="300x300 750W - 120VAC/220VAC" xr:uid="{CEFC505C-03F9-43E8-B793-CAA5CFF42081}"/>
-    <hyperlink ref="I14" r:id="rId57" display="https://www.aliexpress.com/item/1005003495377989.html" xr:uid="{53405AEA-9397-4AE8-B810-7AEBBF316A57}"/>
-    <hyperlink ref="I33" r:id="rId58" xr:uid="{3B1014CC-EECD-463A-9B67-F6D6371D1C92}"/>
-    <hyperlink ref="I15" r:id="rId59" xr:uid="{6308B7F3-791E-4EE3-8A90-FF14B0C92347}"/>
-    <hyperlink ref="I16" r:id="rId60" display="Color: 10Pin" xr:uid="{862B1710-40DD-4D45-8591-8540A1F3795D}"/>
-    <hyperlink ref="I20" r:id="rId61" xr:uid="{F18AAE1C-3310-4534-A2A0-FD276F0CB471}"/>
-    <hyperlink ref="I21" r:id="rId62" xr:uid="{D225820F-DD6F-47AC-B161-59F21384AEB1}"/>
-    <hyperlink ref="I36" r:id="rId63" xr:uid="{A1C476E8-4C0A-416C-895F-CB0FF4CF4DA2}"/>
-    <hyperlink ref="I45" r:id="rId64" xr:uid="{C6F7896B-3895-437C-B832-E4CE37CFA899}"/>
-    <hyperlink ref="I46" r:id="rId65" display="S: 4mm Barb - TS: 1/4&quot;" xr:uid="{2B44AB4F-AA65-453B-8182-DAEE4E742DD6}"/>
-    <hyperlink ref="I44" r:id="rId66" xr:uid="{400AB169-DF3B-458B-B4BC-D325DD62A206}"/>
-    <hyperlink ref="I89" r:id="rId67" display="5x50 - 20PCS" xr:uid="{4E84AE98-52E0-42C1-9368-357566ADE35E}"/>
-    <hyperlink ref="I98" r:id="rId68" xr:uid="{18DA0DDC-EFC4-469D-9FB9-5EDF23E44C1F}"/>
-    <hyperlink ref="I68" r:id="rId69" xr:uid="{42D5885D-D05C-4C8F-A0A6-31196BC8A998}"/>
-    <hyperlink ref="I99" r:id="rId70" display="ID: M4(100PCS)" xr:uid="{B2777790-305B-4258-B27E-0B0510452C92}"/>
-    <hyperlink ref="I74" r:id="rId71" xr:uid="{E30EE4AB-92BC-47EC-8B87-851649ADA300}"/>
-    <hyperlink ref="I79" r:id="rId72" xr:uid="{5BE91CE9-3DDA-46F2-B5E0-34464497242A}"/>
-    <hyperlink ref="I80" r:id="rId73" display="S: 10pcs M5 - L: 10mm" xr:uid="{9EF647D7-AE79-4758-903A-ED27EAD2484C}"/>
-    <hyperlink ref="I81" r:id="rId74" display="S: 10pcs M5 - L: 10mm" xr:uid="{639FCC7E-D9C2-4EA7-AE47-19FB48D156C7}"/>
-    <hyperlink ref="I83" r:id="rId75" display="S: 10pcs M5 - L: 10mm" xr:uid="{EBB69F9E-0C12-4E8C-AC83-B56049138C2E}"/>
-    <hyperlink ref="I84" r:id="rId76" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{065EAEDB-D131-478B-8370-8C2E5646A41E}"/>
-    <hyperlink ref="I85" r:id="rId77" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{98ED755C-0D14-4662-8A4F-2E49986E3D9B}"/>
-    <hyperlink ref="I86" r:id="rId78" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{6BE4BDC7-9A08-4700-B501-17D2AA7DB2EE}"/>
-    <hyperlink ref="I87" r:id="rId79" display="S: 10pcs M5 - L: 10mm" xr:uid="{DED82DCD-2FAA-4C81-9787-A3BB7443A197}"/>
-    <hyperlink ref="I96" r:id="rId80" display="M6x12x1mm -50PCS" xr:uid="{C1232C0C-9B0D-4F15-9A17-88DD0F0B366E}"/>
-    <hyperlink ref="I50" r:id="rId81" xr:uid="{6B342A7C-3223-441B-BA54-EB726DAE7228}"/>
-    <hyperlink ref="I48" r:id="rId82" xr:uid="{E4B8A3C8-371E-4D73-B3EC-96050B57F24F}"/>
-    <hyperlink ref="I51" r:id="rId83" xr:uid="{EDBD9826-6B9E-46B8-AAB8-5C973DAABC96}"/>
-    <hyperlink ref="I52" r:id="rId84" xr:uid="{8464A2DC-023A-4919-B297-2FDBBBD4D5B6}"/>
-    <hyperlink ref="I53" r:id="rId85" display="C: 6x8mm - L: 5M" xr:uid="{98B377C7-126F-4D2F-8854-ABF0CE3FAB68}"/>
-    <hyperlink ref="I49" r:id="rId86" xr:uid="{ECF57003-5ABF-4AD9-83DB-0628060DDD7B}"/>
-    <hyperlink ref="I12" r:id="rId87" xr:uid="{097FDA04-D005-411A-B496-1BC475898E6F}"/>
-    <hyperlink ref="I75" r:id="rId88" display="S: 10pcs M4 - L: 20mm" xr:uid="{C5826B9A-F771-46EF-9B2A-46E7597015A5}"/>
-    <hyperlink ref="I77" r:id="rId89" display="S: 10pcs M4 - L: 20mm" xr:uid="{663B6ED5-C954-4DFD-AB9B-74D8830DCC67}"/>
-    <hyperlink ref="I66" r:id="rId90" display="S: 10pcs M5 - L: 10mm" xr:uid="{8BCBDD54-C503-4A68-8616-51AB3BEA554B}"/>
-    <hyperlink ref="I67" r:id="rId91" display="S: 10pcs M4 - L: 20mm" xr:uid="{6AAD8BA5-EC70-47FD-ACE5-B23DC37802DA}"/>
-    <hyperlink ref="I69" r:id="rId92" display="S: 10pcs M3 - L: 8mm" xr:uid="{EA94F40A-3AF8-4F90-8F8B-18F229D3E320}"/>
-    <hyperlink ref="I70" r:id="rId93" display="S: 10pcs M3 - L: 8mm" xr:uid="{8DA919EA-F0B5-4F30-99F9-DC086E0C9680}"/>
-    <hyperlink ref="I71" r:id="rId94" display="S: 10pcs M3 - L: 8mm" xr:uid="{0F4A8E86-8F66-4D81-80B4-86F35EA862D9}"/>
-    <hyperlink ref="I72" r:id="rId95" display="S: 10pcs M3 - L: 8mm" xr:uid="{3CDA4528-16EC-41F7-9A9D-351E96644BBA}"/>
-    <hyperlink ref="I38" r:id="rId96" display="S: 25pcs M3" xr:uid="{E906F13E-EDC9-4892-9B18-79329B3CF0B7}"/>
-    <hyperlink ref="I39" r:id="rId97" display="S: 10pcs M3" xr:uid="{71794BBC-CA39-4991-8CD1-307EFA2F836E}"/>
-    <hyperlink ref="I41" r:id="rId98" display="S: 25pcs M3" xr:uid="{3131039F-B734-41A4-A204-A59C22ED9A57}"/>
-    <hyperlink ref="I42" r:id="rId99" display="S: 10pcs M3" xr:uid="{F0B7A532-41BF-4348-B107-C1C26F684AC4}"/>
-    <hyperlink ref="I32" r:id="rId100" display="https://s.click.aliexpress.com/e/_c3h7Zh5j" xr:uid="{C0116F09-FFC3-4E4E-8906-DA78E1D65DB9}"/>
-    <hyperlink ref="I40" r:id="rId101" display="S: M3 - Color: 100PCS" xr:uid="{E80C8403-CA67-4B32-A81C-274DCBF027B6}"/>
+    <hyperlink ref="I87" r:id="rId7" display="Color: 6PCS" xr:uid="{83110E66-78FF-482A-A936-8F1BF7578A3C}"/>
+    <hyperlink ref="I4" r:id="rId8" xr:uid="{165F55F9-93B5-4C34-AB3E-2D5640BE01F4}"/>
+    <hyperlink ref="I15" r:id="rId9" display="https://www.aliexpress.com/item/4001085251691.html" xr:uid="{6FC7652C-4336-480C-B2E7-E04728B15743}"/>
+    <hyperlink ref="I12" r:id="rId10" display="688ZZ" xr:uid="{E47035C0-0384-4F36-8610-B86A56A6353C}"/>
+    <hyperlink ref="I8" r:id="rId11" display="F606ZZ" xr:uid="{7A42191B-CFDD-4A32-8150-88F26E71C9AC}"/>
+    <hyperlink ref="I3" r:id="rId12" xr:uid="{79950C8E-6C0D-43A7-9D36-8F08E49E0336}"/>
+    <hyperlink ref="I24" r:id="rId13" xr:uid="{96A70493-75D0-4733-A3CA-6179A33F98AC}"/>
+    <hyperlink ref="I33" r:id="rId14" xr:uid="{84B02671-1AA8-4C57-BFB2-4B33E3F24539}"/>
+    <hyperlink ref="I23" r:id="rId15" xr:uid="{87783477-33AB-4F63-96D6-84FFA77C3655}"/>
+    <hyperlink ref="I38" r:id="rId16" display="C: 30x30" xr:uid="{606973F0-66B4-48E0-9052-7FF9AC915346}"/>
+    <hyperlink ref="I94" r:id="rId17" xr:uid="{9E6D60F7-4FD8-4383-A6FD-19E6F8255EF5}"/>
+    <hyperlink ref="I19" r:id="rId18" display="https://s.click.aliexpress.com/e/_c3suoWc5" xr:uid="{171176F6-4231-406A-9168-9A596B642215}"/>
+    <hyperlink ref="I73" r:id="rId19" xr:uid="{0241C0AB-3D65-413B-8BA6-3B272D19AC35}"/>
+    <hyperlink ref="I34" r:id="rId20" xr:uid="{52ADCB77-FF0E-42E8-AC3C-EF1C337A8CEE}"/>
+    <hyperlink ref="I89" r:id="rId21" display="Color: L400 - MGN12H" xr:uid="{38BCC57D-FD03-4471-B927-A7E12E3DB518}"/>
+    <hyperlink ref="I90" r:id="rId22" display="Color: L400 - MGN12H" xr:uid="{BD6A1B04-1DB5-4668-9226-2B16CD7A0FF8}"/>
+    <hyperlink ref="I91" r:id="rId23" display="Color: L400 - MGN12H" xr:uid="{84FFEA79-873A-463E-9519-EA26805DD99E}"/>
+    <hyperlink ref="I93" r:id="rId24" display="Color: 17HS19-2504S-H-V1" xr:uid="{63EC9369-3A56-4A55-ADB6-E63DA70C5687}"/>
+    <hyperlink ref="I92" r:id="rId25" display="Color: 17HS16 2004S1" xr:uid="{982DA236-4666-4A0F-ABF1-9B4663B545D1}"/>
+    <hyperlink ref="I84" r:id="rId26" display="M6x12x1mm -50PCS" xr:uid="{A89E7AD8-F920-4AF5-B677-81DF07FB2B6D}"/>
+    <hyperlink ref="I5" r:id="rId27" display="688ZZ" xr:uid="{67E8D5C1-A156-413D-AF31-8133207133A7}"/>
+    <hyperlink ref="I9" r:id="rId28" xr:uid="{960B587A-C345-41F8-9F00-5A72468B4E5D}"/>
+    <hyperlink ref="I10" r:id="rId29" display="6x25 - 20PCS" xr:uid="{C587A070-5E91-4470-9462-B26505335891}"/>
+    <hyperlink ref="I7" r:id="rId30" display="5x50 - 20PCS" xr:uid="{E2BC9294-BE45-4337-94D9-D1A7EB5D4876}"/>
+    <hyperlink ref="I13" r:id="rId31" xr:uid="{5DF1E2A3-6063-41FD-B02D-4A4F1F17507D}"/>
+    <hyperlink ref="I18" r:id="rId32" display="500mm - 20x20x1mm" xr:uid="{D204D176-2E62-40E3-82BF-401F19A0D89A}"/>
+    <hyperlink ref="I26" r:id="rId33" display="9mm-EPDM 5M" xr:uid="{D3872713-B062-4A7C-ADB1-EF62ABB53482}"/>
+    <hyperlink ref="I27" r:id="rId34" display="5mm-Pulley 26T" xr:uid="{90074162-A7AA-4715-B971-FF9CE46FAD99}"/>
+    <hyperlink ref="I47" r:id="rId35" display="S: M3 - Color: 100PCS" xr:uid="{6449E8A0-482C-470E-97D7-EF72A2F2A913}"/>
+    <hyperlink ref="I63" r:id="rId36" xr:uid="{6EB531E8-C3FE-4D01-8D5C-97575E119FCC}"/>
+    <hyperlink ref="I68" r:id="rId37" xr:uid="{91B40BE5-71A5-4A12-84CC-1243069DE4B2}"/>
+    <hyperlink ref="I49" r:id="rId38" xr:uid="{78488DAB-B700-44AA-A232-44B7D5C2B043}"/>
+    <hyperlink ref="I72" r:id="rId39" display="ID: M5(100PCS)" xr:uid="{D89841D5-DE86-4EF3-A46E-87C4608B9CB4}"/>
+    <hyperlink ref="I51" r:id="rId40" display="https://www.aliexpress.com/item/32875744040.html" xr:uid="{B0FA3175-5224-4C9F-8913-0677D8386046}"/>
+    <hyperlink ref="I78" r:id="rId41" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{7702497C-D29A-4776-9646-42512A281763}"/>
+    <hyperlink ref="I66" r:id="rId42" display="S: 10PCS M4 - L: 35" xr:uid="{EEAD0EA0-423E-407A-8EED-083AE2165F0E}"/>
+    <hyperlink ref="I2" r:id="rId43" xr:uid="{62AD37E9-A9DA-4CA1-A9DB-A74CBED013B4}"/>
+    <hyperlink ref="I14" r:id="rId44" display="500mm - 20x20x1mm" xr:uid="{6064A7A7-4811-4867-831D-5DD621C8F26F}"/>
+    <hyperlink ref="I11" r:id="rId45" xr:uid="{B943D4B9-8B39-41E3-AF1C-D92FC272CF39}"/>
+    <hyperlink ref="I29" r:id="rId46" display="BD: 5mm BW: 10mm N: 5PCS" xr:uid="{48A1A5F5-9613-43F0-AB8A-D09C3DDA1C3B}"/>
+    <hyperlink ref="I28" r:id="rId47" xr:uid="{C6EC4DA3-1FE8-42F5-AF13-426B397564D6}"/>
+    <hyperlink ref="I98" r:id="rId48" xr:uid="{0C02753A-60E1-4368-AD8A-ED26844E80A1}"/>
+    <hyperlink ref="I96" r:id="rId49" display="Color: 420 mm" xr:uid="{0E8E3DCA-6FE1-423A-9C75-E7E7B690BDB7}"/>
+    <hyperlink ref="I99" r:id="rId50" display="Color: L 368mm - 2020" xr:uid="{E9E961A2-7ED9-40FE-ABB1-92D1495A6058}"/>
+    <hyperlink ref="I95" r:id="rId51" display="Color: 420 mm" xr:uid="{70CC92A1-3489-49FF-A305-EA4BEBA40EE8}"/>
+    <hyperlink ref="I97" r:id="rId52" display="Color: 420 mm" xr:uid="{C2D7AC6A-2B7A-4CF5-B4C9-0F3C2D52367F}"/>
+    <hyperlink ref="I100" r:id="rId53" display="Color: 420 mm" xr:uid="{A4259B2C-35E6-4E18-9A22-B39EA6E8A3E3}"/>
+    <hyperlink ref="I17" r:id="rId54" display="Color: 4x10PCS 2028 Silver" xr:uid="{C93219CF-4D32-482A-8275-37C1A02D7B04}"/>
+    <hyperlink ref="I16" r:id="rId55" display="Color: 1x2020 (4pcs)" xr:uid="{4F3C13A1-F52F-4206-900C-B4E77902BF50}"/>
+    <hyperlink ref="I35" r:id="rId56" display="300x300 750W - 120VAC/220VAC" xr:uid="{CEFC505C-03F9-43E8-B793-CAA5CFF42081}"/>
+    <hyperlink ref="I25" r:id="rId57" display="https://www.aliexpress.com/item/1005003495377989.html" xr:uid="{53405AEA-9397-4AE8-B810-7AEBBF316A57}"/>
+    <hyperlink ref="I21" r:id="rId58" xr:uid="{3B1014CC-EECD-463A-9B67-F6D6371D1C92}"/>
+    <hyperlink ref="I31" r:id="rId59" xr:uid="{6308B7F3-791E-4EE3-8A90-FF14B0C92347}"/>
+    <hyperlink ref="I32" r:id="rId60" display="Color: 10Pin" xr:uid="{862B1710-40DD-4D45-8591-8540A1F3795D}"/>
+    <hyperlink ref="I45" r:id="rId61" xr:uid="{F18AAE1C-3310-4534-A2A0-FD276F0CB471}"/>
+    <hyperlink ref="I46" r:id="rId62" xr:uid="{D225820F-DD6F-47AC-B161-59F21384AEB1}"/>
+    <hyperlink ref="I48" r:id="rId63" xr:uid="{A1C476E8-4C0A-416C-895F-CB0FF4CF4DA2}"/>
+    <hyperlink ref="I36" r:id="rId64" xr:uid="{C6F7896B-3895-437C-B832-E4CE37CFA899}"/>
+    <hyperlink ref="I37" r:id="rId65" display="S: 4mm Barb - TS: 1/4&quot;" xr:uid="{2B44AB4F-AA65-453B-8182-DAEE4E742DD6}"/>
+    <hyperlink ref="I20" r:id="rId66" xr:uid="{400AB169-DF3B-458B-B4BC-D325DD62A206}"/>
+    <hyperlink ref="I6" r:id="rId67" display="5x50 - 20PCS" xr:uid="{4E84AE98-52E0-42C1-9368-357566ADE35E}"/>
+    <hyperlink ref="I50" r:id="rId68" xr:uid="{18DA0DDC-EFC4-469D-9FB9-5EDF23E44C1F}"/>
+    <hyperlink ref="I54" r:id="rId69" xr:uid="{42D5885D-D05C-4C8F-A0A6-31196BC8A998}"/>
+    <hyperlink ref="I60" r:id="rId70" display="ID: M4(100PCS)" xr:uid="{B2777790-305B-4258-B27E-0B0510452C92}"/>
+    <hyperlink ref="I64" r:id="rId71" xr:uid="{E30EE4AB-92BC-47EC-8B87-851649ADA300}"/>
+    <hyperlink ref="I75" r:id="rId72" xr:uid="{5BE91CE9-3DDA-46F2-B5E0-34464497242A}"/>
+    <hyperlink ref="I76" r:id="rId73" display="S: 10pcs M5 - L: 10mm" xr:uid="{9EF647D7-AE79-4758-903A-ED27EAD2484C}"/>
+    <hyperlink ref="I77" r:id="rId74" display="S: 10pcs M5 - L: 10mm" xr:uid="{639FCC7E-D9C2-4EA7-AE47-19FB48D156C7}"/>
+    <hyperlink ref="I79" r:id="rId75" display="S: 10pcs M5 - L: 10mm" xr:uid="{EBB69F9E-0C12-4E8C-AC83-B56049138C2E}"/>
+    <hyperlink ref="I80" r:id="rId76" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{065EAEDB-D131-478B-8370-8C2E5646A41E}"/>
+    <hyperlink ref="I81" r:id="rId77" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{98ED755C-0D14-4662-8A4F-2E49986E3D9B}"/>
+    <hyperlink ref="I82" r:id="rId78" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{6BE4BDC7-9A08-4700-B501-17D2AA7DB2EE}"/>
+    <hyperlink ref="I83" r:id="rId79" display="S: 10pcs M5 - L: 10mm" xr:uid="{DED82DCD-2FAA-4C81-9787-A3BB7443A197}"/>
+    <hyperlink ref="I85" r:id="rId80" display="M6x12x1mm -50PCS" xr:uid="{C1232C0C-9B0D-4F15-9A17-88DD0F0B366E}"/>
+    <hyperlink ref="I41" r:id="rId81" xr:uid="{6B342A7C-3223-441B-BA54-EB726DAE7228}"/>
+    <hyperlink ref="I39" r:id="rId82" xr:uid="{E4B8A3C8-371E-4D73-B3EC-96050B57F24F}"/>
+    <hyperlink ref="I42" r:id="rId83" xr:uid="{EDBD9826-6B9E-46B8-AAB8-5C973DAABC96}"/>
+    <hyperlink ref="I43" r:id="rId84" xr:uid="{8464A2DC-023A-4919-B297-2FDBBBD4D5B6}"/>
+    <hyperlink ref="I44" r:id="rId85" display="C: 6x8mm - L: 5M" xr:uid="{98B377C7-126F-4D2F-8854-ABF0CE3FAB68}"/>
+    <hyperlink ref="I40" r:id="rId86" xr:uid="{ECF57003-5ABF-4AD9-83DB-0628060DDD7B}"/>
+    <hyperlink ref="I22" r:id="rId87" xr:uid="{097FDA04-D005-411A-B496-1BC475898E6F}"/>
+    <hyperlink ref="I65" r:id="rId88" display="S: 10pcs M4 - L: 20mm" xr:uid="{C5826B9A-F771-46EF-9B2A-46E7597015A5}"/>
+    <hyperlink ref="I67" r:id="rId89" display="S: 10pcs M4 - L: 20mm" xr:uid="{663B6ED5-C954-4DFD-AB9B-74D8830DCC67}"/>
+    <hyperlink ref="I52" r:id="rId90" display="S: 10pcs M5 - L: 10mm" xr:uid="{8BCBDD54-C503-4A68-8616-51AB3BEA554B}"/>
+    <hyperlink ref="I53" r:id="rId91" display="S: 10pcs M4 - L: 20mm" xr:uid="{6AAD8BA5-EC70-47FD-ACE5-B23DC37802DA}"/>
+    <hyperlink ref="I55" r:id="rId92" display="S: 10pcs M3 - L: 8mm" xr:uid="{EA94F40A-3AF8-4F90-8F8B-18F229D3E320}"/>
+    <hyperlink ref="I56" r:id="rId93" display="S: 10pcs M3 - L: 8mm" xr:uid="{8DA919EA-F0B5-4F30-99F9-DC086E0C9680}"/>
+    <hyperlink ref="I57" r:id="rId94" display="S: 10pcs M3 - L: 8mm" xr:uid="{0F4A8E86-8F66-4D81-80B4-86F35EA862D9}"/>
+    <hyperlink ref="I62" r:id="rId95" display="S: 10pcs M3 - L: 8mm" xr:uid="{3CDA4528-16EC-41F7-9A9D-351E96644BBA}"/>
+    <hyperlink ref="I58" r:id="rId96" display="S: 25pcs M3" xr:uid="{E906F13E-EDC9-4892-9B18-79329B3CF0B7}"/>
+    <hyperlink ref="I59" r:id="rId97" display="S: 10pcs M3" xr:uid="{71794BBC-CA39-4991-8CD1-307EFA2F836E}"/>
+    <hyperlink ref="I70" r:id="rId98" display="S: 25pcs M3" xr:uid="{3131039F-B734-41A4-A204-A59C22ED9A57}"/>
+    <hyperlink ref="I71" r:id="rId99" display="S: 10pcs M3" xr:uid="{F0B7A532-41BF-4348-B107-C1C26F684AC4}"/>
+    <hyperlink ref="I88" r:id="rId100" display="https://s.click.aliexpress.com/e/_c3h7Zh5j" xr:uid="{C0116F09-FFC3-4E4E-8906-DA78E1D65DB9}"/>
+    <hyperlink ref="I69" r:id="rId101" display="S: M3 - Color: 100PCS" xr:uid="{E80C8403-CA67-4B32-A81C-274DCBF027B6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -10422,7 +10432,7 @@
   </sheetPr>
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
+++ b/V2 BETA/BOM/Valkyrie BOM v2.0 Beta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/Project-Valkyrie/V2 BETA/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11479" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBD0985C-73A9-46BD-B5EC-1E662ABEB0C2}"/>
+  <xr:revisionPtr revIDLastSave="11485" documentId="8_{63A4C33B-DB7D-4B96-8F5C-2848B14821C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BFBD88-C01C-416B-BB1A-61EA6E032A4C}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HW Full BOM" sheetId="43" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="666">
   <si>
     <t>Part Type</t>
   </si>
@@ -1630,12 +1630,6 @@
     <t>Barb for 4mm ID tube</t>
   </si>
   <si>
-    <t>LC - 1/4" Barb - 6mm</t>
-  </si>
-  <si>
-    <t>Barb for 6mm ID tube</t>
-  </si>
-  <si>
     <t>P67D DC 12V LC pump</t>
   </si>
   <si>
@@ -1643,12 +1637,6 @@
   </si>
   <si>
     <t>Color: 4x6 5 meter</t>
-  </si>
-  <si>
-    <t>LC - Tubing 6x8mm IDxOD</t>
-  </si>
-  <si>
-    <t>Color: 6x8 5 meter</t>
   </si>
   <si>
     <t>V2 LC Flowmeter Buddy_1x</t>
@@ -2579,7 +2567,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -2900,9 +2888,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2916,9 +2901,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2951,13 +2933,6 @@
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2967,6 +2942,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2982,115 +2982,6 @@
     <cellStyle name="Normal 9" xfId="9" xr:uid="{40B67649-AC0A-4FC1-B41E-42AB5C2B58C9}"/>
   </cellStyles>
   <dxfs count="131">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="medium">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="medium">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="medium">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3202,6 +3093,115 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5484,13 +5484,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>767625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>177075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5535,13 +5535,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1059198</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>177075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5696,7 +5696,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{1DE5977A-0070-4907-B3F1-83B3E9D3EAF9}" name="Table1321" displayName="Table1321" ref="A1:L112" totalsRowShown="0" dataDxfId="129" headerRowBorderDxfId="130" tableBorderDxfId="128" headerRowCellStyle="Normal 2">
   <autoFilter ref="A1:L112" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L112">
-    <sortCondition ref="B1:B112"/>
+    <sortCondition ref="J1:J112"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="3" xr3:uid="{E596F2F7-CDFF-486E-86F5-053FDD2A2A5C}" name="Part Type" dataDxfId="127"/>
@@ -5719,19 +5719,19 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="A1:G26" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{604B429D-E2E1-4265-83DF-FBAD19483C12}" name="Table91317181920" displayName="Table91317181920" ref="A1:G26" totalsRowShown="0" headerRowDxfId="13" tableBorderDxfId="12" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
   <autoFilter ref="A1:G26" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="19" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="18" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="3" xr3:uid="{CEBCEC8D-8589-45D8-A38D-453A173B6A5C}" name="Pack Order Quantity" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{A5B8DC3B-9D4F-4B03-877B-EA360C82CDF3}" name="Order Link" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="5" xr3:uid="{D7D53190-213B-4864-8558-6A9813C2C7D5}" name="Unit Price" dataDxfId="11" totalsRowDxfId="10" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="6" xr3:uid="{150E56CF-09E3-4836-A822-6DA16145ACAA}" name="Line Price" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{E0A0C165-2589-4FA7-A356-93EEE88B2095}" name="Part name" totalsRowDxfId="11" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{49376C16-406D-4D5F-8B92-3BFE5FB962B9}" name="Description" totalsRowDxfId="10" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{6252F354-5A67-4DD7-A1AA-3DADB5EF6BF7}" name="BOM Quantity" dataDxfId="9" totalsRowDxfId="8" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="3" xr3:uid="{CEBCEC8D-8589-45D8-A38D-453A173B6A5C}" name="Pack Order Quantity" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{A5B8DC3B-9D4F-4B03-877B-EA360C82CDF3}" name="Order Link" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="5" xr3:uid="{D7D53190-213B-4864-8558-6A9813C2C7D5}" name="Unit Price" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="6" xr3:uid="{150E56CF-09E3-4836-A822-6DA16145ACAA}" name="Line Price" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Normal 2">
       <calculatedColumnFormula>Table91317181920[[#This Row],[Unit Price]]*Table91317181920[[#This Row],[Pack Order Quantity]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5880,16 +5880,16 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:E20" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="B1:E20" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E20">
-    <sortCondition ref="B1:B20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AC31348F-CB75-44A7-A48C-4BBEA19837B3}" name="Table913171819" displayName="Table913171819" ref="B1:E18" totalsRowShown="0" headerRowDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="B1:E18" xr:uid="{BAD2131D-41B2-42EA-A67B-FBB781AD12E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="5" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="4" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
-    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="2" totalsRowDxfId="3" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
-    <tableColumn id="4" xr3:uid="{5FA22CB9-365D-4406-90AA-1375A1464EDC}" name="Order Link" dataDxfId="0" totalsRowDxfId="1" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="1" xr3:uid="{D7153C23-8479-4254-BF69-2A4089CB71C0}" name="Part name" totalsRowDxfId="19" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{5CF4E952-095C-46AE-A57F-99A26E57C478}" name="Description" totalsRowDxfId="18" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{8AE4D1C0-7F70-4D1E-B6EC-42038CE642DF}" name="BOM Quantity" dataDxfId="17" totalsRowDxfId="16" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
+    <tableColumn id="4" xr3:uid="{5FA22CB9-365D-4406-90AA-1375A1464EDC}" name="Order Link" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal 2" totalsRowCellStyle="Normal 8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6099,8 +6099,8 @@
   </sheetPr>
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6159,734 +6159,710 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="133">
-        <v>1</v>
+      <c r="A2" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="153">
+        <v>230</v>
+      </c>
+      <c r="D2" s="153">
+        <v>4</v>
       </c>
       <c r="E2" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="41">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="G2" s="41">
-        <f t="shared" ref="G2:G33" si="0">E2*F2</f>
-        <v>2.84</v>
+        <f>E2*F2</f>
+        <v>8</v>
       </c>
       <c r="H2" s="106">
-        <v>10</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="133"/>
-      <c r="L2" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="132" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="136">
+      <c r="A3" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="139" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="140">
+        <v>410</v>
+      </c>
+      <c r="D3" s="140">
         <v>1</v>
       </c>
       <c r="E3" s="134">
         <v>1</v>
       </c>
       <c r="F3" s="41">
-        <v>4.0999999999999996</v>
+        <v>4.07</v>
       </c>
       <c r="G3" s="41">
-        <f t="shared" si="0"/>
-        <v>4.0999999999999996</v>
+        <f>E3*F3</f>
+        <v>4.07</v>
       </c>
       <c r="H3" s="106">
-        <v>10</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="162" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="132" t="s">
+        <v>59</v>
       </c>
       <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C4" s="137"/>
       <c r="D4" s="133">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E4" s="134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="41">
-        <v>3.26</v>
+        <v>7.84</v>
       </c>
       <c r="G4" s="41">
-        <f t="shared" si="0"/>
-        <v>3.26</v>
+        <f>E4*F4</f>
+        <v>23.52</v>
       </c>
       <c r="H4" s="106">
-        <v>50</v>
-      </c>
-      <c r="I4" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="27">
-        <v>988</v>
-      </c>
-      <c r="L4" s="42">
-        <v>10642</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="133">
-        <v>1</v>
+      <c r="A5" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="27">
+        <v>2</v>
       </c>
       <c r="E5" s="134">
         <v>1</v>
       </c>
       <c r="F5" s="41">
-        <v>4.34</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="G5" s="41">
-        <f t="shared" si="0"/>
-        <v>4.34</v>
+        <f>E5*F5</f>
+        <v>4.7300000000000004</v>
       </c>
       <c r="H5" s="106">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I5" s="57" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="162" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="42"/>
+        <v>52</v>
+      </c>
+      <c r="J5" s="160" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="133"/>
+      <c r="L5" s="43"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="133">
-        <v>31</v>
+      <c r="A6" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="135"/>
+      <c r="D6" s="136">
+        <v>1</v>
       </c>
       <c r="E6" s="134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="41">
-        <v>4.95</v>
+        <v>10</v>
       </c>
       <c r="G6" s="41">
-        <f t="shared" si="0"/>
-        <v>14.850000000000001</v>
-      </c>
-      <c r="H6" s="106">
+        <f>E6*F6</f>
         <v>10</v>
       </c>
-      <c r="I6" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="132" t="s">
-        <v>30</v>
+      <c r="H6" s="130">
+        <v>5</v>
+      </c>
+      <c r="I6" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="J6" s="167" t="s">
+        <v>276</v>
       </c>
       <c r="L6" s="42"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="139" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="140"/>
-      <c r="D7" s="133">
-        <v>6</v>
+      <c r="A7" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136">
+        <v>1</v>
       </c>
       <c r="E7" s="134">
         <v>1</v>
       </c>
       <c r="F7" s="41">
-        <v>10.36</v>
+        <v>12.69</v>
       </c>
       <c r="G7" s="41">
-        <f t="shared" si="0"/>
-        <v>10.36</v>
+        <f>E7*F7</f>
+        <v>12.69</v>
       </c>
       <c r="H7" s="106">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I7" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="43"/>
+        <v>135</v>
+      </c>
+      <c r="J7" s="160" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" s="42"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="139" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="135"/>
-      <c r="D8" s="133">
-        <v>6</v>
+        <v>128</v>
+      </c>
+      <c r="B8" s="148" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="149"/>
+      <c r="D8" s="150">
+        <v>3</v>
       </c>
       <c r="E8" s="134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" s="41">
-        <v>11.78</v>
+        <v>2.23</v>
       </c>
       <c r="G8" s="41">
-        <f t="shared" si="0"/>
-        <v>11.78</v>
+        <f>E8*F8</f>
+        <v>6.6899999999999995</v>
       </c>
       <c r="H8" s="106">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I8" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="133"/>
-      <c r="L8" s="43"/>
+        <v>130</v>
+      </c>
+      <c r="J8" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="L8" s="42"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="133">
-        <v>36</v>
+      <c r="A9" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="148" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="149"/>
+      <c r="D9" s="150">
+        <v>3</v>
       </c>
       <c r="E9" s="134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" s="41">
-        <v>2.87</v>
+        <v>2.27</v>
       </c>
       <c r="G9" s="41">
-        <f t="shared" si="0"/>
-        <v>2.87</v>
+        <f>E9*F9</f>
+        <v>6.8100000000000005</v>
       </c>
       <c r="H9" s="106">
-        <v>50</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="27">
-        <v>988</v>
-      </c>
-      <c r="L9" s="42">
-        <v>7380</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="J9" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="L9" s="42"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="137"/>
-      <c r="D10" s="133">
-        <v>24</v>
+      <c r="B10" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="135"/>
+      <c r="D10" s="136">
+        <v>1</v>
       </c>
       <c r="E10" s="134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="41">
-        <v>7.84</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G10" s="41">
-        <f t="shared" si="0"/>
-        <v>23.52</v>
+        <f>E10*F10</f>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H10" s="106">
         <v>10</v>
       </c>
       <c r="I10" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="162" t="s">
-        <v>40</v>
+        <v>18</v>
+      </c>
+      <c r="J10" s="160" t="s">
+        <v>19</v>
       </c>
       <c r="L10" s="42"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="139" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="140"/>
+        <v>241</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>245</v>
+      </c>
       <c r="D11" s="133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E11" s="134">
         <v>1</v>
       </c>
       <c r="F11" s="41">
-        <v>10.08</v>
+        <v>10.23</v>
       </c>
       <c r="G11" s="41">
-        <f t="shared" si="0"/>
-        <v>10.08</v>
+        <f>E11*F11</f>
+        <v>10.23</v>
       </c>
       <c r="H11" s="106">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I11" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="133"/>
-      <c r="L11" s="43"/>
+        <v>246</v>
+      </c>
+      <c r="J11" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="K11" s="164"/>
+      <c r="L11" s="42"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="139" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="133">
-        <v>8</v>
+      <c r="A12" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="150">
+        <v>3</v>
       </c>
       <c r="E12" s="134">
         <v>1</v>
       </c>
       <c r="F12" s="41">
-        <v>12.42</v>
+        <v>9.42</v>
       </c>
       <c r="G12" s="41">
-        <f t="shared" si="0"/>
-        <v>12.42</v>
+        <f>E12*F12</f>
+        <v>9.42</v>
       </c>
       <c r="H12" s="106">
-        <v>20</v>
-      </c>
-      <c r="I12" s="58" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>149</v>
       </c>
       <c r="J12" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="133"/>
-      <c r="L12" s="43"/>
+        <v>150</v>
+      </c>
+      <c r="L12" s="42"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="133">
+      <c r="A13" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="149"/>
+      <c r="D13" s="150">
         <v>2</v>
       </c>
       <c r="E13" s="134">
         <v>1</v>
       </c>
       <c r="F13" s="41">
-        <v>12.84</v>
+        <v>8.07</v>
       </c>
       <c r="G13" s="41">
-        <f t="shared" si="0"/>
-        <v>12.84</v>
+        <f>E13*F13</f>
+        <v>8.07</v>
       </c>
       <c r="H13" s="106">
-        <v>10</v>
-      </c>
-      <c r="I13" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="171" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="166"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="132" t="s">
+        <v>150</v>
+      </c>
       <c r="L13" s="42"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="133">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="E14" s="134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="41">
-        <v>2.84</v>
+        <v>4.95</v>
       </c>
       <c r="G14" s="41">
-        <f t="shared" si="0"/>
-        <v>2.84</v>
+        <f>E14*F14</f>
+        <v>14.850000000000001</v>
       </c>
       <c r="H14" s="106">
-        <v>50</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="162" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="166">
-        <v>988</v>
+        <v>10</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="132" t="s">
+        <v>30</v>
       </c>
       <c r="L14" s="42"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="40" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="27">
+        <v>46</v>
+      </c>
+      <c r="C15" s="135"/>
+      <c r="D15" s="133">
         <v>2</v>
       </c>
       <c r="E15" s="134">
         <v>1</v>
       </c>
       <c r="F15" s="41">
-        <v>4.7300000000000004</v>
+        <v>12.84</v>
       </c>
       <c r="G15" s="41">
-        <f t="shared" si="0"/>
-        <v>4.7300000000000004</v>
+        <f>E15*F15</f>
+        <v>12.84</v>
       </c>
       <c r="H15" s="106">
         <v>10</v>
       </c>
-      <c r="I15" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="162" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="133"/>
-      <c r="L15" s="43"/>
+      <c r="I15" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J15" s="169" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="164"/>
+      <c r="L15" s="42"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="28">
-        <v>400</v>
-      </c>
-      <c r="D16" s="133">
+      <c r="A16" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136">
         <v>1</v>
       </c>
       <c r="E16" s="134">
         <v>1</v>
       </c>
       <c r="F16" s="41">
-        <v>5.92</v>
+        <v>35.42</v>
       </c>
       <c r="G16" s="41">
-        <f t="shared" si="0"/>
-        <v>5.92</v>
+        <f>E16*F16</f>
+        <v>35.42</v>
       </c>
       <c r="H16" s="106">
         <v>1</v>
       </c>
       <c r="I16" s="58" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="J16" s="132" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="133"/>
-      <c r="L16" s="43"/>
+        <v>97</v>
+      </c>
+      <c r="L16" s="42"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="154">
-        <v>230</v>
-      </c>
-      <c r="D17" s="154">
-        <v>4</v>
+      <c r="B17" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="135"/>
+      <c r="D17" s="144">
+        <v>2</v>
       </c>
       <c r="E17" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="41">
-        <v>4</v>
+        <v>14.96</v>
       </c>
       <c r="G17" s="41">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>E17*F17</f>
+        <v>14.96</v>
       </c>
       <c r="H17" s="106">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I17" s="60" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J17" s="132" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>27</v>
+        <v>158</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="D18" s="27">
+        <v>94</v>
+      </c>
+      <c r="E18" s="134">
         <v>2</v>
       </c>
-      <c r="E18" s="134">
-        <v>1</v>
-      </c>
       <c r="F18" s="41">
-        <v>18.27</v>
+        <v>3</v>
       </c>
       <c r="G18" s="41">
-        <f t="shared" si="0"/>
-        <v>18.27</v>
+        <f>E18*F18</f>
+        <v>6</v>
       </c>
       <c r="H18" s="106">
-        <v>2</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="133"/>
-      <c r="L18" s="43"/>
+        <v>50</v>
+      </c>
+      <c r="I18" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="172" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="42"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="135"/>
-      <c r="D19" s="144">
-        <v>2</v>
+        <v>212</v>
+      </c>
+      <c r="D19" s="27">
+        <v>180</v>
       </c>
       <c r="E19" s="134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F19" s="41">
-        <v>14.96</v>
+        <v>3</v>
       </c>
       <c r="G19" s="41">
-        <f t="shared" si="0"/>
-        <v>14.96</v>
+        <f>E19*F19</f>
+        <v>12</v>
       </c>
       <c r="H19" s="106">
-        <v>10</v>
-      </c>
-      <c r="I19" s="60" t="s">
-        <v>64</v>
+        <v>50</v>
+      </c>
+      <c r="I19" s="58" t="s">
+        <v>213</v>
       </c>
       <c r="J19" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="L19" s="42"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="43"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>66</v>
+      <c r="A20" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="112" t="s">
+        <v>250</v>
       </c>
       <c r="C20" s="135"/>
-      <c r="D20" s="136">
-        <v>34</v>
+      <c r="D20" s="138">
+        <v>3</v>
       </c>
       <c r="E20" s="134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="41">
-        <v>5.49</v>
+        <v>42</v>
       </c>
       <c r="G20" s="41">
-        <f t="shared" si="0"/>
-        <v>21.96</v>
+        <f>E20*F20</f>
+        <v>126</v>
       </c>
       <c r="H20" s="106">
-        <v>10</v>
-      </c>
-      <c r="I20" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="132" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="J20" s="161" t="s">
+        <v>252</v>
       </c>
       <c r="L20" s="42"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>56</v>
+      <c r="A21" s="40" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="140">
-        <v>410</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="C21" s="140"/>
       <c r="D21" s="140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="41">
-        <v>4.07</v>
+        <v>38</v>
       </c>
       <c r="G21" s="41">
-        <f t="shared" si="0"/>
-        <v>4.07</v>
+        <f>E21*F21</f>
+        <v>76</v>
       </c>
       <c r="H21" s="106">
         <v>1</v>
       </c>
-      <c r="I21" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="J21" s="132" t="s">
-        <v>59</v>
+      <c r="I21" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="J21" s="161" t="s">
+        <v>252</v>
       </c>
       <c r="L21" s="42"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="135">
-        <v>286</v>
-      </c>
-      <c r="D22" s="136">
-        <v>2</v>
+      <c r="A22" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="139" t="s">
+        <v>255</v>
+      </c>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140">
+        <v>1</v>
       </c>
       <c r="E22" s="134">
         <v>1</v>
       </c>
       <c r="F22" s="41">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="G22" s="41">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>E22*F22</f>
+        <v>36</v>
       </c>
       <c r="H22" s="106">
-        <v>2</v>
-      </c>
-      <c r="I22" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="132" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="I22" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22" s="161" t="s">
+        <v>252</v>
       </c>
       <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="135">
-        <v>350</v>
-      </c>
-      <c r="D23" s="135">
+        <v>83</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="C23" s="135"/>
+      <c r="D23" s="136">
         <v>1</v>
       </c>
       <c r="E23" s="134">
         <v>1</v>
       </c>
       <c r="F23" s="41">
-        <v>70</v>
+        <v>10.62</v>
       </c>
       <c r="G23" s="41">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="H23" s="106">
-        <v>1</v>
-      </c>
-      <c r="I23" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="132" t="s">
-        <v>78</v>
+        <f>E23*F23</f>
+        <v>10.62</v>
+      </c>
+      <c r="H23" s="130">
+        <v>1</v>
+      </c>
+      <c r="I23" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="J23" s="166" t="s">
+        <v>271</v>
       </c>
       <c r="L23" s="42"/>
     </row>
@@ -6894,75 +6870,74 @@
       <c r="A24" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="135"/>
-      <c r="D24" s="135">
+      <c r="B24" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113">
         <v>1</v>
       </c>
       <c r="E24" s="134">
         <v>1</v>
       </c>
       <c r="F24" s="41">
-        <v>39.520000000000003</v>
+        <v>3.95</v>
       </c>
       <c r="G24" s="41">
-        <f t="shared" si="0"/>
-        <v>39.520000000000003</v>
-      </c>
-      <c r="H24" s="130">
+        <f>E24*F24</f>
+        <v>3.95</v>
+      </c>
+      <c r="H24" s="106">
         <v>1</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
       <c r="J24" s="132" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145">
-        <v>1</v>
-      </c>
-      <c r="E25" s="146">
-        <v>1</v>
-      </c>
-      <c r="F25" s="147">
-        <v>68</v>
-      </c>
-      <c r="G25" s="147">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="H25" s="107">
-        <v>1</v>
-      </c>
-      <c r="I25" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="167" t="s">
-        <v>86</v>
-      </c>
-      <c r="K25" s="145"/>
-      <c r="L25" s="47"/>
+      <c r="A25" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="141" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="135"/>
+      <c r="D25" s="113">
+        <v>1</v>
+      </c>
+      <c r="E25" s="134">
+        <v>1</v>
+      </c>
+      <c r="F25" s="41">
+        <v>11.5</v>
+      </c>
+      <c r="G25" s="41">
+        <f>E25*F25</f>
+        <v>11.5</v>
+      </c>
+      <c r="H25" s="106">
+        <v>1</v>
+      </c>
+      <c r="I25" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="135"/>
+      <c r="B26" s="113" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="141"/>
       <c r="D26" s="135">
         <v>1</v>
       </c>
@@ -6970,318 +6945,332 @@
         <v>1</v>
       </c>
       <c r="F26" s="41">
-        <v>12.07</v>
+        <v>16.82</v>
       </c>
       <c r="G26" s="41">
-        <f t="shared" si="0"/>
-        <v>12.07</v>
+        <f>E26*F26</f>
+        <v>16.82</v>
       </c>
       <c r="H26" s="106">
         <v>1</v>
       </c>
       <c r="I26" s="57" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J26" s="132" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="27">
-        <v>2</v>
+      <c r="A27" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150">
+        <v>1</v>
       </c>
       <c r="E27" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="41">
-        <v>5.07</v>
+        <v>30.61</v>
       </c>
       <c r="G27" s="41">
-        <f t="shared" si="0"/>
-        <v>10.14</v>
-      </c>
-      <c r="H27" s="130">
+        <f>E27*F27</f>
+        <v>30.61</v>
+      </c>
+      <c r="H27" s="106">
         <v>1</v>
       </c>
       <c r="I27" s="57" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="J27" s="132" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="113" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="135">
-        <v>1</v>
+      <c r="A28" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="139" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="140"/>
+      <c r="D28" s="133">
+        <v>6</v>
       </c>
       <c r="E28" s="134">
         <v>1</v>
       </c>
       <c r="F28" s="41">
-        <v>16.82</v>
+        <v>10.36</v>
       </c>
       <c r="G28" s="41">
-        <f t="shared" si="0"/>
-        <v>16.82</v>
+        <f>E28*F28</f>
+        <v>10.36</v>
       </c>
       <c r="H28" s="106">
-        <v>1</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>93</v>
+        <v>20</v>
+      </c>
+      <c r="I28" s="58" t="s">
+        <v>32</v>
       </c>
       <c r="J28" s="132" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="42"/>
+        <v>33</v>
+      </c>
+      <c r="K28" s="133"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="111" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="B29" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="135"/>
+      <c r="D29" s="133">
+        <v>6</v>
       </c>
       <c r="E29" s="134">
         <v>1</v>
       </c>
       <c r="F29" s="41">
-        <v>35.42</v>
+        <v>11.78</v>
       </c>
       <c r="G29" s="41">
-        <f t="shared" si="0"/>
-        <v>35.42</v>
+        <f>E29*F29</f>
+        <v>11.78</v>
       </c>
       <c r="H29" s="106">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I29" s="58" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="J29" s="132" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="42"/>
+        <v>33</v>
+      </c>
+      <c r="K29" s="133"/>
+      <c r="L29" s="43"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="A30" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="139" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="140"/>
+      <c r="D30" s="133">
+        <v>4</v>
+      </c>
+      <c r="E30" s="134">
         <v>1</v>
       </c>
       <c r="F30" s="41">
-        <v>10.32</v>
+        <v>10.08</v>
       </c>
       <c r="G30" s="41">
-        <f t="shared" si="0"/>
-        <v>10.32</v>
+        <f>E30*F30</f>
+        <v>10.08</v>
       </c>
       <c r="H30" s="106">
-        <v>1</v>
-      </c>
-      <c r="I30" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="J30" s="164" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30"/>
-      <c r="L30" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="133"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="135"/>
-      <c r="D31" s="140">
-        <v>5</v>
+      <c r="A31" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="139" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="140"/>
+      <c r="D31" s="133">
+        <v>8</v>
       </c>
       <c r="E31" s="134">
         <v>1</v>
       </c>
       <c r="F31" s="41">
-        <v>18.79</v>
+        <v>12.42</v>
       </c>
       <c r="G31" s="41">
-        <f t="shared" si="0"/>
-        <v>18.79</v>
+        <f>E31*F31</f>
+        <v>12.42</v>
       </c>
       <c r="H31" s="106">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I31" s="58" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="J31" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="L31" s="42"/>
+        <v>33</v>
+      </c>
+      <c r="K31" s="133"/>
+      <c r="L31" s="43"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="135"/>
-      <c r="D32" s="133">
-        <v>2</v>
+      <c r="A32" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="154">
+        <v>420</v>
+      </c>
+      <c r="D32" s="27">
+        <v>4</v>
       </c>
       <c r="E32" s="134">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="41">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G32" s="41">
-        <f t="shared" si="0"/>
+        <f>E32*F32</f>
+        <v>60</v>
+      </c>
+      <c r="H32" s="106">
+        <v>1</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="J32" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" s="42"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="C33" s="154">
+        <v>420</v>
+      </c>
+      <c r="D33" s="27">
+        <v>1</v>
+      </c>
+      <c r="E33" s="134">
+        <v>1</v>
+      </c>
+      <c r="F33" s="41">
+        <v>12</v>
+      </c>
+      <c r="G33" s="41">
+        <f>E33*F33</f>
+        <v>12</v>
+      </c>
+      <c r="H33" s="106">
+        <v>1</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="L33" s="42"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="C34" s="154">
+        <v>480</v>
+      </c>
+      <c r="D34" s="27">
         <v>4</v>
       </c>
-      <c r="H32" s="106">
-        <v>1</v>
-      </c>
-      <c r="I32" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="J32" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="L32" s="42"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="142" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="135"/>
-      <c r="D33" s="133">
-        <v>3</v>
-      </c>
-      <c r="E33" s="134">
-        <v>3</v>
-      </c>
-      <c r="F33" s="41">
+      <c r="E34" s="134">
+        <v>4</v>
+      </c>
+      <c r="F34" s="41">
         <v>16</v>
       </c>
-      <c r="G33" s="41">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H33" s="106">
-        <v>1</v>
-      </c>
-      <c r="I33" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="J33" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="L33" s="42"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="140" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="133">
-        <v>6</v>
-      </c>
-      <c r="E34" s="134">
-        <v>1</v>
-      </c>
-      <c r="F34" s="41">
-        <v>12</v>
-      </c>
       <c r="G34" s="41">
-        <f t="shared" ref="G34:G65" si="1">E34*F34</f>
-        <v>12</v>
+        <f>E34*F34</f>
+        <v>64</v>
       </c>
       <c r="H34" s="106">
-        <v>10</v>
-      </c>
-      <c r="I34" s="58" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="I34" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="J34" s="132" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="L34" s="42"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="143" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="135"/>
-      <c r="D35" s="140">
-        <v>4</v>
+        <v>281</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="C35" s="154">
+        <v>368</v>
+      </c>
+      <c r="D35" s="27">
+        <v>1</v>
       </c>
       <c r="E35" s="134">
         <v>1</v>
       </c>
       <c r="F35" s="41">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G35" s="41">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f>E35*F35</f>
+        <v>11</v>
       </c>
       <c r="H35" s="106">
-        <v>5</v>
-      </c>
-      <c r="I35" s="58" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="J35" s="132" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="L35" s="42"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>113</v>
+        <v>288</v>
+      </c>
+      <c r="C36" s="154">
+        <v>172</v>
       </c>
       <c r="D36" s="27">
         <v>1</v>
@@ -7290,147 +7279,149 @@
         <v>1</v>
       </c>
       <c r="F36" s="41">
-        <v>3.35</v>
+        <v>9</v>
       </c>
       <c r="G36" s="41">
-        <f t="shared" si="1"/>
-        <v>3.35</v>
+        <f>E36*F36</f>
+        <v>9</v>
       </c>
       <c r="H36" s="106">
-        <v>2</v>
-      </c>
-      <c r="I36" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" s="165" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="I36" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="J36" s="132" t="s">
+        <v>280</v>
       </c>
       <c r="L36" s="42"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="27">
-        <v>1</v>
-      </c>
-      <c r="E37" s="134">
-        <v>1</v>
-      </c>
-      <c r="F37" s="41">
-        <v>3.25</v>
-      </c>
-      <c r="G37" s="41">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
+        <v>277</v>
+      </c>
+      <c r="B37" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="178">
+        <v>750</v>
+      </c>
+      <c r="D37" s="180">
+        <v>4</v>
+      </c>
+      <c r="E37" s="182">
+        <v>4</v>
+      </c>
+      <c r="F37" s="183">
+        <v>40</v>
+      </c>
+      <c r="G37" s="183">
+        <f>E37*F37</f>
+        <v>160</v>
       </c>
       <c r="H37" s="106">
-        <v>2</v>
-      </c>
-      <c r="I37" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" s="165" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="I37" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="J37" s="132" t="s">
+        <v>280</v>
       </c>
       <c r="L37" s="42"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="111" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="136"/>
+        <v>56</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="135"/>
       <c r="D38" s="136">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E38" s="134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38" s="41">
-        <v>3.92</v>
+        <v>5.49</v>
       </c>
       <c r="G38" s="41">
-        <f t="shared" si="1"/>
-        <v>3.92</v>
+        <f>E38*F38</f>
+        <v>21.96</v>
       </c>
       <c r="H38" s="106">
-        <v>1</v>
-      </c>
-      <c r="I38" s="57" t="s">
-        <v>91</v>
+        <v>10</v>
+      </c>
+      <c r="I38" s="60" t="s">
+        <v>67</v>
       </c>
       <c r="J38" s="132" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L38" s="42"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" s="135"/>
-      <c r="D39" s="135">
+        <v>23</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="133">
         <v>1</v>
       </c>
       <c r="E39" s="134">
         <v>1</v>
       </c>
       <c r="F39" s="41">
-        <v>13.9</v>
+        <v>4.34</v>
       </c>
       <c r="G39" s="41">
-        <f t="shared" si="1"/>
-        <v>13.9</v>
+        <f>E39*F39</f>
+        <v>4.34</v>
       </c>
       <c r="H39" s="106">
         <v>1</v>
       </c>
       <c r="I39" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="J39" s="132" t="s">
-        <v>121</v>
+        <v>25</v>
+      </c>
+      <c r="J39" s="160" t="s">
+        <v>26</v>
       </c>
       <c r="L39" s="42"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="32">
-        <v>1</v>
-      </c>
-      <c r="E40" s="32">
+        <v>79</v>
+      </c>
+      <c r="B40" s="112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="135"/>
+      <c r="D40" s="133">
+        <v>1</v>
+      </c>
+      <c r="E40" s="134">
         <v>1</v>
       </c>
       <c r="F40" s="41">
-        <v>18</v>
+        <v>78.39</v>
       </c>
       <c r="G40" s="41">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>E40*F40</f>
+        <v>78.39</v>
       </c>
       <c r="H40" s="106">
         <v>1</v>
       </c>
-      <c r="I40" s="58" t="s">
-        <v>123</v>
+      <c r="I40" s="57" t="s">
+        <v>126</v>
       </c>
       <c r="J40" s="132" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L40" s="42"/>
     </row>
@@ -7438,1099 +7429,1080 @@
       <c r="A41" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="112" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="135"/>
-      <c r="D41" s="133">
+      <c r="B41" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="27">
         <v>1</v>
       </c>
       <c r="E41" s="134">
         <v>1</v>
       </c>
       <c r="F41" s="41">
-        <v>78.39</v>
+        <v>3.35</v>
       </c>
       <c r="G41" s="41">
-        <f t="shared" si="1"/>
-        <v>78.39</v>
+        <f>E41*F41</f>
+        <v>3.35</v>
       </c>
       <c r="H41" s="106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="J41" s="132" t="s">
-        <v>127</v>
+        <v>114</v>
+      </c>
+      <c r="J41" s="163" t="s">
+        <v>115</v>
       </c>
       <c r="L41" s="42"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="148" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="150">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="B42" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="27">
+        <v>1</v>
       </c>
       <c r="E42" s="134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" s="41">
-        <v>2.23</v>
+        <v>3.25</v>
       </c>
       <c r="G42" s="41">
-        <f t="shared" si="1"/>
-        <v>6.6899999999999995</v>
+        <f>E42*F42</f>
+        <v>3.25</v>
       </c>
       <c r="H42" s="106">
-        <v>1</v>
-      </c>
-      <c r="I42" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" s="162" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" s="163" t="s">
+        <v>115</v>
       </c>
       <c r="L42" s="42"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B43" s="148" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="149"/>
-      <c r="D43" s="150">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="32">
+        <v>1</v>
+      </c>
+      <c r="E43" s="32">
+        <v>1</v>
+      </c>
+      <c r="F43" s="41">
+        <v>18</v>
+      </c>
+      <c r="G43" s="41">
+        <f>E43*F43</f>
+        <v>18</v>
+      </c>
+      <c r="H43" s="106">
+        <v>1</v>
+      </c>
+      <c r="I43" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" s="42"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="135"/>
+      <c r="D44" s="136">
         <v>3</v>
       </c>
-      <c r="E43" s="134">
-        <v>3</v>
-      </c>
-      <c r="F43" s="41">
-        <v>2.27</v>
-      </c>
-      <c r="G43" s="41">
-        <f t="shared" si="1"/>
-        <v>6.8100000000000005</v>
-      </c>
-      <c r="H43" s="106">
-        <v>1</v>
-      </c>
-      <c r="I43" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="J43" s="162" t="s">
-        <v>131</v>
-      </c>
-      <c r="L43" s="42"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B44" s="135" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136">
-        <v>1</v>
-      </c>
       <c r="E44" s="134">
         <v>1</v>
       </c>
       <c r="F44" s="41">
-        <v>12.69</v>
+        <v>5.4</v>
       </c>
       <c r="G44" s="41">
-        <f t="shared" si="1"/>
-        <v>12.69</v>
+        <f>E44*F44</f>
+        <v>5.4</v>
       </c>
       <c r="H44" s="106">
-        <v>1</v>
-      </c>
-      <c r="I44" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="J44" s="162" t="s">
-        <v>136</v>
+        <v>20</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="132" t="s">
+        <v>124</v>
       </c>
       <c r="L44" s="42"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B45" s="151" t="s">
-        <v>137</v>
-      </c>
-      <c r="C45" s="150"/>
-      <c r="D45" s="150">
+      <c r="A45" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="69" t="s">
+        <v>265</v>
+      </c>
+      <c r="C45" s="135"/>
+      <c r="D45" s="136">
         <v>1</v>
       </c>
       <c r="E45" s="134">
         <v>1</v>
       </c>
       <c r="F45" s="41">
-        <v>13.87</v>
+        <v>1.48</v>
       </c>
       <c r="G45" s="41">
-        <f t="shared" si="1"/>
-        <v>13.87</v>
-      </c>
-      <c r="H45" s="106">
-        <v>1</v>
-      </c>
-      <c r="I45" s="57" t="s">
-        <v>138</v>
+        <f>E45*F45</f>
+        <v>1.48</v>
+      </c>
+      <c r="H45" s="130">
+        <v>1</v>
+      </c>
+      <c r="I45" s="58" t="s">
+        <v>266</v>
       </c>
       <c r="J45" s="132" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L45" s="42"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" s="151" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="150"/>
-      <c r="D46" s="150">
+      <c r="A46" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C46" s="135"/>
+      <c r="D46" s="136">
         <v>1</v>
       </c>
       <c r="E46" s="134">
         <v>1</v>
       </c>
       <c r="F46" s="41">
-        <v>30.61</v>
+        <v>2.17</v>
       </c>
       <c r="G46" s="41">
-        <f t="shared" si="1"/>
-        <v>30.61</v>
-      </c>
-      <c r="H46" s="106">
-        <v>1</v>
-      </c>
-      <c r="I46" s="57" t="s">
-        <v>141</v>
+        <f>E46*F46</f>
+        <v>2.17</v>
+      </c>
+      <c r="H46" s="130">
+        <v>1</v>
+      </c>
+      <c r="I46" s="58" t="s">
+        <v>268</v>
       </c>
       <c r="J46" s="132" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="L46" s="42"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="148" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="149"/>
-      <c r="D47" s="150">
+        <v>79</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135">
         <v>1</v>
       </c>
       <c r="E47" s="134">
         <v>1</v>
       </c>
       <c r="F47" s="41">
-        <v>44</v>
+        <v>39.520000000000003</v>
       </c>
       <c r="G47" s="41">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="H47" s="106">
+        <f>E47*F47</f>
+        <v>39.520000000000003</v>
+      </c>
+      <c r="H47" s="130">
         <v>1</v>
       </c>
       <c r="I47" s="57" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="J47" s="132" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="L47" s="42"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="151" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150">
-        <v>1</v>
+      <c r="A48" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="135"/>
+      <c r="D48" s="27">
+        <v>2</v>
       </c>
       <c r="E48" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" s="41">
-        <v>30</v>
+        <v>5.07</v>
       </c>
       <c r="G48" s="41">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H48" s="106">
+        <f>E48*F48</f>
+        <v>10.14</v>
+      </c>
+      <c r="H48" s="130">
         <v>1</v>
       </c>
       <c r="I48" s="57" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="J48" s="132" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="L48" s="42"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="148" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="149"/>
-      <c r="D49" s="150">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="B49" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136">
+        <v>1</v>
       </c>
       <c r="E49" s="134">
         <v>1</v>
       </c>
       <c r="F49" s="41">
-        <v>9.42</v>
+        <v>3.92</v>
       </c>
       <c r="G49" s="41">
-        <f t="shared" si="1"/>
-        <v>9.42</v>
+        <f>E49*F49</f>
+        <v>3.92</v>
       </c>
       <c r="H49" s="106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I49" s="57" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="J49" s="132" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="L49" s="42"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="148" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="149"/>
-      <c r="D50" s="150">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="B50" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135">
+        <v>1</v>
       </c>
       <c r="E50" s="134">
         <v>1</v>
       </c>
       <c r="F50" s="41">
-        <v>8.07</v>
+        <v>12.4</v>
       </c>
       <c r="G50" s="41">
-        <f t="shared" si="1"/>
-        <v>8.07</v>
+        <f>E50*F50</f>
+        <v>12.4</v>
       </c>
       <c r="H50" s="106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="57" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="J50" s="132" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="L50" s="42"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="B51" s="113" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113">
-        <v>1</v>
-      </c>
-      <c r="E51" s="134">
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" s="41">
-        <v>3.95</v>
+        <v>10.32</v>
       </c>
       <c r="G51" s="41">
-        <f t="shared" si="1"/>
-        <v>3.95</v>
+        <f>E51*F51</f>
+        <v>10.32</v>
       </c>
       <c r="H51" s="106">
         <v>1</v>
       </c>
       <c r="I51" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="J51" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="L51" s="42"/>
+        <v>99</v>
+      </c>
+      <c r="J51" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="141" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="135"/>
-      <c r="D52" s="113">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="27">
+        <v>2</v>
       </c>
       <c r="E52" s="134">
         <v>1</v>
       </c>
       <c r="F52" s="41">
-        <v>11.5</v>
+        <v>18.27</v>
       </c>
       <c r="G52" s="41">
-        <f t="shared" si="1"/>
-        <v>11.5</v>
+        <f>E52*F52</f>
+        <v>18.27</v>
       </c>
       <c r="H52" s="106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="57" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="J52" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="L52" s="42"/>
+        <v>62</v>
+      </c>
+      <c r="K52" s="133"/>
+      <c r="L52" s="43"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="27">
-        <v>94</v>
+      <c r="A53" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150">
+        <v>1</v>
       </c>
       <c r="E53" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F53" s="41">
-        <v>3</v>
+        <v>13.87</v>
       </c>
       <c r="G53" s="41">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>E53*F53</f>
+        <v>13.87</v>
       </c>
       <c r="H53" s="106">
-        <v>50</v>
-      </c>
-      <c r="I53" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="J53" s="177" t="s">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="I53" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="J53" s="132" t="s">
+        <v>139</v>
       </c>
       <c r="L53" s="42"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="27">
-        <v>38</v>
+        <v>257</v>
+      </c>
+      <c r="C54" s="135"/>
+      <c r="D54" s="136">
+        <v>1</v>
       </c>
       <c r="E54" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="41">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="G54" s="41">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H54" s="106">
-        <v>25</v>
+        <f>E54*F54</f>
+        <v>48</v>
+      </c>
+      <c r="H54" s="130">
+        <v>1</v>
       </c>
       <c r="I54" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="J54" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K54" s="27">
-        <v>934</v>
+        <v>258</v>
+      </c>
+      <c r="J54" s="132" t="s">
+        <v>259</v>
       </c>
       <c r="L54" s="42"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="28"/>
-      <c r="D55" s="133">
-        <v>11</v>
+        <v>102</v>
+      </c>
+      <c r="C55" s="135"/>
+      <c r="D55" s="140">
+        <v>5</v>
       </c>
       <c r="E55" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" s="41">
-        <v>1</v>
+        <v>18.79</v>
       </c>
       <c r="G55" s="41">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>E55*F55</f>
+        <v>18.79</v>
       </c>
       <c r="H55" s="106">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I55" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="J55" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K55" s="133">
-        <v>985</v>
-      </c>
-      <c r="L55" s="43"/>
+        <v>103</v>
+      </c>
+      <c r="J55" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="L55" s="42"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B56" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="137"/>
+        <v>101</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="135"/>
       <c r="D56" s="133">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E56" s="134">
         <v>2</v>
       </c>
       <c r="F56" s="41">
-        <v>2.0099999999999998</v>
+        <v>2</v>
       </c>
       <c r="G56" s="41">
-        <f t="shared" si="1"/>
-        <v>4.0199999999999996</v>
+        <f>E56*F56</f>
+        <v>4</v>
       </c>
       <c r="H56" s="106">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I56" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="J56" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="27">
-        <v>125</v>
+        <v>106</v>
+      </c>
+      <c r="J56" s="132" t="s">
+        <v>104</v>
       </c>
       <c r="L56" s="42"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="27">
-        <v>7</v>
+      <c r="A57" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="142" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="135"/>
+      <c r="D57" s="133">
+        <v>3</v>
       </c>
       <c r="E57" s="134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" s="41">
-        <v>2.06</v>
+        <v>16</v>
       </c>
       <c r="G57" s="41">
-        <f t="shared" si="1"/>
-        <v>2.06</v>
+        <f>E57*F57</f>
+        <v>48</v>
       </c>
       <c r="H57" s="106">
-        <v>50</v>
-      </c>
-      <c r="I57" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="J57" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K57" s="27">
-        <v>913</v>
+        <v>1</v>
+      </c>
+      <c r="I57" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" s="132" t="s">
+        <v>104</v>
       </c>
       <c r="L57" s="42"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="135"/>
-      <c r="D58" s="27">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="B58" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="140"/>
+      <c r="D58" s="133">
+        <v>6</v>
       </c>
       <c r="E58" s="134">
         <v>1</v>
       </c>
       <c r="F58" s="41">
-        <v>2.74</v>
+        <v>12</v>
       </c>
       <c r="G58" s="41">
-        <f t="shared" si="1"/>
-        <v>2.74</v>
-      </c>
-      <c r="H58" s="130">
-        <v>20</v>
-      </c>
-      <c r="I58" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="J58" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K58" s="27">
-        <v>916</v>
+        <f>E58*F58</f>
+        <v>12</v>
+      </c>
+      <c r="H58" s="106">
+        <v>10</v>
+      </c>
+      <c r="I58" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="J58" s="132" t="s">
+        <v>104</v>
       </c>
       <c r="L58" s="42"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="C59" s="137"/>
-      <c r="D59" s="27">
-        <v>8</v>
+        <v>101</v>
+      </c>
+      <c r="B59" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="135"/>
+      <c r="D59" s="140">
+        <v>4</v>
       </c>
       <c r="E59" s="134">
         <v>1</v>
       </c>
       <c r="F59" s="41">
-        <v>2.2599999999999998</v>
+        <v>25</v>
       </c>
       <c r="G59" s="41">
-        <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <f>E59*F59</f>
+        <v>25</v>
       </c>
       <c r="H59" s="106">
-        <v>25</v>
-      </c>
-      <c r="I59" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="J59" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K59" s="133"/>
-      <c r="L59" s="43">
-        <v>7380</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="I59" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59" s="132" t="s">
+        <v>104</v>
+      </c>
+      <c r="L59" s="42"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="27">
-        <v>16</v>
+      <c r="A60" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="135">
+        <v>286</v>
+      </c>
+      <c r="D60" s="136">
+        <v>2</v>
       </c>
       <c r="E60" s="134">
         <v>1</v>
       </c>
       <c r="F60" s="41">
-        <v>2.2599999999999998</v>
+        <v>18</v>
       </c>
       <c r="G60" s="41">
-        <f t="shared" si="1"/>
-        <v>2.2599999999999998</v>
+        <f>E60*F60</f>
+        <v>18</v>
       </c>
       <c r="H60" s="106">
-        <v>25</v>
-      </c>
-      <c r="I60" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="J60" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K60" s="27">
-        <v>7991</v>
+        <v>2</v>
+      </c>
+      <c r="I60" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="J60" s="132" t="s">
+        <v>74</v>
       </c>
       <c r="L60" s="42"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" s="137"/>
-      <c r="D61" s="27">
-        <v>112</v>
+        <v>79</v>
+      </c>
+      <c r="B61" s="139" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="135"/>
+      <c r="D61" s="140">
+        <v>3</v>
       </c>
       <c r="E61" s="134">
+        <v>1</v>
+      </c>
+      <c r="F61" s="41">
+        <v>46</v>
+      </c>
+      <c r="G61" s="41">
+        <f>E61*F61</f>
+        <v>46</v>
+      </c>
+      <c r="H61" s="106">
         <v>3</v>
       </c>
-      <c r="F61" s="41">
+      <c r="I61" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="J61" s="161" t="s">
+        <v>262</v>
+      </c>
+      <c r="L61" s="42"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="139" t="s">
+        <v>263</v>
+      </c>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140">
         <v>2</v>
       </c>
-      <c r="G61" s="41">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H61" s="106">
-        <v>10</v>
-      </c>
-      <c r="I61" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="J61" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K61" s="27">
-        <v>912</v>
-      </c>
-      <c r="L61" s="42"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="137" t="s">
-        <v>178</v>
-      </c>
-      <c r="C62" s="137"/>
-      <c r="D62" s="27">
-        <v>38</v>
-      </c>
       <c r="E62" s="134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F62" s="41">
-        <v>2.83</v>
+        <v>22.5</v>
       </c>
       <c r="G62" s="41">
-        <f t="shared" si="1"/>
-        <v>14.15</v>
+        <f>E62*F62</f>
+        <v>45</v>
       </c>
       <c r="H62" s="106">
-        <v>10</v>
-      </c>
-      <c r="I62" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="J62" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K62" s="133">
-        <v>912</v>
-      </c>
-      <c r="L62" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="J62" s="161" t="s">
+        <v>262</v>
+      </c>
+      <c r="L62" s="42"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="40" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C63" s="135"/>
-      <c r="D63" s="27">
-        <v>6</v>
+        <v>242</v>
+      </c>
+      <c r="C63" s="136"/>
+      <c r="D63" s="133">
+        <v>4</v>
       </c>
       <c r="E63" s="134">
         <v>1</v>
       </c>
       <c r="F63" s="41">
-        <v>2.34</v>
+        <v>9</v>
       </c>
       <c r="G63" s="41">
-        <f t="shared" si="1"/>
-        <v>2.34</v>
-      </c>
-      <c r="H63" s="130">
-        <v>25</v>
-      </c>
-      <c r="I63" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="J63" s="165" t="s">
+        <f>E63*F63</f>
+        <v>9</v>
+      </c>
+      <c r="H63" s="106">
+        <v>10</v>
+      </c>
+      <c r="I63" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="J63" s="132" t="s">
+        <v>244</v>
+      </c>
+      <c r="K63" s="164"/>
+      <c r="L63" s="42"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="149"/>
+      <c r="D64" s="150">
+        <v>1</v>
+      </c>
+      <c r="E64" s="134">
+        <v>1</v>
+      </c>
+      <c r="F64" s="41">
+        <v>44</v>
+      </c>
+      <c r="G64" s="41">
+        <f>E64*F64</f>
+        <v>44</v>
+      </c>
+      <c r="H64" s="106">
+        <v>1</v>
+      </c>
+      <c r="I64" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64" s="132" t="s">
+        <v>145</v>
+      </c>
+      <c r="L64" s="42"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="C65" s="150"/>
+      <c r="D65" s="150">
+        <v>1</v>
+      </c>
+      <c r="E65" s="134">
+        <v>1</v>
+      </c>
+      <c r="F65" s="41">
+        <v>30</v>
+      </c>
+      <c r="G65" s="41">
+        <f>E65*F65</f>
+        <v>30</v>
+      </c>
+      <c r="H65" s="106">
+        <v>1</v>
+      </c>
+      <c r="I65" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="J65" s="132" t="s">
+        <v>145</v>
+      </c>
+      <c r="L65" s="42"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" s="135">
+        <v>350</v>
+      </c>
+      <c r="D66" s="135">
+        <v>1</v>
+      </c>
+      <c r="E66" s="134">
+        <v>1</v>
+      </c>
+      <c r="F66" s="41">
+        <v>70</v>
+      </c>
+      <c r="G66" s="41">
+        <f>E66*F66</f>
+        <v>70</v>
+      </c>
+      <c r="H66" s="106">
+        <v>1</v>
+      </c>
+      <c r="I66" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="J66" s="132" t="s">
+        <v>78</v>
+      </c>
+      <c r="L66" s="42"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="133">
+        <v>1</v>
+      </c>
+      <c r="E67" s="134">
+        <v>1</v>
+      </c>
+      <c r="F67" s="41">
+        <v>2.84</v>
+      </c>
+      <c r="G67" s="41">
+        <f>E67*F67</f>
+        <v>2.84</v>
+      </c>
+      <c r="H67" s="106">
+        <v>10</v>
+      </c>
+      <c r="I67" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="L63" s="42"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="27">
-        <v>10</v>
-      </c>
-      <c r="E64" s="134">
-        <v>2.91</v>
-      </c>
-      <c r="F64" s="41">
-        <v>2</v>
-      </c>
-      <c r="G64" s="41">
-        <f t="shared" si="1"/>
-        <v>5.82</v>
-      </c>
-      <c r="H64" s="106">
-        <v>10</v>
-      </c>
-      <c r="I64" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="J64" s="165" t="s">
+      <c r="K67" s="133"/>
+      <c r="L67" s="43"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="137"/>
+      <c r="D68" s="133">
+        <v>32</v>
+      </c>
+      <c r="E68" s="134">
+        <v>1</v>
+      </c>
+      <c r="F68" s="41">
+        <v>3.26</v>
+      </c>
+      <c r="G68" s="41">
+        <f>E68*F68</f>
+        <v>3.26</v>
+      </c>
+      <c r="H68" s="106">
+        <v>50</v>
+      </c>
+      <c r="I68" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="K64" s="27">
-        <v>912</v>
-      </c>
-      <c r="L64" s="42"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="C65" s="135"/>
-      <c r="D65" s="27">
-        <v>1</v>
-      </c>
-      <c r="E65" s="134">
-        <v>1</v>
-      </c>
-      <c r="F65" s="41">
-        <v>3.05</v>
-      </c>
-      <c r="G65" s="41">
-        <f t="shared" si="1"/>
-        <v>3.05</v>
-      </c>
-      <c r="H65" s="130">
-        <v>25</v>
-      </c>
-      <c r="I65" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="J65" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="42"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="28"/>
-      <c r="D66" s="27">
-        <v>7</v>
-      </c>
-      <c r="E66" s="134">
-        <v>1</v>
-      </c>
-      <c r="F66" s="41">
-        <v>3</v>
-      </c>
-      <c r="G66" s="41">
-        <f t="shared" ref="G66:G97" si="2">E66*F66</f>
-        <v>3</v>
-      </c>
-      <c r="H66" s="106">
-        <v>10</v>
-      </c>
-      <c r="I66" s="60" t="s">
-        <v>187</v>
-      </c>
-      <c r="J66" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K66" s="27">
-        <v>912</v>
-      </c>
-      <c r="L66" s="42">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="27">
-        <v>6</v>
-      </c>
-      <c r="E67" s="134">
-        <v>1</v>
-      </c>
-      <c r="F67" s="41">
-        <v>1</v>
-      </c>
-      <c r="G67" s="41">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H67" s="106">
-        <v>25</v>
-      </c>
-      <c r="I67" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="J67" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K67" s="133">
-        <v>934</v>
-      </c>
-      <c r="L67" s="43"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="27">
-        <v>3</v>
-      </c>
-      <c r="E68" s="134">
-        <v>2</v>
-      </c>
-      <c r="F68" s="41">
-        <v>1</v>
-      </c>
-      <c r="G68" s="41">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H68" s="106">
-        <v>10</v>
-      </c>
-      <c r="I68" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="J68" s="165" t="s">
-        <v>15</v>
-      </c>
       <c r="K68" s="27">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="L68" s="42">
-        <v>10511</v>
+        <v>10642</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="27">
-        <v>13</v>
+      <c r="A69" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" s="102" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="133">
+        <v>36</v>
       </c>
       <c r="E69" s="134">
         <v>1</v>
       </c>
       <c r="F69" s="41">
-        <v>2.5</v>
+        <v>2.87</v>
       </c>
       <c r="G69" s="41">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f>E69*F69</f>
+        <v>2.87</v>
       </c>
       <c r="H69" s="106">
         <v>50</v>
       </c>
-      <c r="I69" s="58" t="s">
-        <v>193</v>
-      </c>
-      <c r="J69" s="165" t="s">
+      <c r="I69" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="133">
-        <v>25</v>
-      </c>
-      <c r="L69" s="43"/>
+      <c r="K69" s="27">
+        <v>988</v>
+      </c>
+      <c r="L69" s="42">
+        <v>7380</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="C70" s="135"/>
-      <c r="D70" s="136">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="133">
+        <v>2</v>
       </c>
       <c r="E70" s="134">
         <v>1</v>
       </c>
       <c r="F70" s="41">
-        <v>5.4</v>
+        <v>2.84</v>
       </c>
       <c r="G70" s="41">
-        <f t="shared" si="2"/>
-        <v>5.4</v>
+        <f>E70*F70</f>
+        <v>2.84</v>
       </c>
       <c r="H70" s="106">
-        <v>20</v>
-      </c>
-      <c r="I70" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="J70" s="132" t="s">
-        <v>124</v>
+        <v>50</v>
+      </c>
+      <c r="I70" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="J70" s="160" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="164">
+        <v>988</v>
       </c>
       <c r="L70" s="42"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="112" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="135"/>
+      <c r="A71" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>161</v>
+      </c>
       <c r="D71" s="27">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E71" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="41">
-        <v>2.2599999999999998</v>
+        <v>1</v>
       </c>
       <c r="G71" s="41">
-        <f t="shared" si="2"/>
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="H71" s="130">
-        <v>10</v>
-      </c>
-      <c r="I71" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="J71" s="165" t="s">
+        <f>E71*F71</f>
+        <v>2</v>
+      </c>
+      <c r="H71" s="106">
+        <v>25</v>
+      </c>
+      <c r="I71" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="J71" s="163" t="s">
         <v>15</v>
+      </c>
+      <c r="K71" s="27">
+        <v>934</v>
       </c>
       <c r="L71" s="42"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="C72" s="135"/>
-      <c r="D72" s="27">
-        <v>3</v>
+        <v>158</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" s="28"/>
+      <c r="D72" s="133">
+        <v>11</v>
       </c>
       <c r="E72" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="41">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G72" s="41">
-        <f t="shared" si="2"/>
-        <v>1.2</v>
+        <f>E72*F72</f>
+        <v>2</v>
       </c>
       <c r="H72" s="106">
-        <v>20</v>
-      </c>
-      <c r="I72" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="J72" s="165" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="J72" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K72" s="27">
-        <v>912</v>
-      </c>
-      <c r="L72" s="42"/>
+      <c r="K72" s="133">
+        <v>985</v>
+      </c>
+      <c r="L72" s="43"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="28"/>
-      <c r="D73" s="27">
-        <v>6</v>
+      <c r="A73" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="137"/>
+      <c r="D73" s="133">
+        <v>60</v>
       </c>
       <c r="E73" s="134">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F73" s="41">
-        <v>1.21</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="G73" s="41">
-        <f t="shared" si="2"/>
-        <v>7.26</v>
+        <f>E73*F73</f>
+        <v>4.0199999999999996</v>
       </c>
       <c r="H73" s="106">
-        <v>1</v>
-      </c>
-      <c r="I73" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="J73" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="J73" s="163" t="s">
         <v>15</v>
+      </c>
+      <c r="K73" s="27">
+        <v>125</v>
       </c>
       <c r="L73" s="42"/>
     </row>
@@ -8539,1329 +8511,1350 @@
         <v>168</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="D74" s="27">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E74" s="134">
         <v>1</v>
       </c>
       <c r="F74" s="41">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="G74" s="41">
-        <f t="shared" si="2"/>
-        <v>2.42</v>
+        <f>E74*F74</f>
+        <v>2.06</v>
       </c>
       <c r="H74" s="106">
-        <v>10</v>
-      </c>
-      <c r="I74" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="J74" s="165" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="J74" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K74" s="133">
-        <v>7991</v>
-      </c>
-      <c r="L74" s="43">
-        <v>10642</v>
-      </c>
+      <c r="K74" s="27">
+        <v>913</v>
+      </c>
+      <c r="L74" s="42"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="112" t="s">
-        <v>204</v>
+      <c r="B75" s="28" t="s">
+        <v>171</v>
       </c>
       <c r="C75" s="135"/>
       <c r="D75" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75" s="134">
         <v>1</v>
       </c>
       <c r="F75" s="41">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="G75" s="41">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
-      </c>
-      <c r="H75" s="106">
-        <v>10</v>
-      </c>
-      <c r="I75" s="61" t="s">
-        <v>205</v>
-      </c>
-      <c r="J75" s="165" t="s">
+        <f>E75*F75</f>
+        <v>2.74</v>
+      </c>
+      <c r="H75" s="130">
+        <v>20</v>
+      </c>
+      <c r="I75" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="J75" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="133">
-        <v>7991</v>
-      </c>
-      <c r="L75" s="43"/>
+      <c r="K75" s="27">
+        <v>916</v>
+      </c>
+      <c r="L75" s="42"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="135"/>
+      <c r="B76" s="137" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="137"/>
       <c r="D76" s="27">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E76" s="134">
         <v>1</v>
       </c>
       <c r="F76" s="41">
-        <v>2.5299999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G76" s="41">
-        <f t="shared" si="2"/>
-        <v>2.5299999999999998</v>
+        <f>E76*F76</f>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H76" s="106">
-        <v>10</v>
-      </c>
-      <c r="I76" s="61" t="s">
-        <v>207</v>
-      </c>
-      <c r="J76" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="J76" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K76" s="133">
-        <v>933</v>
-      </c>
-      <c r="L76" s="43"/>
+      <c r="K76" s="133"/>
+      <c r="L76" s="43">
+        <v>7380</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="44" t="s">
+      <c r="A77" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B77" s="156" t="s">
-        <v>208</v>
-      </c>
-      <c r="C77" s="156"/>
+      <c r="B77" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="28"/>
       <c r="D77" s="27">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E77" s="134">
         <v>1</v>
       </c>
       <c r="F77" s="41">
-        <v>3.08</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="G77" s="41">
-        <f t="shared" si="2"/>
-        <v>3.08</v>
+        <f>E77*F77</f>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H77" s="106">
-        <v>10</v>
-      </c>
-      <c r="I77" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="J77" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="J77" s="163" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="27">
         <v>7991</v>
       </c>
-      <c r="L77" s="42">
-        <v>10642</v>
-      </c>
+      <c r="L77" s="42"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="B78" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="137"/>
       <c r="D78" s="27">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="E78" s="134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" s="41">
-        <v>5.61</v>
+        <v>2</v>
       </c>
       <c r="G78" s="41">
-        <f t="shared" si="2"/>
-        <v>5.61</v>
+        <f>E78*F78</f>
+        <v>6</v>
       </c>
       <c r="H78" s="106">
+        <v>10</v>
+      </c>
+      <c r="I78" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="J78" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K78" s="27">
+        <v>912</v>
+      </c>
+      <c r="L78" s="42"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="137" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="137"/>
+      <c r="D79" s="27">
+        <v>38</v>
+      </c>
+      <c r="E79" s="134">
         <v>5</v>
       </c>
-      <c r="I78" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="J78" s="170" t="s">
+      <c r="F79" s="41">
+        <v>2.83</v>
+      </c>
+      <c r="G79" s="41">
+        <f>E79*F79</f>
+        <v>14.15</v>
+      </c>
+      <c r="H79" s="106">
+        <v>10</v>
+      </c>
+      <c r="I79" s="60" t="s">
+        <v>179</v>
+      </c>
+      <c r="J79" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="L78" s="42"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="27">
+      <c r="K79" s="133">
+        <v>912</v>
+      </c>
+      <c r="L79" s="43"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E79" s="134">
-        <v>4</v>
-      </c>
-      <c r="F79" s="41">
-        <v>3</v>
-      </c>
-      <c r="G79" s="41">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="H79" s="106">
-        <v>50</v>
-      </c>
-      <c r="I79" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="J79" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="K79" s="133"/>
-      <c r="L79" s="43"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B80" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="C80" s="137"/>
+      <c r="C80" s="135"/>
       <c r="D80" s="27">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="E80" s="134">
+        <v>1</v>
+      </c>
+      <c r="F80" s="41">
+        <v>2.34</v>
+      </c>
+      <c r="G80" s="41">
+        <f>E80*F80</f>
+        <v>2.34</v>
+      </c>
+      <c r="H80" s="130">
+        <v>25</v>
+      </c>
+      <c r="I80" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="J80" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="42"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C81" s="135"/>
+      <c r="D81" s="27">
+        <v>10</v>
+      </c>
+      <c r="E81" s="134">
+        <v>2.91</v>
+      </c>
+      <c r="F81" s="41">
         <v>2</v>
       </c>
-      <c r="F80" s="41">
-        <v>1</v>
-      </c>
-      <c r="G80" s="41">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H80" s="106">
-        <v>25</v>
-      </c>
-      <c r="I80" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="J80" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K80" s="133">
-        <v>934</v>
-      </c>
-      <c r="L80" s="43"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D81" s="27">
-        <v>14</v>
-      </c>
-      <c r="E81" s="134">
-        <v>2</v>
-      </c>
-      <c r="F81" s="41">
-        <v>1</v>
-      </c>
       <c r="G81" s="41">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>E81*F81</f>
+        <v>5.82</v>
       </c>
       <c r="H81" s="106">
         <v>10</v>
       </c>
-      <c r="I81" s="58" t="s">
-        <v>217</v>
-      </c>
-      <c r="J81" s="165" t="s">
+      <c r="I81" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="J81" s="163" t="s">
         <v>15</v>
       </c>
       <c r="K81" s="27">
-        <v>985</v>
-      </c>
-      <c r="L81" s="42">
-        <v>10511</v>
-      </c>
+        <v>912</v>
+      </c>
+      <c r="L81" s="42"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="137" t="s">
-        <v>218</v>
-      </c>
-      <c r="C82" s="137"/>
+      <c r="A82" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="135"/>
       <c r="D82" s="27">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="E82" s="134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F82" s="41">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="G82" s="41">
-        <f t="shared" si="2"/>
-        <v>10.68</v>
-      </c>
-      <c r="H82" s="106">
-        <v>50</v>
-      </c>
-      <c r="I82" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="J82" s="165" t="s">
+        <f>E82*F82</f>
+        <v>3.05</v>
+      </c>
+      <c r="H82" s="130">
+        <v>25</v>
+      </c>
+      <c r="I82" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="J82" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K82" s="27">
-        <v>125</v>
-      </c>
       <c r="L82" s="42"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B83" s="111" t="s">
-        <v>220</v>
-      </c>
-      <c r="C83" s="135"/>
-      <c r="D83" s="152">
-        <v>2</v>
+      <c r="A83" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="28"/>
+      <c r="D83" s="27">
+        <v>7</v>
       </c>
       <c r="E83" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="41">
-        <v>3.49</v>
+        <v>3</v>
       </c>
       <c r="G83" s="41">
-        <f t="shared" si="2"/>
-        <v>6.98</v>
+        <f>E83*F83</f>
+        <v>3</v>
       </c>
       <c r="H83" s="106">
-        <v>5</v>
-      </c>
-      <c r="I83" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="J83" s="132" t="s">
-        <v>222</v>
-      </c>
-      <c r="L83" s="42"/>
+        <v>10</v>
+      </c>
+      <c r="I83" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="J83" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="27">
+        <v>912</v>
+      </c>
+      <c r="L83" s="42">
+        <v>7380</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B84" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="C84" s="137"/>
+        <v>158</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>188</v>
+      </c>
       <c r="D84" s="27">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="E84" s="134">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F84" s="41">
-        <v>2.42</v>
+        <v>1</v>
       </c>
       <c r="G84" s="41">
-        <f t="shared" si="2"/>
-        <v>38.72</v>
+        <f>E84*F84</f>
+        <v>1</v>
       </c>
       <c r="H84" s="106">
-        <v>10</v>
-      </c>
-      <c r="I84" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="J84" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="I84" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="J84" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="42">
-        <v>7380</v>
-      </c>
+      <c r="K84" s="133">
+        <v>934</v>
+      </c>
+      <c r="L84" s="43"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B85" s="137" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="135"/>
+        <v>158</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="28"/>
       <c r="D85" s="27">
         <v>3</v>
       </c>
       <c r="E85" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="41">
-        <v>2.59</v>
+        <v>1</v>
       </c>
       <c r="G85" s="41">
-        <f t="shared" si="2"/>
-        <v>2.59</v>
+        <f>E85*F85</f>
+        <v>2</v>
       </c>
       <c r="H85" s="106">
         <v>10</v>
       </c>
-      <c r="I85" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="J85" s="165" t="s">
+      <c r="I85" s="58" t="s">
+        <v>191</v>
+      </c>
+      <c r="J85" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K85" s="133"/>
-      <c r="L85" s="43">
-        <v>7380</v>
+      <c r="K85" s="27">
+        <v>985</v>
+      </c>
+      <c r="L85" s="42">
+        <v>10511</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27">
+        <v>13</v>
+      </c>
+      <c r="E86" s="134">
+        <v>1</v>
+      </c>
+      <c r="F86" s="41">
+        <v>2.5</v>
+      </c>
+      <c r="G86" s="41">
+        <f>E86*F86</f>
+        <v>2.5</v>
+      </c>
+      <c r="H86" s="106">
+        <v>50</v>
+      </c>
+      <c r="I86" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="J86" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="133">
+        <v>25</v>
+      </c>
+      <c r="L86" s="43"/>
+    </row>
+    <row r="87" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="137" t="s">
-        <v>227</v>
-      </c>
-      <c r="C86" s="137"/>
-      <c r="D86" s="27">
-        <v>6</v>
-      </c>
-      <c r="E86" s="134">
-        <v>1</v>
-      </c>
-      <c r="F86" s="41">
-        <v>2.75</v>
-      </c>
-      <c r="G86" s="41">
-        <f t="shared" si="2"/>
-        <v>2.75</v>
-      </c>
-      <c r="H86" s="106">
+      <c r="B87" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="C87" s="135"/>
+      <c r="D87" s="27">
+        <v>1</v>
+      </c>
+      <c r="E87" s="134">
+        <v>1</v>
+      </c>
+      <c r="F87" s="41">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="G87" s="41">
+        <f>E87*F87</f>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H87" s="130">
         <v>10</v>
       </c>
-      <c r="I86" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="J86" s="165" t="s">
+      <c r="I87" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="J87" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K86" s="133">
-        <v>912</v>
-      </c>
-      <c r="L86" s="43">
-        <v>7380</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B87" s="139" t="s">
-        <v>229</v>
-      </c>
-      <c r="C87" s="135"/>
-      <c r="D87" s="140">
-        <v>3</v>
-      </c>
-      <c r="E87" s="134">
-        <v>1</v>
-      </c>
-      <c r="F87" s="41">
-        <v>2.61</v>
-      </c>
-      <c r="G87" s="41">
-        <f t="shared" si="2"/>
-        <v>2.61</v>
-      </c>
-      <c r="H87" s="106">
-        <v>10</v>
-      </c>
-      <c r="I87" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="J87" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="K87" s="27">
-        <v>933</v>
-      </c>
+      <c r="K87" s="27"/>
       <c r="L87" s="42"/>
     </row>
     <row r="88" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="27" t="s">
-        <v>231</v>
+      <c r="B88" s="141" t="s">
+        <v>198</v>
       </c>
       <c r="C88" s="135"/>
-      <c r="D88" s="140">
-        <v>4</v>
+      <c r="D88" s="27">
+        <v>3</v>
       </c>
       <c r="E88" s="134">
         <v>1</v>
       </c>
       <c r="F88" s="41">
-        <v>2.92</v>
+        <v>1.2</v>
       </c>
       <c r="G88" s="41">
-        <f t="shared" si="2"/>
-        <v>2.92</v>
+        <f>E88*F88</f>
+        <v>1.2</v>
       </c>
       <c r="H88" s="106">
-        <v>10</v>
-      </c>
-      <c r="I88" s="61" t="s">
-        <v>232</v>
-      </c>
-      <c r="J88" s="165" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="60" t="s">
+        <v>199</v>
+      </c>
+      <c r="J88" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K88" s="27"/>
-      <c r="L88" s="42">
-        <v>7380</v>
-      </c>
+      <c r="K88" s="27">
+        <v>912</v>
+      </c>
+      <c r="L88" s="42"/>
     </row>
     <row r="89" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="44" t="s">
+      <c r="A89" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="139" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" s="140"/>
-      <c r="D89" s="140">
-        <v>2</v>
+      <c r="B89" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="28"/>
+      <c r="D89" s="27">
+        <v>6</v>
       </c>
       <c r="E89" s="134">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F89" s="41">
-        <v>2.92</v>
+        <v>1.21</v>
       </c>
       <c r="G89" s="41">
-        <f t="shared" si="2"/>
-        <v>2.92</v>
+        <f>E89*F89</f>
+        <v>7.26</v>
       </c>
       <c r="H89" s="106">
-        <v>10</v>
-      </c>
-      <c r="I89" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="J89" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="I89" s="60" t="s">
+        <v>201</v>
+      </c>
+      <c r="J89" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="K89" s="27">
-        <v>933</v>
-      </c>
+      <c r="K89" s="27"/>
       <c r="L89" s="42"/>
     </row>
     <row r="90" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B90" s="140" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="140"/>
-      <c r="D90" s="140">
-        <v>44</v>
+      <c r="B90" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27">
+        <v>4</v>
       </c>
       <c r="E90" s="134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F90" s="41">
-        <v>3.21</v>
+        <v>2.42</v>
       </c>
       <c r="G90" s="41">
-        <f t="shared" si="2"/>
-        <v>16.05</v>
+        <f>E90*F90</f>
+        <v>2.42</v>
       </c>
       <c r="H90" s="106">
         <v>10</v>
       </c>
       <c r="I90" s="61" t="s">
-        <v>236</v>
-      </c>
-      <c r="J90" s="165" t="s">
+        <v>203</v>
+      </c>
+      <c r="J90" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K90" s="27">
-        <v>933</v>
-      </c>
-      <c r="L90" s="42"/>
+      <c r="K90" s="133">
+        <v>7991</v>
+      </c>
+      <c r="L90" s="43">
+        <v>10642</v>
+      </c>
     </row>
     <row r="91" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B91" s="140" t="s">
-        <v>237</v>
-      </c>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140">
-        <v>17</v>
+      <c r="B91" s="112" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" s="135"/>
+      <c r="D91" s="27">
+        <v>3</v>
       </c>
       <c r="E91" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F91" s="41">
-        <v>3.57</v>
+        <v>2.5</v>
       </c>
       <c r="G91" s="41">
-        <f t="shared" si="2"/>
-        <v>7.14</v>
+        <f>E91*F91</f>
+        <v>2.5</v>
       </c>
       <c r="H91" s="106">
         <v>10</v>
       </c>
       <c r="I91" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="J91" s="165" t="s">
+        <v>205</v>
+      </c>
+      <c r="J91" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K91" s="27">
-        <v>933</v>
-      </c>
-      <c r="L91" s="42"/>
+      <c r="K91" s="133">
+        <v>7991</v>
+      </c>
+      <c r="L91" s="43"/>
     </row>
     <row r="92" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="40" t="s">
+      <c r="A92" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="156" t="s">
-        <v>239</v>
+      <c r="B92" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="C92" s="135"/>
       <c r="D92" s="27">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E92" s="134">
         <v>1</v>
       </c>
       <c r="F92" s="41">
-        <v>2.59</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="G92" s="41">
-        <f t="shared" si="2"/>
-        <v>2.59</v>
+        <f>E92*F92</f>
+        <v>2.5299999999999998</v>
       </c>
       <c r="H92" s="106">
         <v>10</v>
       </c>
       <c r="I92" s="61" t="s">
-        <v>240</v>
-      </c>
-      <c r="J92" s="165" t="s">
+        <v>207</v>
+      </c>
+      <c r="J92" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K92" s="133"/>
-      <c r="L92" s="43">
-        <v>7380</v>
-      </c>
+      <c r="K92" s="133">
+        <v>933</v>
+      </c>
+      <c r="L92" s="43"/>
     </row>
     <row r="93" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C93" s="136"/>
-      <c r="D93" s="133">
+      <c r="A93" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="155" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="155"/>
+      <c r="D93" s="27">
         <v>4</v>
       </c>
       <c r="E93" s="134">
         <v>1</v>
       </c>
       <c r="F93" s="41">
-        <v>9</v>
+        <v>3.08</v>
       </c>
       <c r="G93" s="41">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>E93*F93</f>
+        <v>3.08</v>
       </c>
       <c r="H93" s="106">
         <v>10</v>
       </c>
-      <c r="I93" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="J93" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="K93" s="166"/>
-      <c r="L93" s="42"/>
+      <c r="I93" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="J93" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="27">
+        <v>7991</v>
+      </c>
+      <c r="L93" s="42">
+        <v>10642</v>
+      </c>
     </row>
     <row r="94" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>245</v>
+      <c r="A94" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C94" s="27"/>
-      <c r="D94" s="133">
-        <v>6</v>
+      <c r="D94" s="27">
+        <v>4</v>
       </c>
       <c r="E94" s="134">
         <v>1</v>
       </c>
       <c r="F94" s="41">
-        <v>10.23</v>
+        <v>5.61</v>
       </c>
       <c r="G94" s="41">
-        <f t="shared" si="2"/>
-        <v>10.23</v>
+        <f>E94*F94</f>
+        <v>5.61</v>
       </c>
       <c r="H94" s="106">
-        <v>6</v>
-      </c>
-      <c r="I94" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="J94" s="162" t="s">
-        <v>247</v>
-      </c>
-      <c r="K94" s="166"/>
+        <v>5</v>
+      </c>
+      <c r="I94" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="J94" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="K94" s="27"/>
       <c r="L94" s="42"/>
     </row>
     <row r="95" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="133">
-        <v>6</v>
+      <c r="A95" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="C95" s="137"/>
+      <c r="D95" s="27">
+        <v>39</v>
       </c>
       <c r="E95" s="134">
         <v>2</v>
       </c>
       <c r="F95" s="41">
-        <v>2.04</v>
+        <v>1</v>
       </c>
       <c r="G95" s="41">
-        <f t="shared" si="2"/>
-        <v>4.08</v>
+        <f>E95*F95</f>
+        <v>2</v>
       </c>
       <c r="H95" s="106">
-        <v>5</v>
-      </c>
-      <c r="I95" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="J95" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="J95" s="163" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="27"/>
-      <c r="L95" s="42"/>
+      <c r="K95" s="133">
+        <v>934</v>
+      </c>
+      <c r="L95" s="43"/>
     </row>
     <row r="96" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27">
+        <v>14</v>
+      </c>
+      <c r="E96" s="134">
+        <v>2</v>
+      </c>
+      <c r="F96" s="41">
+        <v>1</v>
+      </c>
+      <c r="G96" s="41">
+        <f>E96*F96</f>
+        <v>2</v>
+      </c>
+      <c r="H96" s="106">
+        <v>10</v>
+      </c>
+      <c r="I96" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="J96" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="27">
+        <v>985</v>
+      </c>
+      <c r="L96" s="42">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B97" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" s="137"/>
+      <c r="D97" s="27">
+        <v>169</v>
+      </c>
+      <c r="E97" s="134">
+        <v>4</v>
+      </c>
+      <c r="F97" s="41">
+        <v>2.67</v>
+      </c>
+      <c r="G97" s="41">
+        <f>E97*F97</f>
+        <v>10.68</v>
+      </c>
+      <c r="H97" s="106">
+        <v>50</v>
+      </c>
+      <c r="I97" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="J97" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="27">
+        <v>125</v>
+      </c>
+      <c r="L97" s="42"/>
+    </row>
+    <row r="98" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="C98" s="137"/>
+      <c r="D98" s="27">
+        <v>157</v>
+      </c>
+      <c r="E98" s="134">
         <v>16</v>
       </c>
-      <c r="B96" s="112" t="s">
-        <v>250</v>
-      </c>
-      <c r="C96" s="135"/>
-      <c r="D96" s="138">
-        <v>3</v>
-      </c>
-      <c r="E96" s="134">
-        <v>3</v>
-      </c>
-      <c r="F96" s="41">
-        <v>42</v>
-      </c>
-      <c r="G96" s="41">
-        <f t="shared" si="2"/>
-        <v>126</v>
-      </c>
-      <c r="H96" s="106">
-        <v>1</v>
-      </c>
-      <c r="I96" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="J96" s="163" t="s">
-        <v>252</v>
-      </c>
-      <c r="K96" s="27"/>
-      <c r="L96" s="42"/>
-    </row>
-    <row r="97" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B97" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="C97" s="140"/>
-      <c r="D97" s="140">
-        <v>2</v>
-      </c>
-      <c r="E97" s="134">
-        <v>2</v>
-      </c>
-      <c r="F97" s="41">
-        <v>38</v>
-      </c>
-      <c r="G97" s="41">
-        <f t="shared" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="H97" s="106">
-        <v>1</v>
-      </c>
-      <c r="I97" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="J97" s="163" t="s">
-        <v>252</v>
-      </c>
-      <c r="K97" s="27"/>
-      <c r="L97" s="42"/>
-    </row>
-    <row r="98" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B98" s="139" t="s">
-        <v>255</v>
-      </c>
-      <c r="C98" s="140"/>
-      <c r="D98" s="140">
-        <v>1</v>
-      </c>
-      <c r="E98" s="134">
-        <v>1</v>
-      </c>
       <c r="F98" s="41">
-        <v>36</v>
+        <v>2.42</v>
       </c>
       <c r="G98" s="41">
-        <f t="shared" ref="G98:G129" si="3">E98*F98</f>
-        <v>36</v>
+        <f>E98*F98</f>
+        <v>38.72</v>
       </c>
       <c r="H98" s="106">
-        <v>1</v>
-      </c>
-      <c r="I98" s="57" t="s">
-        <v>256</v>
+        <v>10</v>
+      </c>
+      <c r="I98" s="61" t="s">
+        <v>224</v>
       </c>
       <c r="J98" s="163" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="K98" s="27"/>
-      <c r="L98" s="42"/>
+      <c r="L98" s="42">
+        <v>7380</v>
+      </c>
     </row>
     <row r="99" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>257</v>
+        <v>168</v>
+      </c>
+      <c r="B99" s="137" t="s">
+        <v>225</v>
       </c>
       <c r="C99" s="135"/>
-      <c r="D99" s="136">
-        <v>1</v>
+      <c r="D99" s="27">
+        <v>3</v>
       </c>
       <c r="E99" s="134">
         <v>1</v>
       </c>
       <c r="F99" s="41">
-        <v>48</v>
+        <v>2.59</v>
       </c>
       <c r="G99" s="41">
-        <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="H99" s="130">
-        <v>1</v>
-      </c>
-      <c r="I99" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="J99" s="132" t="s">
-        <v>259</v>
-      </c>
-      <c r="K99" s="27"/>
-      <c r="L99" s="42"/>
+        <f>E99*F99</f>
+        <v>2.59</v>
+      </c>
+      <c r="H99" s="106">
+        <v>10</v>
+      </c>
+      <c r="I99" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="J99" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K99" s="133"/>
+      <c r="L99" s="43">
+        <v>7380</v>
+      </c>
     </row>
     <row r="100" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B100" s="139" t="s">
-        <v>260</v>
-      </c>
-      <c r="C100" s="135"/>
-      <c r="D100" s="140">
-        <v>3</v>
+        <v>168</v>
+      </c>
+      <c r="B100" s="137" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="137"/>
+      <c r="D100" s="27">
+        <v>6</v>
       </c>
       <c r="E100" s="134">
         <v>1</v>
       </c>
       <c r="F100" s="41">
-        <v>46</v>
+        <v>2.75</v>
       </c>
       <c r="G100" s="41">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f>E100*F100</f>
+        <v>2.75</v>
       </c>
       <c r="H100" s="106">
-        <v>3</v>
-      </c>
-      <c r="I100" s="57" t="s">
-        <v>261</v>
+        <v>10</v>
+      </c>
+      <c r="I100" s="61" t="s">
+        <v>228</v>
       </c>
       <c r="J100" s="163" t="s">
-        <v>262</v>
-      </c>
-      <c r="K100" s="27"/>
-      <c r="L100" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="K100" s="133">
+        <v>912</v>
+      </c>
+      <c r="L100" s="43">
+        <v>7380</v>
+      </c>
     </row>
     <row r="101" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="s">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="B101" s="139" t="s">
-        <v>263</v>
-      </c>
-      <c r="C101" s="140"/>
+        <v>229</v>
+      </c>
+      <c r="C101" s="135"/>
       <c r="D101" s="140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" s="134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" s="41">
-        <v>22.5</v>
+        <v>2.61</v>
       </c>
       <c r="G101" s="41">
-        <f t="shared" si="3"/>
-        <v>45</v>
+        <f>E101*F101</f>
+        <v>2.61</v>
       </c>
       <c r="H101" s="106">
-        <v>1</v>
-      </c>
-      <c r="I101" s="57" t="s">
-        <v>264</v>
+        <v>10</v>
+      </c>
+      <c r="I101" s="61" t="s">
+        <v>230</v>
       </c>
       <c r="J101" s="163" t="s">
-        <v>262</v>
-      </c>
-      <c r="K101" s="27"/>
+        <v>15</v>
+      </c>
+      <c r="K101" s="27">
+        <v>933</v>
+      </c>
       <c r="L101" s="42"/>
     </row>
     <row r="102" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" s="69" t="s">
-        <v>265</v>
+        <v>168</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>231</v>
       </c>
       <c r="C102" s="135"/>
-      <c r="D102" s="136">
-        <v>1</v>
+      <c r="D102" s="140">
+        <v>4</v>
       </c>
       <c r="E102" s="134">
         <v>1</v>
       </c>
       <c r="F102" s="41">
-        <v>1.48</v>
+        <v>2.92</v>
       </c>
       <c r="G102" s="41">
-        <f t="shared" si="3"/>
-        <v>1.48</v>
-      </c>
-      <c r="H102" s="130">
-        <v>1</v>
-      </c>
-      <c r="I102" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="J102" s="132" t="s">
-        <v>124</v>
+        <f>E102*F102</f>
+        <v>2.92</v>
+      </c>
+      <c r="H102" s="106">
+        <v>10</v>
+      </c>
+      <c r="I102" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="J102" s="163" t="s">
+        <v>15</v>
       </c>
       <c r="K102" s="27"/>
-      <c r="L102" s="42"/>
+      <c r="L102" s="42">
+        <v>7380</v>
+      </c>
     </row>
     <row r="103" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C103" s="135"/>
-      <c r="D103" s="136">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B103" s="139" t="s">
+        <v>233</v>
+      </c>
+      <c r="C103" s="140"/>
+      <c r="D103" s="140">
+        <v>2</v>
       </c>
       <c r="E103" s="134">
         <v>1</v>
       </c>
       <c r="F103" s="41">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="G103" s="41">
-        <f t="shared" si="3"/>
-        <v>2.17</v>
-      </c>
-      <c r="H103" s="130">
-        <v>1</v>
-      </c>
-      <c r="I103" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="J103" s="132" t="s">
-        <v>124</v>
-      </c>
-      <c r="K103" s="27"/>
+        <f>E103*F103</f>
+        <v>2.92</v>
+      </c>
+      <c r="H103" s="106">
+        <v>10</v>
+      </c>
+      <c r="I103" s="61" t="s">
+        <v>234</v>
+      </c>
+      <c r="J103" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="27">
+        <v>933</v>
+      </c>
       <c r="L103" s="42"/>
     </row>
     <row r="104" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B104" s="28" t="s">
-        <v>269</v>
-      </c>
-      <c r="C104" s="135"/>
-      <c r="D104" s="136">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B104" s="140" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="140"/>
+      <c r="D104" s="140">
+        <v>44</v>
       </c>
       <c r="E104" s="134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F104" s="41">
-        <v>10.62</v>
+        <v>3.21</v>
       </c>
       <c r="G104" s="41">
-        <f t="shared" si="3"/>
-        <v>10.62</v>
-      </c>
-      <c r="H104" s="130">
-        <v>1</v>
-      </c>
-      <c r="I104" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="J104" s="168" t="s">
-        <v>271</v>
-      </c>
-      <c r="K104" s="27"/>
+        <f>E104*F104</f>
+        <v>16.05</v>
+      </c>
+      <c r="H104" s="106">
+        <v>10</v>
+      </c>
+      <c r="I104" s="61" t="s">
+        <v>236</v>
+      </c>
+      <c r="J104" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K104" s="27">
+        <v>933</v>
+      </c>
       <c r="L104" s="42"/>
     </row>
     <row r="105" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="B105" s="111" t="s">
-        <v>272</v>
-      </c>
-      <c r="C105" s="135"/>
-      <c r="D105" s="135">
-        <v>1</v>
+        <v>168</v>
+      </c>
+      <c r="B105" s="140" t="s">
+        <v>237</v>
+      </c>
+      <c r="C105" s="140"/>
+      <c r="D105" s="140">
+        <v>17</v>
       </c>
       <c r="E105" s="134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F105" s="41">
-        <v>12.4</v>
+        <v>3.57</v>
       </c>
       <c r="G105" s="41">
-        <f t="shared" si="3"/>
-        <v>12.4</v>
+        <f>E105*F105</f>
+        <v>7.14</v>
       </c>
       <c r="H105" s="106">
-        <v>1</v>
-      </c>
-      <c r="I105" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="J105" s="132" t="s">
-        <v>82</v>
-      </c>
-      <c r="K105" s="27"/>
+        <v>10</v>
+      </c>
+      <c r="I105" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="J105" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="27">
+        <v>933</v>
+      </c>
       <c r="L105" s="42"/>
     </row>
     <row r="106" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>274</v>
+      <c r="A106" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" s="155" t="s">
+        <v>239</v>
       </c>
       <c r="C106" s="135"/>
-      <c r="D106" s="136">
-        <v>1</v>
+      <c r="D106" s="27">
+        <v>16</v>
       </c>
       <c r="E106" s="134">
         <v>1</v>
       </c>
       <c r="F106" s="41">
+        <v>2.59</v>
+      </c>
+      <c r="G106" s="41">
+        <f>E106*F106</f>
+        <v>2.59</v>
+      </c>
+      <c r="H106" s="106">
         <v>10</v>
       </c>
-      <c r="G106" s="41">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H106" s="130">
+      <c r="I106" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="J106" s="163" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="133"/>
+      <c r="L106" s="43">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="27"/>
+      <c r="D107" s="133">
+        <v>6</v>
+      </c>
+      <c r="E107" s="134">
+        <v>2</v>
+      </c>
+      <c r="F107" s="41">
+        <v>2.04</v>
+      </c>
+      <c r="G107" s="41">
+        <f>E107*F107</f>
+        <v>4.08</v>
+      </c>
+      <c r="H107" s="106">
         <v>5</v>
       </c>
-      <c r="I106" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="J106" s="169" t="s">
-        <v>276</v>
-      </c>
-      <c r="K106" s="27"/>
-      <c r="L106" s="42"/>
-    </row>
-    <row r="107" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="C107" s="155">
-        <v>420</v>
-      </c>
-      <c r="D107" s="27">
-        <v>4</v>
-      </c>
-      <c r="E107" s="134">
-        <v>4</v>
-      </c>
-      <c r="F107" s="41">
+      <c r="I107" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="J107" s="132" t="s">
         <v>15</v>
-      </c>
-      <c r="G107" s="41">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="H107" s="106">
-        <v>1</v>
-      </c>
-      <c r="I107" s="60" t="s">
-        <v>279</v>
-      </c>
-      <c r="J107" s="132" t="s">
-        <v>280</v>
       </c>
       <c r="K107" s="27"/>
       <c r="L107" s="42"/>
     </row>
     <row r="108" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="C108" s="155">
-        <v>420</v>
-      </c>
-      <c r="D108" s="27">
+        <v>79</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C108" s="135"/>
+      <c r="D108" s="135">
         <v>1</v>
       </c>
       <c r="E108" s="134">
         <v>1</v>
       </c>
       <c r="F108" s="41">
-        <v>12</v>
+        <v>13.9</v>
       </c>
       <c r="G108" s="41">
-        <f t="shared" si="3"/>
-        <v>12</v>
+        <f>E108*F108</f>
+        <v>13.9</v>
       </c>
       <c r="H108" s="106">
         <v>1</v>
       </c>
-      <c r="I108" s="60" t="s">
-        <v>283</v>
+      <c r="I108" s="57" t="s">
+        <v>120</v>
       </c>
       <c r="J108" s="132" t="s">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="K108" s="27"/>
       <c r="L108" s="42"/>
     </row>
     <row r="109" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="48" t="s">
-        <v>277</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="C109" s="155">
-        <v>480</v>
-      </c>
-      <c r="D109" s="27">
-        <v>4</v>
+      <c r="A109" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B109" s="141" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="135"/>
+      <c r="D109" s="135">
+        <v>1</v>
       </c>
       <c r="E109" s="134">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F109" s="41">
-        <v>16</v>
+        <v>12.07</v>
       </c>
       <c r="G109" s="41">
-        <f t="shared" si="3"/>
-        <v>64</v>
+        <f>E109*F109</f>
+        <v>12.07</v>
       </c>
       <c r="H109" s="106">
         <v>1</v>
       </c>
-      <c r="I109" s="60" t="s">
-        <v>285</v>
+      <c r="I109" s="57" t="s">
+        <v>88</v>
       </c>
       <c r="J109" s="132" t="s">
-        <v>280</v>
+        <v>89</v>
       </c>
       <c r="K109" s="27"/>
       <c r="L109" s="42"/>
     </row>
     <row r="110" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="C110" s="155">
-        <v>368</v>
-      </c>
-      <c r="D110" s="27">
-        <v>1</v>
-      </c>
-      <c r="E110" s="134">
-        <v>1</v>
-      </c>
-      <c r="F110" s="41">
-        <v>11</v>
-      </c>
-      <c r="G110" s="41">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H110" s="106">
-        <v>1</v>
-      </c>
-      <c r="I110" s="60" t="s">
-        <v>287</v>
-      </c>
-      <c r="J110" s="132" t="s">
-        <v>280</v>
-      </c>
-      <c r="K110" s="27"/>
-      <c r="L110" s="42"/>
+      <c r="A110" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B110" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="C110" s="145"/>
+      <c r="D110" s="145">
+        <v>1</v>
+      </c>
+      <c r="E110" s="146">
+        <v>1</v>
+      </c>
+      <c r="F110" s="147">
+        <v>68</v>
+      </c>
+      <c r="G110" s="147">
+        <f>E110*F110</f>
+        <v>68</v>
+      </c>
+      <c r="H110" s="107">
+        <v>1</v>
+      </c>
+      <c r="I110" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J110" s="165" t="s">
+        <v>86</v>
+      </c>
+      <c r="K110" s="145"/>
+      <c r="L110" s="47"/>
     </row>
     <row r="111" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="44" t="s">
-        <v>281</v>
+      <c r="A111" s="40" t="s">
+        <v>12</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>288</v>
-      </c>
-      <c r="C111" s="155">
-        <v>172</v>
-      </c>
-      <c r="D111" s="27">
+        <v>53</v>
+      </c>
+      <c r="C111" s="28">
+        <v>400</v>
+      </c>
+      <c r="D111" s="133">
         <v>1</v>
       </c>
       <c r="E111" s="134">
         <v>1</v>
       </c>
       <c r="F111" s="41">
-        <v>9</v>
+        <v>5.92</v>
       </c>
       <c r="G111" s="41">
-        <f t="shared" si="3"/>
-        <v>9</v>
+        <f>E111*F111</f>
+        <v>5.92</v>
       </c>
       <c r="H111" s="106">
         <v>1</v>
       </c>
-      <c r="I111" s="60" t="s">
-        <v>289</v>
+      <c r="I111" s="58" t="s">
+        <v>54</v>
       </c>
       <c r="J111" s="132" t="s">
-        <v>280</v>
-      </c>
-      <c r="K111" s="27"/>
-      <c r="L111" s="42"/>
+        <v>55</v>
+      </c>
+      <c r="K111" s="133"/>
+      <c r="L111" s="43"/>
     </row>
     <row r="112" spans="1:12" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="157" t="s">
-        <v>277</v>
-      </c>
-      <c r="B112" s="173" t="s">
-        <v>290</v>
-      </c>
-      <c r="C112" s="174">
-        <v>750</v>
-      </c>
-      <c r="D112" s="158">
-        <v>4</v>
-      </c>
-      <c r="E112" s="159">
-        <v>4</v>
-      </c>
-      <c r="F112" s="160">
-        <v>40</v>
-      </c>
-      <c r="G112" s="160">
-        <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="H112" s="161">
-        <v>1</v>
-      </c>
-      <c r="I112" s="175" t="s">
-        <v>291</v>
+      <c r="A112" s="156" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="177" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112" s="179"/>
+      <c r="D112" s="181">
+        <v>2</v>
+      </c>
+      <c r="E112" s="157">
+        <v>2</v>
+      </c>
+      <c r="F112" s="158">
+        <v>3.49</v>
+      </c>
+      <c r="G112" s="158">
+        <f>E112*F112</f>
+        <v>6.98</v>
+      </c>
+      <c r="H112" s="159">
+        <v>5</v>
+      </c>
+      <c r="I112" s="184" t="s">
+        <v>221</v>
       </c>
       <c r="J112" s="132" t="s">
-        <v>280</v>
+        <v>222</v>
       </c>
       <c r="K112" s="27"/>
       <c r="L112" s="42"/>
@@ -9877,7 +9870,7 @@
       <c r="F113" s="52"/>
       <c r="G113" s="53">
         <f>SUBTOTAL(109,Table1321[*Cost Price $USD])</f>
-        <v>1840.8999999999999</v>
+        <v>1840.8999999999996</v>
       </c>
       <c r="H113" s="54"/>
       <c r="I113" s="62" t="s">
@@ -9892,120 +9885,120 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1" display="Color: Buffer 14inch 35cm" xr:uid="{A45C1E65-4D2C-4E50-A96D-C3609389891E}"/>
-    <hyperlink ref="H42" r:id="rId2" display="https://s.click.aliexpress.com/e/_c3L3d1ir" xr:uid="{AEFB707D-A1AE-4EFB-B9AF-075A426325F3}"/>
-    <hyperlink ref="I35" r:id="rId3" display="W: 9mm-EPDM L: 5M" xr:uid="{8547EB01-111D-4369-8F6F-6D71E163457E}"/>
-    <hyperlink ref="I70" r:id="rId4" xr:uid="{DCB991D1-6060-4115-8549-0F88BF037265}"/>
-    <hyperlink ref="I4" r:id="rId5" xr:uid="{27E41D46-C6ED-4D48-B23F-D522BD1B8CAD}"/>
+    <hyperlink ref="H52" r:id="rId1" display="Color: Buffer 14inch 35cm" xr:uid="{A45C1E65-4D2C-4E50-A96D-C3609389891E}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://s.click.aliexpress.com/e/_c3L3d1ir" xr:uid="{AEFB707D-A1AE-4EFB-B9AF-075A426325F3}"/>
+    <hyperlink ref="I59" r:id="rId3" display="W: 9mm-EPDM L: 5M" xr:uid="{8547EB01-111D-4369-8F6F-6D71E163457E}"/>
+    <hyperlink ref="I44" r:id="rId4" xr:uid="{DCB991D1-6060-4115-8549-0F88BF037265}"/>
+    <hyperlink ref="I68" r:id="rId5" xr:uid="{27E41D46-C6ED-4D48-B23F-D522BD1B8CAD}"/>
     <hyperlink ref="I12:I13" r:id="rId6" display="https://www.aliexpress.com/item/1005010042779749.html" xr:uid="{83FF34FE-EF9B-4920-90F5-2E0883376D67}"/>
-    <hyperlink ref="I94" r:id="rId7" display="Color: 6PCS" xr:uid="{83110E66-78FF-482A-A936-8F1BF7578A3C}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{165F55F9-93B5-4C34-AB3E-2D5640BE01F4}"/>
-    <hyperlink ref="I18" r:id="rId9" display="https://www.aliexpress.com/item/4001085251691.html" xr:uid="{6FC7652C-4336-480C-B2E7-E04728B15743}"/>
-    <hyperlink ref="I15" r:id="rId10" display="688ZZ" xr:uid="{E47035C0-0384-4F36-8610-B86A56A6353C}"/>
-    <hyperlink ref="I10" r:id="rId11" display="F606ZZ" xr:uid="{7A42191B-CFDD-4A32-8150-88F26E71C9AC}"/>
-    <hyperlink ref="I3" r:id="rId12" xr:uid="{79950C8E-6C0D-43A7-9D36-8F08E49E0336}"/>
-    <hyperlink ref="I29" r:id="rId13" xr:uid="{96A70493-75D0-4733-A3CA-6179A33F98AC}"/>
-    <hyperlink ref="I28" r:id="rId14" xr:uid="{87783477-33AB-4F63-96D6-84FFA77C3655}"/>
-    <hyperlink ref="I44" r:id="rId15" display="C: 30x30" xr:uid="{606973F0-66B4-48E0-9052-7FF9AC915346}"/>
-    <hyperlink ref="I105" r:id="rId16" xr:uid="{9E6D60F7-4FD8-4383-A6FD-19E6F8255EF5}"/>
-    <hyperlink ref="I22" r:id="rId17" display="https://s.click.aliexpress.com/e/_c3suoWc5" xr:uid="{171176F6-4231-406A-9168-9A596B642215}"/>
-    <hyperlink ref="I83" r:id="rId18" xr:uid="{0241C0AB-3D65-413B-8BA6-3B272D19AC35}"/>
-    <hyperlink ref="I39" r:id="rId19" xr:uid="{52ADCB77-FF0E-42E8-AC3C-EF1C337A8CEE}"/>
-    <hyperlink ref="I96" r:id="rId20" display="Color: L400 - MGN12H" xr:uid="{38BCC57D-FD03-4471-B927-A7E12E3DB518}"/>
-    <hyperlink ref="I97" r:id="rId21" display="Color: L400 - MGN12H" xr:uid="{BD6A1B04-1DB5-4668-9226-2B16CD7A0FF8}"/>
-    <hyperlink ref="I98" r:id="rId22" display="Color: L400 - MGN12H" xr:uid="{84FFEA79-873A-463E-9519-EA26805DD99E}"/>
-    <hyperlink ref="I101" r:id="rId23" display="Color: 17HS19-2504S-H-V1" xr:uid="{63EC9369-3A56-4A55-ADB6-E63DA70C5687}"/>
-    <hyperlink ref="I100" r:id="rId24" display="Color: 17HS16 2004S1" xr:uid="{982DA236-4666-4A0F-ABF1-9B4663B545D1}"/>
-    <hyperlink ref="I9" r:id="rId25" display="M6x12x1mm -50PCS" xr:uid="{A89E7AD8-F920-4AF5-B677-81DF07FB2B6D}"/>
-    <hyperlink ref="I6" r:id="rId26" display="688ZZ" xr:uid="{67E8D5C1-A156-413D-AF31-8133207133A7}"/>
-    <hyperlink ref="I11" r:id="rId27" xr:uid="{960B587A-C345-41F8-9F00-5A72468B4E5D}"/>
-    <hyperlink ref="I12" r:id="rId28" display="6x25 - 20PCS" xr:uid="{C587A070-5E91-4470-9462-B26505335891}"/>
-    <hyperlink ref="I8" r:id="rId29" display="5x50 - 20PCS" xr:uid="{E2BC9294-BE45-4337-94D9-D1A7EB5D4876}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{5DF1E2A3-6063-41FD-B02D-4A4F1F17507D}"/>
-    <hyperlink ref="I21" r:id="rId31" display="500mm - 20x20x1mm" xr:uid="{D204D176-2E62-40E3-82BF-401F19A0D89A}"/>
-    <hyperlink ref="I31" r:id="rId32" display="9mm-EPDM 5M" xr:uid="{D3872713-B062-4A7C-ADB1-EF62ABB53482}"/>
-    <hyperlink ref="I32" r:id="rId33" display="5mm-Pulley 26T" xr:uid="{90074162-A7AA-4715-B971-FF9CE46FAD99}"/>
-    <hyperlink ref="I53" r:id="rId34" display="S: M3 - Color: 100PCS" xr:uid="{6449E8A0-482C-470E-97D7-EF72A2F2A913}"/>
-    <hyperlink ref="I73" r:id="rId35" xr:uid="{6EB531E8-C3FE-4D01-8D5C-97575E119FCC}"/>
-    <hyperlink ref="I78" r:id="rId36" xr:uid="{91B40BE5-71A5-4A12-84CC-1243069DE4B2}"/>
-    <hyperlink ref="I55" r:id="rId37" xr:uid="{78488DAB-B700-44AA-A232-44B7D5C2B043}"/>
-    <hyperlink ref="I82" r:id="rId38" display="ID: M5(100PCS)" xr:uid="{D89841D5-DE86-4EF3-A46E-87C4608B9CB4}"/>
-    <hyperlink ref="I87" r:id="rId39" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{7702497C-D29A-4776-9646-42512A281763}"/>
-    <hyperlink ref="I76" r:id="rId40" display="S: 10PCS M4 - L: 35" xr:uid="{EEAD0EA0-423E-407A-8EED-083AE2165F0E}"/>
-    <hyperlink ref="I2" r:id="rId41" xr:uid="{62AD37E9-A9DA-4CA1-A9DB-A74CBED013B4}"/>
-    <hyperlink ref="I17" r:id="rId42" display="500mm - 20x20x1mm" xr:uid="{6064A7A7-4811-4867-831D-5DD621C8F26F}"/>
-    <hyperlink ref="I13" r:id="rId43" xr:uid="{B943D4B9-8B39-41E3-AF1C-D92FC272CF39}"/>
-    <hyperlink ref="I34" r:id="rId44" display="BD: 5mm BW: 10mm N: 5PCS" xr:uid="{48A1A5F5-9613-43F0-AB8A-D09C3DDA1C3B}"/>
-    <hyperlink ref="I33" r:id="rId45" xr:uid="{C6EC4DA3-1FE8-42F5-AF13-426B397564D6}"/>
-    <hyperlink ref="I110" r:id="rId46" xr:uid="{0C02753A-60E1-4368-AD8A-ED26844E80A1}"/>
-    <hyperlink ref="I108" r:id="rId47" display="Color: 420 mm" xr:uid="{0E8E3DCA-6FE1-423A-9C75-E7E7B690BDB7}"/>
-    <hyperlink ref="I111" r:id="rId48" display="Color: L 368mm - 2020" xr:uid="{E9E961A2-7ED9-40FE-ABB1-92D1495A6058}"/>
-    <hyperlink ref="I107" r:id="rId49" display="Color: 420 mm" xr:uid="{70CC92A1-3489-49FF-A305-EA4BEBA40EE8}"/>
-    <hyperlink ref="I109" r:id="rId50" display="Color: 420 mm" xr:uid="{C2D7AC6A-2B7A-4CF5-B4C9-0F3C2D52367F}"/>
-    <hyperlink ref="I112" r:id="rId51" display="Color: 420 mm" xr:uid="{A4259B2C-35E6-4E18-9A22-B39EA6E8A3E3}"/>
-    <hyperlink ref="I20" r:id="rId52" display="Color: 4x10PCS 2028 Silver" xr:uid="{C93219CF-4D32-482A-8275-37C1A02D7B04}"/>
-    <hyperlink ref="I19" r:id="rId53" display="Color: 1x2020 (4pcs)" xr:uid="{4F3C13A1-F52F-4206-900C-B4E77902BF50}"/>
-    <hyperlink ref="I41" r:id="rId54" display="300x300 750W - 120VAC/220VAC" xr:uid="{CEFC505C-03F9-43E8-B793-CAA5CFF42081}"/>
-    <hyperlink ref="I30" r:id="rId55" display="https://www.aliexpress.com/item/1005003495377989.html" xr:uid="{53405AEA-9397-4AE8-B810-7AEBBF316A57}"/>
-    <hyperlink ref="I25" r:id="rId56" xr:uid="{3B1014CC-EECD-463A-9B67-F6D6371D1C92}"/>
-    <hyperlink ref="I36" r:id="rId57" xr:uid="{6308B7F3-791E-4EE3-8A90-FF14B0C92347}"/>
-    <hyperlink ref="I37" r:id="rId58" display="Color: 10Pin" xr:uid="{862B1710-40DD-4D45-8591-8540A1F3795D}"/>
-    <hyperlink ref="I51" r:id="rId59" xr:uid="{F18AAE1C-3310-4534-A2A0-FD276F0CB471}"/>
-    <hyperlink ref="I52" r:id="rId60" xr:uid="{D225820F-DD6F-47AC-B161-59F21384AEB1}"/>
-    <hyperlink ref="I54" r:id="rId61" xr:uid="{A1C476E8-4C0A-416C-895F-CB0FF4CF4DA2}"/>
-    <hyperlink ref="I42" r:id="rId62" xr:uid="{C6F7896B-3895-437C-B832-E4CE37CFA899}"/>
-    <hyperlink ref="I43" r:id="rId63" display="S: 4mm Barb - TS: 1/4&quot;" xr:uid="{2B44AB4F-AA65-453B-8182-DAEE4E742DD6}"/>
-    <hyperlink ref="I23" r:id="rId64" xr:uid="{400AB169-DF3B-458B-B4BC-D325DD62A206}"/>
-    <hyperlink ref="I7" r:id="rId65" display="5x50 - 20PCS" xr:uid="{4E84AE98-52E0-42C1-9368-357566ADE35E}"/>
-    <hyperlink ref="I56" r:id="rId66" xr:uid="{18DA0DDC-EFC4-469D-9FB9-5EDF23E44C1F}"/>
-    <hyperlink ref="I61" r:id="rId67" xr:uid="{42D5885D-D05C-4C8F-A0A6-31196BC8A998}"/>
-    <hyperlink ref="I69" r:id="rId68" display="ID: M4(100PCS)" xr:uid="{B2777790-305B-4258-B27E-0B0510452C92}"/>
-    <hyperlink ref="I74" r:id="rId69" xr:uid="{E30EE4AB-92BC-47EC-8B87-851649ADA300}"/>
-    <hyperlink ref="I84" r:id="rId70" xr:uid="{5BE91CE9-3DDA-46F2-B5E0-34464497242A}"/>
-    <hyperlink ref="I85" r:id="rId71" display="S: 10pcs M5 - L: 10mm" xr:uid="{9EF647D7-AE79-4758-903A-ED27EAD2484C}"/>
-    <hyperlink ref="I86" r:id="rId72" display="S: 10pcs M5 - L: 10mm" xr:uid="{639FCC7E-D9C2-4EA7-AE47-19FB48D156C7}"/>
-    <hyperlink ref="I88" r:id="rId73" display="S: 10pcs M5 - L: 10mm" xr:uid="{EBB69F9E-0C12-4E8C-AC83-B56049138C2E}"/>
-    <hyperlink ref="I89" r:id="rId74" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{065EAEDB-D131-478B-8370-8C2E5646A41E}"/>
-    <hyperlink ref="I90" r:id="rId75" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{98ED755C-0D14-4662-8A4F-2E49986E3D9B}"/>
-    <hyperlink ref="I91" r:id="rId76" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{6BE4BDC7-9A08-4700-B501-17D2AA7DB2EE}"/>
-    <hyperlink ref="I92" r:id="rId77" display="S: 10pcs M5 - L: 10mm" xr:uid="{DED82DCD-2FAA-4C81-9787-A3BB7443A197}"/>
-    <hyperlink ref="I14" r:id="rId78" xr:uid="{C1232C0C-9B0D-4F15-9A17-88DD0F0B366E}"/>
-    <hyperlink ref="I47" r:id="rId79" xr:uid="{6B342A7C-3223-441B-BA54-EB726DAE7228}"/>
-    <hyperlink ref="I45" r:id="rId80" display="P16 RGB Silent Fan 120mm" xr:uid="{E4B8A3C8-371E-4D73-B3EC-96050B57F24F}"/>
-    <hyperlink ref="I48" r:id="rId81" xr:uid="{EDBD9826-6B9E-46B8-AAB8-5C973DAABC96}"/>
-    <hyperlink ref="I49" r:id="rId82" xr:uid="{8464A2DC-023A-4919-B297-2FDBBBD4D5B6}"/>
-    <hyperlink ref="I50" r:id="rId83" display="C: 6x8mm - L: 5M" xr:uid="{98B377C7-126F-4D2F-8854-ABF0CE3FAB68}"/>
-    <hyperlink ref="I46" r:id="rId84" xr:uid="{ECF57003-5ABF-4AD9-83DB-0628060DDD7B}"/>
-    <hyperlink ref="I26" r:id="rId85" xr:uid="{097FDA04-D005-411A-B496-1BC475898E6F}"/>
-    <hyperlink ref="I75" r:id="rId86" display="S: 10pcs M4 - L: 20mm" xr:uid="{C5826B9A-F771-46EF-9B2A-46E7597015A5}"/>
-    <hyperlink ref="I77" r:id="rId87" display="S: 10pcs M4 - L: 20mm" xr:uid="{663B6ED5-C954-4DFD-AB9B-74D8830DCC67}"/>
-    <hyperlink ref="I59" r:id="rId88" display="S: 10pcs M5 - L: 10mm" xr:uid="{8BCBDD54-C503-4A68-8616-51AB3BEA554B}"/>
-    <hyperlink ref="I60" r:id="rId89" display="S: 10pcs M4 - L: 20mm" xr:uid="{6AAD8BA5-EC70-47FD-ACE5-B23DC37802DA}"/>
-    <hyperlink ref="I62" r:id="rId90" display="S: 10pcs M3 - L: 8mm" xr:uid="{EA94F40A-3AF8-4F90-8F8B-18F229D3E320}"/>
-    <hyperlink ref="I64" r:id="rId91" display="S: 10pcs M3 - L: 8mm" xr:uid="{8DA919EA-F0B5-4F30-99F9-DC086E0C9680}"/>
-    <hyperlink ref="I66" r:id="rId92" display="S: 10pcs M3 - L: 8mm" xr:uid="{0F4A8E86-8F66-4D81-80B4-86F35EA862D9}"/>
-    <hyperlink ref="I72" r:id="rId93" display="S: 10pcs M3 - L: 8mm" xr:uid="{3CDA4528-16EC-41F7-9A9D-351E96644BBA}"/>
-    <hyperlink ref="I67" r:id="rId94" display="S: 25pcs M3" xr:uid="{E906F13E-EDC9-4892-9B18-79329B3CF0B7}"/>
-    <hyperlink ref="I68" r:id="rId95" display="S: 10pcs M3" xr:uid="{71794BBC-CA39-4991-8CD1-307EFA2F836E}"/>
-    <hyperlink ref="I80" r:id="rId96" display="S: 25pcs M3" xr:uid="{3131039F-B734-41A4-A204-A59C22ED9A57}"/>
-    <hyperlink ref="I81" r:id="rId97" display="S: 10pcs M3" xr:uid="{F0B7A532-41BF-4348-B107-C1C26F684AC4}"/>
-    <hyperlink ref="I95" r:id="rId98" display="https://s.click.aliexpress.com/e/_c3h7Zh5j" xr:uid="{C0116F09-FFC3-4E4E-8906-DA78E1D65DB9}"/>
-    <hyperlink ref="I79" r:id="rId99" display="S: M3 - Color: 100PCS" xr:uid="{E80C8403-CA67-4B32-A81C-274DCBF027B6}"/>
-    <hyperlink ref="I65" r:id="rId100" xr:uid="{3F8DDBEA-B7BB-4E3F-8466-A29F32CAF5D1}"/>
-    <hyperlink ref="I40" r:id="rId101" xr:uid="{1C65B190-B877-4BEB-87D4-18BD33936E76}"/>
-    <hyperlink ref="I99" r:id="rId102" xr:uid="{386B7278-E3B9-4DF0-B1C5-4005B9ADF7D4}"/>
-    <hyperlink ref="I104" r:id="rId103" xr:uid="{09E8DC7A-1819-446C-B668-2580916B7F9F}"/>
-    <hyperlink ref="I103" r:id="rId104" xr:uid="{888646B3-24C6-4409-9F44-77E56E7B7A8B}"/>
-    <hyperlink ref="I102" r:id="rId105" display="Color: SET2" xr:uid="{52E04A98-B60B-4F15-8B05-408178C29178}"/>
-    <hyperlink ref="I106" r:id="rId106" xr:uid="{BD4F34BF-BABC-43F5-BAB4-A3DF2FBBEDAB}"/>
-    <hyperlink ref="I24" r:id="rId107" xr:uid="{8F819BE9-2369-4701-A38A-4CAAAAF7D828}"/>
-    <hyperlink ref="I58" r:id="rId108" xr:uid="{FD857523-6A28-46A3-A3E9-9EC609DE7931}"/>
-    <hyperlink ref="I57" r:id="rId109" xr:uid="{20046C27-ACC6-4E89-B149-345EDFAAC2D6}"/>
-    <hyperlink ref="I71" r:id="rId110" display="https://www.aliexpress.com/item/1005004714550250.html?" xr:uid="{8E0A33B9-E206-4DB6-8F30-FE6E8DD914BF}"/>
-    <hyperlink ref="I63" r:id="rId111" xr:uid="{330AC5D7-13FB-4E52-B95E-B580AC70C6B1}"/>
-    <hyperlink ref="I93" r:id="rId112" xr:uid="{28376BAC-F087-487C-B2F0-7FF772C19284}"/>
-    <hyperlink ref="I27" r:id="rId113" xr:uid="{F715A1CC-9CA1-442B-B658-7D77B0B5A47D}"/>
-    <hyperlink ref="I38" r:id="rId114" xr:uid="{B2F77E2D-41DB-4334-9EF1-942450EAF1F0}"/>
+    <hyperlink ref="I11" r:id="rId7" display="Color: 6PCS" xr:uid="{83110E66-78FF-482A-A936-8F1BF7578A3C}"/>
+    <hyperlink ref="I39" r:id="rId8" xr:uid="{165F55F9-93B5-4C34-AB3E-2D5640BE01F4}"/>
+    <hyperlink ref="I52" r:id="rId9" display="https://www.aliexpress.com/item/4001085251691.html" xr:uid="{6FC7652C-4336-480C-B2E7-E04728B15743}"/>
+    <hyperlink ref="I5" r:id="rId10" display="688ZZ" xr:uid="{E47035C0-0384-4F36-8610-B86A56A6353C}"/>
+    <hyperlink ref="I4" r:id="rId11" display="F606ZZ" xr:uid="{7A42191B-CFDD-4A32-8150-88F26E71C9AC}"/>
+    <hyperlink ref="I10" r:id="rId12" xr:uid="{79950C8E-6C0D-43A7-9D36-8F08E49E0336}"/>
+    <hyperlink ref="I16" r:id="rId13" xr:uid="{96A70493-75D0-4733-A3CA-6179A33F98AC}"/>
+    <hyperlink ref="I26" r:id="rId14" xr:uid="{87783477-33AB-4F63-96D6-84FFA77C3655}"/>
+    <hyperlink ref="I7" r:id="rId15" display="C: 30x30" xr:uid="{606973F0-66B4-48E0-9052-7FF9AC915346}"/>
+    <hyperlink ref="I50" r:id="rId16" xr:uid="{9E6D60F7-4FD8-4383-A6FD-19E6F8255EF5}"/>
+    <hyperlink ref="I60" r:id="rId17" display="https://s.click.aliexpress.com/e/_c3suoWc5" xr:uid="{171176F6-4231-406A-9168-9A596B642215}"/>
+    <hyperlink ref="I112" r:id="rId18" xr:uid="{0241C0AB-3D65-413B-8BA6-3B272D19AC35}"/>
+    <hyperlink ref="I108" r:id="rId19" xr:uid="{52ADCB77-FF0E-42E8-AC3C-EF1C337A8CEE}"/>
+    <hyperlink ref="I20" r:id="rId20" display="Color: L400 - MGN12H" xr:uid="{38BCC57D-FD03-4471-B927-A7E12E3DB518}"/>
+    <hyperlink ref="I21" r:id="rId21" display="Color: L400 - MGN12H" xr:uid="{BD6A1B04-1DB5-4668-9226-2B16CD7A0FF8}"/>
+    <hyperlink ref="I22" r:id="rId22" display="Color: L400 - MGN12H" xr:uid="{84FFEA79-873A-463E-9519-EA26805DD99E}"/>
+    <hyperlink ref="I62" r:id="rId23" display="Color: 17HS19-2504S-H-V1" xr:uid="{63EC9369-3A56-4A55-ADB6-E63DA70C5687}"/>
+    <hyperlink ref="I61" r:id="rId24" display="Color: 17HS16 2004S1" xr:uid="{982DA236-4666-4A0F-ABF1-9B4663B545D1}"/>
+    <hyperlink ref="I69" r:id="rId25" display="M6x12x1mm -50PCS" xr:uid="{A89E7AD8-F920-4AF5-B677-81DF07FB2B6D}"/>
+    <hyperlink ref="I14" r:id="rId26" display="688ZZ" xr:uid="{67E8D5C1-A156-413D-AF31-8133207133A7}"/>
+    <hyperlink ref="I30" r:id="rId27" xr:uid="{960B587A-C345-41F8-9F00-5A72468B4E5D}"/>
+    <hyperlink ref="I31" r:id="rId28" display="6x25 - 20PCS" xr:uid="{C587A070-5E91-4470-9462-B26505335891}"/>
+    <hyperlink ref="I29" r:id="rId29" display="5x50 - 20PCS" xr:uid="{E2BC9294-BE45-4337-94D9-D1A7EB5D4876}"/>
+    <hyperlink ref="I111" r:id="rId30" xr:uid="{5DF1E2A3-6063-41FD-B02D-4A4F1F17507D}"/>
+    <hyperlink ref="I3" r:id="rId31" display="500mm - 20x20x1mm" xr:uid="{D204D176-2E62-40E3-82BF-401F19A0D89A}"/>
+    <hyperlink ref="I55" r:id="rId32" display="9mm-EPDM 5M" xr:uid="{D3872713-B062-4A7C-ADB1-EF62ABB53482}"/>
+    <hyperlink ref="I56" r:id="rId33" display="5mm-Pulley 26T" xr:uid="{90074162-A7AA-4715-B971-FF9CE46FAD99}"/>
+    <hyperlink ref="I18" r:id="rId34" display="S: M3 - Color: 100PCS" xr:uid="{6449E8A0-482C-470E-97D7-EF72A2F2A913}"/>
+    <hyperlink ref="I89" r:id="rId35" xr:uid="{6EB531E8-C3FE-4D01-8D5C-97575E119FCC}"/>
+    <hyperlink ref="I94" r:id="rId36" xr:uid="{91B40BE5-71A5-4A12-84CC-1243069DE4B2}"/>
+    <hyperlink ref="I72" r:id="rId37" xr:uid="{78488DAB-B700-44AA-A232-44B7D5C2B043}"/>
+    <hyperlink ref="I97" r:id="rId38" display="ID: M5(100PCS)" xr:uid="{D89841D5-DE86-4EF3-A46E-87C4608B9CB4}"/>
+    <hyperlink ref="I101" r:id="rId39" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{7702497C-D29A-4776-9646-42512A281763}"/>
+    <hyperlink ref="I92" r:id="rId40" display="S: 10PCS M4 - L: 35" xr:uid="{EEAD0EA0-423E-407A-8EED-083AE2165F0E}"/>
+    <hyperlink ref="I67" r:id="rId41" xr:uid="{62AD37E9-A9DA-4CA1-A9DB-A74CBED013B4}"/>
+    <hyperlink ref="I2" r:id="rId42" display="500mm - 20x20x1mm" xr:uid="{6064A7A7-4811-4867-831D-5DD621C8F26F}"/>
+    <hyperlink ref="I15" r:id="rId43" xr:uid="{B943D4B9-8B39-41E3-AF1C-D92FC272CF39}"/>
+    <hyperlink ref="I58" r:id="rId44" display="BD: 5mm BW: 10mm N: 5PCS" xr:uid="{48A1A5F5-9613-43F0-AB8A-D09C3DDA1C3B}"/>
+    <hyperlink ref="I57" r:id="rId45" xr:uid="{C6EC4DA3-1FE8-42F5-AF13-426B397564D6}"/>
+    <hyperlink ref="I35" r:id="rId46" xr:uid="{0C02753A-60E1-4368-AD8A-ED26844E80A1}"/>
+    <hyperlink ref="I33" r:id="rId47" display="Color: 420 mm" xr:uid="{0E8E3DCA-6FE1-423A-9C75-E7E7B690BDB7}"/>
+    <hyperlink ref="I36" r:id="rId48" display="Color: L 368mm - 2020" xr:uid="{E9E961A2-7ED9-40FE-ABB1-92D1495A6058}"/>
+    <hyperlink ref="I32" r:id="rId49" display="Color: 420 mm" xr:uid="{70CC92A1-3489-49FF-A305-EA4BEBA40EE8}"/>
+    <hyperlink ref="I34" r:id="rId50" display="Color: 420 mm" xr:uid="{C2D7AC6A-2B7A-4CF5-B4C9-0F3C2D52367F}"/>
+    <hyperlink ref="I37" r:id="rId51" display="Color: 420 mm" xr:uid="{A4259B2C-35E6-4E18-9A22-B39EA6E8A3E3}"/>
+    <hyperlink ref="I38" r:id="rId52" display="Color: 4x10PCS 2028 Silver" xr:uid="{C93219CF-4D32-482A-8275-37C1A02D7B04}"/>
+    <hyperlink ref="I17" r:id="rId53" display="Color: 1x2020 (4pcs)" xr:uid="{4F3C13A1-F52F-4206-900C-B4E77902BF50}"/>
+    <hyperlink ref="I40" r:id="rId54" display="300x300 750W - 120VAC/220VAC" xr:uid="{CEFC505C-03F9-43E8-B793-CAA5CFF42081}"/>
+    <hyperlink ref="I51" r:id="rId55" display="https://www.aliexpress.com/item/1005003495377989.html" xr:uid="{53405AEA-9397-4AE8-B810-7AEBBF316A57}"/>
+    <hyperlink ref="I110" r:id="rId56" xr:uid="{3B1014CC-EECD-463A-9B67-F6D6371D1C92}"/>
+    <hyperlink ref="I41" r:id="rId57" xr:uid="{6308B7F3-791E-4EE3-8A90-FF14B0C92347}"/>
+    <hyperlink ref="I42" r:id="rId58" display="Color: 10Pin" xr:uid="{862B1710-40DD-4D45-8591-8540A1F3795D}"/>
+    <hyperlink ref="I24" r:id="rId59" xr:uid="{F18AAE1C-3310-4534-A2A0-FD276F0CB471}"/>
+    <hyperlink ref="I25" r:id="rId60" xr:uid="{D225820F-DD6F-47AC-B161-59F21384AEB1}"/>
+    <hyperlink ref="I71" r:id="rId61" xr:uid="{A1C476E8-4C0A-416C-895F-CB0FF4CF4DA2}"/>
+    <hyperlink ref="I8" r:id="rId62" xr:uid="{C6F7896B-3895-437C-B832-E4CE37CFA899}"/>
+    <hyperlink ref="I9" r:id="rId63" display="S: 4mm Barb - TS: 1/4&quot;" xr:uid="{2B44AB4F-AA65-453B-8182-DAEE4E742DD6}"/>
+    <hyperlink ref="I66" r:id="rId64" xr:uid="{400AB169-DF3B-458B-B4BC-D325DD62A206}"/>
+    <hyperlink ref="I28" r:id="rId65" display="5x50 - 20PCS" xr:uid="{4E84AE98-52E0-42C1-9368-357566ADE35E}"/>
+    <hyperlink ref="I73" r:id="rId66" xr:uid="{18DA0DDC-EFC4-469D-9FB9-5EDF23E44C1F}"/>
+    <hyperlink ref="I78" r:id="rId67" xr:uid="{42D5885D-D05C-4C8F-A0A6-31196BC8A998}"/>
+    <hyperlink ref="I86" r:id="rId68" display="ID: M4(100PCS)" xr:uid="{B2777790-305B-4258-B27E-0B0510452C92}"/>
+    <hyperlink ref="I90" r:id="rId69" xr:uid="{E30EE4AB-92BC-47EC-8B87-851649ADA300}"/>
+    <hyperlink ref="I98" r:id="rId70" xr:uid="{5BE91CE9-3DDA-46F2-B5E0-34464497242A}"/>
+    <hyperlink ref="I99" r:id="rId71" display="S: 10pcs M5 - L: 10mm" xr:uid="{9EF647D7-AE79-4758-903A-ED27EAD2484C}"/>
+    <hyperlink ref="I100" r:id="rId72" display="S: 10pcs M5 - L: 10mm" xr:uid="{639FCC7E-D9C2-4EA7-AE47-19FB48D156C7}"/>
+    <hyperlink ref="I102" r:id="rId73" display="S: 10pcs M5 - L: 10mm" xr:uid="{EBB69F9E-0C12-4E8C-AC83-B56049138C2E}"/>
+    <hyperlink ref="I103" r:id="rId74" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{065EAEDB-D131-478B-8370-8C2E5646A41E}"/>
+    <hyperlink ref="I104" r:id="rId75" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{98ED755C-0D14-4662-8A4F-2E49986E3D9B}"/>
+    <hyperlink ref="I105" r:id="rId76" display="https://www.aliexpress.com/item/1005008848776055.html" xr:uid="{6BE4BDC7-9A08-4700-B501-17D2AA7DB2EE}"/>
+    <hyperlink ref="I106" r:id="rId77" display="S: 10pcs M5 - L: 10mm" xr:uid="{DED82DCD-2FAA-4C81-9787-A3BB7443A197}"/>
+    <hyperlink ref="I70" r:id="rId78" xr:uid="{C1232C0C-9B0D-4F15-9A17-88DD0F0B366E}"/>
+    <hyperlink ref="I64" r:id="rId79" xr:uid="{6B342A7C-3223-441B-BA54-EB726DAE7228}"/>
+    <hyperlink ref="I53" r:id="rId80" display="P16 RGB Silent Fan 120mm" xr:uid="{E4B8A3C8-371E-4D73-B3EC-96050B57F24F}"/>
+    <hyperlink ref="I65" r:id="rId81" xr:uid="{EDBD9826-6B9E-46B8-AAB8-5C973DAABC96}"/>
+    <hyperlink ref="I12" r:id="rId82" xr:uid="{8464A2DC-023A-4919-B297-2FDBBBD4D5B6}"/>
+    <hyperlink ref="I13" r:id="rId83" display="C: 6x8mm - L: 5M" xr:uid="{98B377C7-126F-4D2F-8854-ABF0CE3FAB68}"/>
+    <hyperlink ref="I27" r:id="rId84" xr:uid="{ECF57003-5ABF-4AD9-83DB-0628060DDD7B}"/>
+    <hyperlink ref="I109" r:id="rId85" xr:uid="{097FDA04-D005-411A-B496-1BC475898E6F}"/>
+    <hyperlink ref="I91" r:id="rId86" display="S: 10pcs M4 - L: 20mm" xr:uid="{C5826B9A-F771-46EF-9B2A-46E7597015A5}"/>
+    <hyperlink ref="I93" r:id="rId87" display="S: 10pcs M4 - L: 20mm" xr:uid="{663B6ED5-C954-4DFD-AB9B-74D8830DCC67}"/>
+    <hyperlink ref="I76" r:id="rId88" display="S: 10pcs M5 - L: 10mm" xr:uid="{8BCBDD54-C503-4A68-8616-51AB3BEA554B}"/>
+    <hyperlink ref="I77" r:id="rId89" display="S: 10pcs M4 - L: 20mm" xr:uid="{6AAD8BA5-EC70-47FD-ACE5-B23DC37802DA}"/>
+    <hyperlink ref="I79" r:id="rId90" display="S: 10pcs M3 - L: 8mm" xr:uid="{EA94F40A-3AF8-4F90-8F8B-18F229D3E320}"/>
+    <hyperlink ref="I81" r:id="rId91" display="S: 10pcs M3 - L: 8mm" xr:uid="{8DA919EA-F0B5-4F30-99F9-DC086E0C9680}"/>
+    <hyperlink ref="I83" r:id="rId92" display="S: 10pcs M3 - L: 8mm" xr:uid="{0F4A8E86-8F66-4D81-80B4-86F35EA862D9}"/>
+    <hyperlink ref="I88" r:id="rId93" display="S: 10pcs M3 - L: 8mm" xr:uid="{3CDA4528-16EC-41F7-9A9D-351E96644BBA}"/>
+    <hyperlink ref="I84" r:id="rId94" display="S: 25pcs M3" xr:uid="{E906F13E-EDC9-4892-9B18-79329B3CF0B7}"/>
+    <hyperlink ref="I85" r:id="rId95" display="S: 10pcs M3" xr:uid="{71794BBC-CA39-4991-8CD1-307EFA2F836E}"/>
+    <hyperlink ref="I95" r:id="rId96" display="S: 25pcs M3" xr:uid="{3131039F-B734-41A4-A204-A59C22ED9A57}"/>
+    <hyperlink ref="I96" r:id="rId97" display="S: 10pcs M3" xr:uid="{F0B7A532-41BF-4348-B107-C1C26F684AC4}"/>
+    <hyperlink ref="I107" r:id="rId98" display="https://s.click.aliexpress.com/e/_c3h7Zh5j" xr:uid="{C0116F09-FFC3-4E4E-8906-DA78E1D65DB9}"/>
+    <hyperlink ref="I19" r:id="rId99" display="S: M3 - Color: 100PCS" xr:uid="{E80C8403-CA67-4B32-A81C-274DCBF027B6}"/>
+    <hyperlink ref="I82" r:id="rId100" xr:uid="{3F8DDBEA-B7BB-4E3F-8466-A29F32CAF5D1}"/>
+    <hyperlink ref="I43" r:id="rId101" xr:uid="{1C65B190-B877-4BEB-87D4-18BD33936E76}"/>
+    <hyperlink ref="I54" r:id="rId102" xr:uid="{386B7278-E3B9-4DF0-B1C5-4005B9ADF7D4}"/>
+    <hyperlink ref="I23" r:id="rId103" xr:uid="{09E8DC7A-1819-446C-B668-2580916B7F9F}"/>
+    <hyperlink ref="I46" r:id="rId104" xr:uid="{888646B3-24C6-4409-9F44-77E56E7B7A8B}"/>
+    <hyperlink ref="I45" r:id="rId105" display="Color: SET2" xr:uid="{52E04A98-B60B-4F15-8B05-408178C29178}"/>
+    <hyperlink ref="I6" r:id="rId106" xr:uid="{BD4F34BF-BABC-43F5-BAB4-A3DF2FBBEDAB}"/>
+    <hyperlink ref="I47" r:id="rId107" xr:uid="{8F819BE9-2369-4701-A38A-4CAAAAF7D828}"/>
+    <hyperlink ref="I75" r:id="rId108" xr:uid="{FD857523-6A28-46A3-A3E9-9EC609DE7931}"/>
+    <hyperlink ref="I74" r:id="rId109" xr:uid="{20046C27-ACC6-4E89-B149-345EDFAAC2D6}"/>
+    <hyperlink ref="I87" r:id="rId110" display="https://www.aliexpress.com/item/1005004714550250.html?" xr:uid="{8E0A33B9-E206-4DB6-8F30-FE6E8DD914BF}"/>
+    <hyperlink ref="I80" r:id="rId111" xr:uid="{330AC5D7-13FB-4E52-B95E-B580AC70C6B1}"/>
+    <hyperlink ref="I63" r:id="rId112" xr:uid="{28376BAC-F087-487C-B2F0-7FF772C19284}"/>
+    <hyperlink ref="I48" r:id="rId113" xr:uid="{F715A1CC-9CA1-442B-B658-7D77B0B5A47D}"/>
+    <hyperlink ref="I49" r:id="rId114" xr:uid="{B2F77E2D-41DB-4334-9EF1-942450EAF1F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -10039,7 +10032,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="16"/>
@@ -10055,17 +10048,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -10073,16 +10066,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -10090,16 +10083,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C5" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>591</v>
-      </c>
       <c r="E5" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -10107,16 +10100,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -10124,7 +10117,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -10146,7 +10139,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="16"/>
@@ -10159,10 +10152,10 @@
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="16" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E11" s="18"/>
     </row>
@@ -10172,10 +10165,10 @@
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="16" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="E12" s="18"/>
     </row>
@@ -10185,13 +10178,13 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="16" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -10200,13 +10193,13 @@
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="16" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -10215,10 +10208,10 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E15" s="18"/>
     </row>
@@ -10228,10 +10221,10 @@
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="16" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E16" s="18"/>
     </row>
@@ -10242,7 +10235,7 @@
       <c r="B17" s="18"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E17" s="18"/>
     </row>
@@ -10253,7 +10246,7 @@
       <c r="B18" s="18"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E18" s="18"/>
     </row>
@@ -10263,13 +10256,13 @@
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="16" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -10278,13 +10271,13 @@
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="16" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -10296,13 +10289,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="18"/>
@@ -10312,16 +10305,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -10329,16 +10322,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -10346,16 +10339,16 @@
         <v>3</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10363,7 +10356,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -10392,12 +10385,12 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
       <c r="E30" s="18" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -10429,177 +10422,177 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B6" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B8" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B13" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B15" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B17" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -10627,7 +10620,7 @@
         <v>294</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -10636,12 +10629,12 @@
         <v>520</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="128" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
@@ -10650,90 +10643,90 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="128" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="128" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="128" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="128" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="128" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="128" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C9" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -15790,7 +15783,7 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E29"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -15828,29 +15821,29 @@
         <v>522</v>
       </c>
       <c r="D2" s="102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="125" t="s">
-        <v>523</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>524</v>
+      <c r="B3" s="126" t="s">
+        <v>140</v>
       </c>
       <c r="D3" s="102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="126" t="s">
-        <v>140</v>
+      <c r="B4" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>523</v>
       </c>
       <c r="D4" s="102">
         <v>1</v>
@@ -15860,12 +15853,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>525</v>
-      </c>
+      <c r="B5" s="126" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="102"/>
       <c r="D5" s="102">
         <v>1</v>
       </c>
@@ -15874,10 +15865,9 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="126" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="102"/>
+      <c r="B6" s="175" t="s">
+        <v>665</v>
+      </c>
       <c r="D6" s="102">
         <v>1</v>
       </c>
@@ -15886,8 +15876,11 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="180" t="s">
-        <v>669</v>
+      <c r="B7" s="125" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>525</v>
       </c>
       <c r="D7" s="102">
         <v>1</v>
@@ -15897,28 +15890,23 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="125" t="s">
-        <v>526</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>527</v>
-      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="102"/>
       <c r="D8" s="102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="125" t="s">
-        <v>528</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>529</v>
+      <c r="B9" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="102">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>308</v>
@@ -15926,9 +15914,8 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="102"/>
+        <v>663</v>
+      </c>
       <c r="D10" s="102">
         <v>4</v>
       </c>
@@ -15938,10 +15925,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="D11" s="102">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>308</v>
@@ -15949,73 +15936,73 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>667</v>
+        <v>307</v>
       </c>
       <c r="D12" s="102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>367</v>
+      <c r="B13" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="D13" s="102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>307</v>
+      <c r="B14" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="D14" s="102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>309</v>
+      <c r="B15" t="s">
+        <v>526</v>
       </c>
       <c r="D15" s="102">
-        <v>4</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>308</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="171" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>223</v>
+      <c r="B16" s="127" t="s">
+        <v>528</v>
       </c>
       <c r="D16" s="102">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="170" t="s">
+        <v>529</v>
+      </c>
+      <c r="D17" s="102">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="82" t="s">
         <v>530</v>
-      </c>
-      <c r="D17" s="102">
-        <v>1</v>
-      </c>
-      <c r="E17" s="176" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="127" t="s">
-        <v>532</v>
       </c>
       <c r="D18" s="102">
         <v>1</v>
@@ -16025,100 +16012,78 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="172" t="s">
-        <v>533</v>
-      </c>
-      <c r="D19" s="102">
-        <v>1</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>311</v>
-      </c>
+      <c r="B19" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="117"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="82" t="s">
-        <v>534</v>
-      </c>
-      <c r="D20" s="102">
-        <v>1</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>311</v>
-      </c>
+      <c r="B20" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="117"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>668</v>
-      </c>
-      <c r="C21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="C21" s="26"/>
       <c r="D21" s="117"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="117"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="C23" s="26"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
       <c r="D23" s="117"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="26"/>
+      <c r="B24" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C24" s="24"/>
       <c r="D24" s="117"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="117"/>
+      <c r="B25" s="117" t="s">
+        <v>322</v>
+      </c>
       <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
+      <c r="D25" s="117" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="117"/>
+      <c r="B26" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="117" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C27" s="117"/>
       <c r="D27" s="117" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="117" t="s">
-        <v>324</v>
-      </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="117" t="s">
-        <v>326</v>
-      </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="117" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="39" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" xr:uid="{A08D53C6-D379-46AA-9F70-60828147D22E}"/>
-    <hyperlink ref="B23" r:id="rId2" xr:uid="{64C6E7CC-1EE7-403C-BA1D-C136CF7AACAB}"/>
-    <hyperlink ref="B24" r:id="rId3" xr:uid="{A3267783-7917-4321-840E-6280A62792AE}"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{A08D53C6-D379-46AA-9F70-60828147D22E}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{64C6E7CC-1EE7-403C-BA1D-C136CF7AACAB}"/>
+    <hyperlink ref="B22" r:id="rId3" xr:uid="{A3267783-7917-4321-840E-6280A62792AE}"/>
   </hyperlinks>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="9.8425196850393706E-2" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -16186,12 +16151,12 @@
         <v>299</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C2" s="102">
         <v>1</v>
@@ -16200,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F2" s="41">
         <v>2</v>
@@ -16212,7 +16177,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="125" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C3" s="102">
         <v>1</v>
@@ -16221,7 +16186,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F3" s="41">
         <v>40</v>
@@ -16237,7 +16202,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="126" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C4" s="102">
         <v>1</v>
@@ -16246,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F4" s="41">
         <v>4</v>
@@ -16258,7 +16223,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C5" s="32">
         <v>2</v>
@@ -16274,155 +16239,155 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="126" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" s="178" t="s">
-        <v>544</v>
+        <v>539</v>
+      </c>
+      <c r="B6" s="173" t="s">
+        <v>540</v>
       </c>
       <c r="C6" s="102"/>
       <c r="D6" s="32"/>
       <c r="E6" s="95" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F6" s="41"/>
       <c r="G6" s="73"/>
       <c r="I6" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="125" t="s">
-        <v>546</v>
-      </c>
-      <c r="B7" s="178" t="s">
-        <v>544</v>
+        <v>542</v>
+      </c>
+      <c r="B7" s="173" t="s">
+        <v>540</v>
       </c>
       <c r="C7" s="102"/>
       <c r="D7" s="32"/>
       <c r="E7" s="96" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="73"/>
       <c r="I7" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="125" t="s">
-        <v>547</v>
-      </c>
-      <c r="B8" s="178" t="s">
-        <v>544</v>
+        <v>543</v>
+      </c>
+      <c r="B8" s="173" t="s">
+        <v>540</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="96" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="73"/>
       <c r="I8" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="125" t="s">
-        <v>548</v>
-      </c>
-      <c r="B9" s="179" t="s">
-        <v>549</v>
+        <v>544</v>
+      </c>
+      <c r="B9" s="174" t="s">
+        <v>545</v>
       </c>
       <c r="C9" s="102"/>
       <c r="D9" s="32"/>
       <c r="E9" s="96" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="73"/>
       <c r="I9" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="72" t="s">
-        <v>550</v>
-      </c>
-      <c r="B10" s="179" t="s">
-        <v>549</v>
+        <v>546</v>
+      </c>
+      <c r="B10" s="174" t="s">
+        <v>545</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="32"/>
       <c r="E10" s="96" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="73"/>
       <c r="I10" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="125" t="s">
-        <v>551</v>
-      </c>
-      <c r="B11" s="179" t="s">
-        <v>549</v>
+        <v>547</v>
+      </c>
+      <c r="B11" s="174" t="s">
+        <v>545</v>
       </c>
       <c r="C11" s="102"/>
       <c r="D11" s="32"/>
       <c r="E11" s="96" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="73"/>
       <c r="I11" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
-        <v>546</v>
-      </c>
-      <c r="B12" s="179" t="s">
-        <v>549</v>
+        <v>542</v>
+      </c>
+      <c r="B12" s="174" t="s">
+        <v>545</v>
       </c>
       <c r="C12" s="102"/>
       <c r="D12" s="32"/>
       <c r="E12" s="95" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="73"/>
       <c r="I12" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="127" t="s">
-        <v>552</v>
-      </c>
-      <c r="B13" s="179" t="s">
-        <v>553</v>
+        <v>548</v>
+      </c>
+      <c r="B13" s="174" t="s">
+        <v>549</v>
       </c>
       <c r="C13" s="102"/>
       <c r="D13" s="32"/>
       <c r="E13" s="96" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F13" s="41"/>
       <c r="G13" s="73"/>
       <c r="I13" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" s="97" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F14" s="81"/>
       <c r="G14" s="81">
@@ -16430,20 +16395,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="98" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" s="97" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F15" s="81"/>
       <c r="G15" s="81">
@@ -16451,20 +16416,20 @@
         <v>0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="98" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" s="97" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F16" s="81"/>
       <c r="G16" s="81">
@@ -16472,20 +16437,20 @@
         <v>0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="98" t="s">
+        <v>552</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>560</v>
       </c>
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" s="97" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F17" s="81"/>
       <c r="G17" s="81">
@@ -16493,24 +16458,24 @@
         <v>0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="125" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C18" s="102"/>
       <c r="D18" s="32"/>
       <c r="E18" s="31" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="73"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C19" s="102"/>
       <c r="D19" s="32"/>
@@ -16522,7 +16487,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C20" s="32">
         <v>1</v>
@@ -16531,7 +16496,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F20" s="81">
         <v>10</v>
@@ -16543,7 +16508,7 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C21" s="32">
         <v>1</v>
@@ -16552,7 +16517,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="95" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F21" s="81"/>
       <c r="G21" s="81">
@@ -16560,12 +16525,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="93" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C22" s="32">
         <v>1</v>
@@ -16574,12 +16539,12 @@
         <v>1</v>
       </c>
       <c r="E22" s="95" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F22" s="81"/>
       <c r="G22" s="81"/>
       <c r="L22" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M22" s="99">
         <v>11.37</v>
@@ -16587,17 +16552,17 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C23" s="32"/>
       <c r="D23" s="32"/>
       <c r="E23" s="97" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F23" s="81"/>
       <c r="G23" s="81"/>
       <c r="L23" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M23" s="4">
         <v>4.82</v>
@@ -16605,12 +16570,12 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
       <c r="E24" s="97" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F24" s="81"/>
       <c r="G24" s="81">
@@ -16618,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M24" s="4">
         <v>1.31</v>
@@ -16626,7 +16591,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C25" s="32">
         <v>3</v>
@@ -16635,7 +16600,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="31" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F25" s="81">
         <v>18</v>
@@ -16647,7 +16612,7 @@
     </row>
     <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C26" s="32">
         <v>1</v>
@@ -16656,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F26" s="81">
         <v>35</v>
@@ -16668,7 +16633,7 @@
     </row>
     <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="66" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B27" s="70"/>
       <c r="C27" s="123"/>
